--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519035D-3FF1-C440-B003-D7FD078D3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BB0A14-E11C-3B40-95D2-A0FD153A77E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="1720" windowWidth="27640" windowHeight="15600" activeTab="1" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
+    <workbookView xWindow="31180" yWindow="-680" windowWidth="36020" windowHeight="15600" activeTab="1" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="res_2023_03_13" localSheetId="1">Sheet3!$A$69:$J$74</definedName>
+    <definedName name="res_2023_03_13" localSheetId="1">Sheet3!$A$67:$J$73</definedName>
     <definedName name="res_2023_03_14" localSheetId="0">Sheet1!$A$2:$I$19</definedName>
-    <definedName name="res_2023_03_14" localSheetId="2">Sheet2!$A$2:$G$19</definedName>
-    <definedName name="res_2023_03_14" localSheetId="1">Sheet3!$A$27:$J$68</definedName>
-    <definedName name="res_2023_03_15" localSheetId="1">Sheet3!$A$2:$J$26</definedName>
+    <definedName name="res_2023_03_14" localSheetId="3">Sheet2!$A$2:$G$19</definedName>
+    <definedName name="res_2023_03_14" localSheetId="1">Sheet3!$A$26:$J$66</definedName>
+    <definedName name="res_2023_03_15" localSheetId="1">Sheet3!$A$2:$J$25</definedName>
+    <definedName name="res_2023_03_21" localSheetId="1">Sheet3!$A$130:$J$138</definedName>
+    <definedName name="res_2023_03_22" localSheetId="1">Sheet3!$A$77:$J$129</definedName>
+    <definedName name="res_2023_03_23" localSheetId="1">Sheet3!$A$74:$J$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +51,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{4DDAED6B-4EAD-D443-9ED2-56D7448035F5}" name="res_2023-03-13" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-13.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-13.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -104,7 +108,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{AE63384A-C909-4B44-A8AF-A445EBA105C8}" name="res_2023-03-142" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-14.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-14.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -123,7 +127,64 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{952549DF-3D51-E042-A5BD-C7EB1E95EE91}" name="res_2023-03-15" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-15.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-15.csv" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{576FBB86-15BF-6240-9F52-164DCF4F8DA8}" name="res_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-21.csv" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" xr16:uid="{3F0F3BDE-1385-DB4C-A954-2EC98445C765}" name="res_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-22.csv" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" xr16:uid="{697E2654-104B-2D4C-B229-7E65A5BD3D6D}" name="res_2023-03-23" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -145,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="50">
   <si>
     <t>model</t>
   </si>
@@ -187,9 +248,6 @@
   </si>
   <si>
     <t>FlowOCT_with_p</t>
-  </si>
-  <si>
-    <t>FlowORT_light_e_n</t>
   </si>
   <si>
     <t>hayes-roth_enc_reg.csv</t>
@@ -263,12 +321,48 @@
   <si>
     <t>kr-vs-kp_enc_reg.csv</t>
   </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>mean mae testing</t>
+  </si>
+  <si>
+    <t>mean r2 testing</t>
+  </si>
+  <si>
+    <t>mean mae training</t>
+  </si>
+  <si>
+    <t>mean r2 training</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>FlowORT</t>
+  </si>
+  <si>
+    <t>tic-tac-toe_enc_reg</t>
+  </si>
+  <si>
+    <t>time of resolution</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>FlowORT_light_e_n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,13 +370,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,10 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,18 +434,30 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="3" xr16:uid="{42D83F4C-E1F2-1247-8436-E6134923AE7C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -684,10 +807,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>124</v>
@@ -716,7 +839,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>124</v>
@@ -742,10 +865,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4">
         <v>124</v>
@@ -771,10 +894,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>132</v>
@@ -803,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>132</v>
@@ -829,10 +952,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>132</v>
@@ -858,10 +981,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>232</v>
@@ -890,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>232</v>
@@ -916,10 +1039,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>232</v>
@@ -945,10 +1068,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>277</v>
@@ -977,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>277</v>
@@ -1003,10 +1126,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>277</v>
@@ -1032,10 +1155,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>625</v>
@@ -1064,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>625</v>
@@ -1090,10 +1213,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>625</v>
@@ -1119,10 +1242,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1728</v>
@@ -1151,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>1728</v>
@@ -1177,10 +1300,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>1728</v>
@@ -1211,25 +1334,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2449F541-BB08-3E45-95D2-51CB8E55BE17}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
+    <col min="8" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1269,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>958</v>
@@ -1301,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>958</v>
@@ -1333,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>958</v>
@@ -1365,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1397,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>47</v>
@@ -1429,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>47</v>
@@ -1461,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>169</v>
@@ -1493,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>169</v>
@@ -1525,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>169</v>
@@ -1557,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>122</v>
@@ -1589,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>122</v>
@@ -1621,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>122</v>
@@ -1746,13 +1866,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
       <c r="C17">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1761,27 +1881,27 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1.1237194061279201</v>
+        <v>2.5107397556304898</v>
       </c>
       <c r="G17">
-        <v>0.20157575757575699</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="H17">
-        <v>0.57148033126293996</v>
+        <v>0.38503463897708301</v>
       </c>
       <c r="I17">
-        <v>0.290333333333333</v>
+        <v>0.28774928774928699</v>
       </c>
       <c r="J17">
-        <v>0.240555555555555</v>
+        <v>1.90849673202611E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>132</v>
@@ -1793,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2.5107397556304898</v>
+        <v>1.98078293800354</v>
       </c>
       <c r="G18">
         <v>0.18843665768194001</v>
@@ -1805,15 +1925,15 @@
         <v>0.28774928774928699</v>
       </c>
       <c r="J18">
-        <v>1.90849673202611E-2</v>
+        <v>1.9084967320261399E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>132</v>
@@ -1825,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1.98078293800354</v>
+        <v>1.5291576385498</v>
       </c>
       <c r="G19">
         <v>0.18843665768194001</v>
@@ -1842,42 +1962,42 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1.5291576385498</v>
+        <v>1.0118609905242899</v>
       </c>
       <c r="G20">
-        <v>0.18843665768194001</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="H20">
-        <v>0.38503463897708301</v>
+        <v>0.93508591531989405</v>
       </c>
       <c r="I20">
-        <v>0.28774928774928699</v>
+        <v>3.0342275670675298E-2</v>
       </c>
       <c r="J20">
-        <v>1.9084967320261399E-2</v>
+        <v>0.92139724310776905</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>232</v>
@@ -1889,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1.0118609905242899</v>
+        <v>1.5448903560638401</v>
       </c>
       <c r="G21">
-        <v>3.0183086312118499E-2</v>
+        <v>3.01830863121186E-2</v>
       </c>
       <c r="H21">
         <v>0.93508591531989405</v>
@@ -1906,10 +2026,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>232</v>
@@ -1921,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1.5448903560638401</v>
+        <v>1.8091198444366401</v>
       </c>
       <c r="G22">
-        <v>3.01830863121186E-2</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="H22">
         <v>0.93508591531989405</v>
@@ -1938,42 +2058,42 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1.8091198444366401</v>
+        <v>42.659689950942898</v>
       </c>
       <c r="G23">
-        <v>3.0183086312118499E-2</v>
+        <v>0.220231543760955</v>
       </c>
       <c r="H23">
-        <v>0.93508591531989405</v>
+        <v>0.246868753137409</v>
       </c>
       <c r="I23">
-        <v>3.0342275670675298E-2</v>
+        <v>0.26370129870129799</v>
       </c>
       <c r="J23">
-        <v>0.92139724310776905</v>
+        <v>9.5674603174603204E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>277</v>
@@ -1985,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>42.659689950942898</v>
+        <v>111.456831741333</v>
       </c>
       <c r="G24">
         <v>0.220231543760955</v>
@@ -1994,18 +2114,18 @@
         <v>0.246868753137409</v>
       </c>
       <c r="I24">
-        <v>0.26370129870129799</v>
+        <v>0.27798701298701201</v>
       </c>
       <c r="J24">
-        <v>9.5674603174603204E-2</v>
+        <v>4.0436507936507902E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
         <v>277</v>
@@ -2017,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>111.456831741333</v>
+        <v>38.375191736221304</v>
       </c>
       <c r="G25">
         <v>0.220231543760955</v>
@@ -2026,50 +2146,50 @@
         <v>0.246868753137409</v>
       </c>
       <c r="I25">
-        <v>0.27798701298701201</v>
+        <v>0.26720779220779201</v>
       </c>
       <c r="J25">
-        <v>4.0436507936507902E-2</v>
+        <v>8.0119047619047604E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>38.375191736221304</v>
+        <v>30.0016683101654</v>
       </c>
       <c r="G26">
-        <v>0.220231543760955</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H26">
-        <v>0.246868753137409</v>
+        <v>0.37520002794653601</v>
       </c>
       <c r="I26">
-        <v>0.26720779220779201</v>
+        <v>0.1784</v>
       </c>
       <c r="J26">
-        <v>8.0119047619047604E-2</v>
+        <v>0.32227951892088502</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>625</v>
@@ -2081,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>30.0016683101654</v>
+        <v>21.3305683612823</v>
       </c>
       <c r="G27">
         <v>0.16839999999999999</v>
@@ -2098,10 +2218,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>625</v>
@@ -2113,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>21.3305683612823</v>
+        <v>53.940104722976599</v>
       </c>
       <c r="G28">
         <v>0.16839999999999999</v>
@@ -2122,7 +2242,7 @@
         <v>0.37520002794653601</v>
       </c>
       <c r="I28">
-        <v>0.1784</v>
+        <v>0.178399999999999</v>
       </c>
       <c r="J28">
         <v>0.32227951892088502</v>
@@ -2130,42 +2250,42 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29">
-        <v>625</v>
+        <v>1728</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>53.940104722976599</v>
+        <v>95.709519386291504</v>
       </c>
       <c r="G29">
-        <v>0.16839999999999999</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="H29">
-        <v>0.37520002794653601</v>
+        <v>0.37369126317794699</v>
       </c>
       <c r="I29">
-        <v>0.178399999999999</v>
+        <v>8.6616961268883796E-2</v>
       </c>
       <c r="J29">
-        <v>0.32227951892088502</v>
+        <v>0.372173387259709</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>1728</v>
@@ -2177,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>95.709519386291504</v>
+        <v>64.223447847366302</v>
       </c>
       <c r="G30">
         <v>8.6612923310029899E-2</v>
@@ -2194,10 +2314,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>1728</v>
@@ -2209,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>64.223447847366302</v>
+        <v>151.038380622863</v>
       </c>
       <c r="G31">
         <v>8.6612923310029899E-2</v>
@@ -2226,42 +2346,42 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>1728</v>
+        <v>3196</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>151.038380622863</v>
+        <v>858.71918382644606</v>
       </c>
       <c r="G32">
-        <v>8.6612923310029899E-2</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="H32">
-        <v>0.37369126317794699</v>
+        <v>0.72626560862035805</v>
       </c>
       <c r="I32">
-        <v>8.6616961268883796E-2</v>
+        <v>0.13078491784037499</v>
       </c>
       <c r="J32">
-        <v>0.372173387259709</v>
+        <v>0.72633810091972595</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>3196</v>
@@ -2273,27 +2393,27 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <v>858.71918382644606</v>
+        <v>3027.1228082656799</v>
       </c>
       <c r="G33">
-        <v>0.13078826235997601</v>
+        <v>0.14737019431148199</v>
       </c>
       <c r="H33">
-        <v>0.72626560862035805</v>
+        <v>0.691282110270523</v>
       </c>
       <c r="I33">
-        <v>0.13078491784037499</v>
+        <v>0.14518241392801201</v>
       </c>
       <c r="J33">
-        <v>0.72633810091972595</v>
+        <v>0.69713175171337705</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>3196</v>
@@ -2305,50 +2425,18 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>3027.1228082656799</v>
+        <v>2018.96998000144</v>
       </c>
       <c r="G34">
-        <v>0.14737019431148199</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="H34">
-        <v>0.691282110270523</v>
+        <v>0.72626560862035805</v>
       </c>
       <c r="I34">
-        <v>0.14518241392801201</v>
+        <v>0.13078491784037499</v>
       </c>
       <c r="J34">
-        <v>0.69713175171337705</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>3196</v>
-      </c>
-      <c r="D35">
-        <v>38</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>2018.96998000144</v>
-      </c>
-      <c r="G35">
-        <v>0.13078826235997601</v>
-      </c>
-      <c r="H35">
-        <v>0.72626560862035805</v>
-      </c>
-      <c r="I35">
-        <v>0.13078491784037499</v>
-      </c>
-      <c r="J35">
         <v>0.72633810091972595</v>
       </c>
     </row>
@@ -2357,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>277</v>
@@ -2371,7 +2459,7 @@
       <c r="F36">
         <v>3600.3775082111301</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.18411805470629</v>
       </c>
       <c r="H36">
@@ -2389,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <v>277</v>
@@ -2421,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>277</v>
@@ -2549,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>132</v>
@@ -2581,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>132</v>
@@ -2613,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>132</v>
@@ -2645,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>232</v>
@@ -2677,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>232</v>
@@ -2709,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>232</v>
@@ -2741,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>625</v>
@@ -2750,22 +2838,22 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>3619.4590810775699</v>
+        <v>3600.0210060119598</v>
       </c>
       <c r="G48">
-        <v>0.13120000000000001</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="H48">
-        <v>0.51334892894336204</v>
+        <v>0.44780360158138299</v>
       </c>
       <c r="I48">
-        <v>0.15840000000000001</v>
+        <v>0.18160000000000001</v>
       </c>
       <c r="J48">
-        <v>0.40385633657929598</v>
+        <v>0.31142400715455598</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2773,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>625</v>
@@ -2782,22 +2870,22 @@
         <v>20</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>3615.4994162082598</v>
-      </c>
-      <c r="G49">
-        <v>0.12780000000002401</v>
+        <v>3609.5883147716499</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.14419999999999999</v>
       </c>
       <c r="H49">
-        <v>0.52581353557814903</v>
+        <v>0.46489465899612098</v>
       </c>
       <c r="I49">
-        <v>0.16400000000001699</v>
+        <v>0.18</v>
       </c>
       <c r="J49">
-        <v>0.37701691098269502</v>
+        <v>0.31666820739875701</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2805,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>625</v>
@@ -2814,726 +2902,697 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>3604.9547914505001</v>
+        <v>3604.8088218212101</v>
       </c>
       <c r="G50">
-        <v>0.12680000000399999</v>
+        <v>0.1484</v>
       </c>
       <c r="H50">
-        <v>0.52945614877640701</v>
+        <v>0.44936708737826597</v>
       </c>
       <c r="I50">
-        <v>0.16880000001600001</v>
+        <v>0.17359999999999901</v>
       </c>
       <c r="J50">
-        <v>0.358857483378487</v>
+        <v>0.34170238153160298</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>1728</v>
+        <v>625</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>3600.0538076877501</v>
+        <v>12.042043876647901</v>
       </c>
       <c r="G51">
-        <v>6.9444313643829705E-2</v>
+        <v>0.69119999999999904</v>
       </c>
       <c r="H51">
-        <v>0.49793839618034602</v>
+        <v>-1.5639406282571799</v>
       </c>
       <c r="I51">
-        <v>7.7360029041356193E-2</v>
+        <v>0.69120000000000004</v>
       </c>
       <c r="J51">
-        <v>0.438249840335731</v>
+        <v>-1.6254326097684699</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>1728</v>
+        <v>958</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>3644.3347746848999</v>
-      </c>
-      <c r="G52">
-        <v>7.0120744663596496E-2</v>
+        <v>3600.02772302627</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.223383634995795</v>
       </c>
       <c r="H52">
-        <v>0.49314611823857801</v>
+        <v>0.35535391495431801</v>
       </c>
       <c r="I52">
-        <v>7.5422635503057306E-2</v>
+        <v>0.26729384816753898</v>
       </c>
       <c r="J52">
-        <v>0.45480507630036698</v>
+        <v>0.22810953667001799</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>1728</v>
+        <v>958</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>3614.5098840236601</v>
+        <v>3621.7336405753999</v>
       </c>
       <c r="G53">
-        <v>6.7852836402613206E-2</v>
+        <v>0.227819894403954</v>
       </c>
       <c r="H53">
-        <v>0.50929150259851397</v>
+        <v>0.34266405284879897</v>
       </c>
       <c r="I53">
-        <v>7.29217279606824E-2</v>
+        <v>0.26101112565445</v>
       </c>
       <c r="J53">
-        <v>0.472445216920371</v>
+        <v>0.24677643108787201</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>132</v>
+        <v>958</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>3658.3096920490202</v>
+        <v>3607.2565189361499</v>
       </c>
       <c r="G54">
-        <v>6.5354896675651905E-2</v>
+        <v>0.22938749527677199</v>
       </c>
       <c r="H54">
-        <v>0.78713660122248597</v>
+        <v>0.33833680663145899</v>
       </c>
       <c r="I54">
-        <v>0.19330484330484299</v>
+        <v>0.26308355148342</v>
       </c>
       <c r="J54">
-        <v>0.35163398692810399</v>
+        <v>0.23943971612392601</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>2713.65476417541</v>
-      </c>
-      <c r="G55">
-        <v>5.9667565139263197E-2</v>
+        <v>3600.0755199432301</v>
+      </c>
+      <c r="G55" s="4">
+        <v>8.1506411256833999E-2</v>
       </c>
       <c r="H55">
-        <v>0.80566015194712604</v>
+        <v>0.82924130745184499</v>
       </c>
       <c r="I55">
-        <v>0.21182336182336101</v>
+        <v>8.2919600938967095E-2</v>
       </c>
       <c r="J55">
-        <v>0.27810457516339798</v>
+        <v>0.82724030609040899</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>2243.01396355628</v>
+        <v>3694.55465273857</v>
       </c>
       <c r="G56">
-        <v>5.9667565139263197E-2</v>
+        <v>0.138537893156532</v>
       </c>
       <c r="H56">
-        <v>0.80566015194712604</v>
+        <v>0.71001726635296403</v>
       </c>
       <c r="I56">
-        <v>0.21552706552706499</v>
+        <v>0.143274647887324</v>
       </c>
       <c r="J56">
-        <v>0.26633986928104503</v>
+        <v>0.70007306777189304</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>232</v>
+        <v>3196</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>2181.5830468654599</v>
+        <v>3626.2636537075</v>
       </c>
       <c r="G57">
-        <v>3.2374445255828701E-3</v>
+        <v>0.21041193495654301</v>
       </c>
       <c r="H57">
-        <v>0.99303546616009197</v>
+        <v>0.55905768905277198</v>
       </c>
       <c r="I57">
-        <v>3.4597613846110403E-2</v>
+        <v>0.211225058685446</v>
       </c>
       <c r="J57">
-        <v>0.91467523542204898</v>
+        <v>0.55985604540520495</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>2219.9089588165202</v>
+        <v>2623.87762823104</v>
       </c>
       <c r="G58">
-        <v>3.2374825433733301E-3</v>
+        <v>0.22633986928104499</v>
       </c>
       <c r="H58">
-        <v>0.99303538161398597</v>
+        <v>0.40231625354544298</v>
       </c>
       <c r="I58">
-        <v>4.3200813164251298E-2</v>
+        <v>0.40196078431372501</v>
       </c>
       <c r="J58">
-        <v>0.89265130519959202</v>
+        <v>-9.5237262737262698E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C59">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>2301.8437390327399</v>
+        <v>3109.9881845474201</v>
       </c>
       <c r="G59">
-        <v>3.2374309793664702E-3</v>
+        <v>0.22633986928104499</v>
       </c>
       <c r="H59">
-        <v>0.99303549602135199</v>
+        <v>0.40231625354544298</v>
       </c>
       <c r="I59">
-        <v>3.0249768732654898E-2</v>
+        <v>0.40196078431372501</v>
       </c>
       <c r="J59">
-        <v>0.92620409719952002</v>
+        <v>-9.5237262737262698E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C60">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="D60">
         <v>15</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>3.62791199684143</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1.4318512705468601E-17</v>
+        <v>3601.9782942771899</v>
+      </c>
+      <c r="G60">
+        <v>0.22633986928104499</v>
       </c>
       <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2.1612341546036299E-17</v>
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="I60">
+        <v>0.40196078431372501</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>-9.5237262737262698E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>124</v>
+        <v>1728</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>5.7982018470764096</v>
-      </c>
-      <c r="G61" s="1">
-        <v>4.1852043716172502E-16</v>
+        <v>3600.0448319911902</v>
+      </c>
+      <c r="G61" s="4">
+        <v>7.6485502583051299E-2</v>
       </c>
       <c r="H61">
-        <v>0.999999999999999</v>
+        <v>0.44696249830403201</v>
       </c>
       <c r="I61">
-        <v>8.0000000000002292E-3</v>
+        <v>8.0828237133842407E-2</v>
       </c>
       <c r="J61">
-        <v>0.97499999999999898</v>
+        <v>0.41475397323937002</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>124</v>
+        <v>1728</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>12.1064578056335</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1.2560098864446201E-17</v>
+        <v>3636.4633485794002</v>
+      </c>
+      <c r="G62">
+        <v>7.6630255263503894E-2</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0.44595851075182702</v>
       </c>
       <c r="I62">
-        <v>8.0000000000000192E-3</v>
+        <v>8.0250760939376095E-2</v>
       </c>
       <c r="J62">
-        <v>0.97499999999999998</v>
+        <v>0.41972386924375499</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63">
-        <v>625</v>
+        <v>1728</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>3644.4641283512101</v>
+        <v>3614.93088846206</v>
       </c>
       <c r="G63">
-        <v>0.116000000075759</v>
+        <v>7.65338116101415E-2</v>
       </c>
       <c r="H63">
-        <v>0.56965727068164795</v>
+        <v>0.44666520496729301</v>
       </c>
       <c r="I63">
-        <v>0.15680000025454599</v>
+        <v>8.0636675881712305E-2</v>
       </c>
       <c r="J63">
-        <v>0.40623139144562198</v>
+        <v>0.41707596870422903</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>3654.8011954784301</v>
+        <v>33.759254503250098</v>
       </c>
       <c r="G64">
-        <v>0.110200000000012</v>
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H64">
-        <v>0.591305714498913</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I64">
-        <v>0.14720000000001099</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J64">
-        <v>0.44295647953139</v>
+        <v>0.84848484848484795</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C65">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>3609.9233734130798</v>
+        <v>84.381926631927399</v>
       </c>
       <c r="G65">
-        <v>0.106200000000005</v>
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H65">
-        <v>0.60595826788212503</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I65">
-        <v>0.15893333333332799</v>
+        <v>0.09</v>
       </c>
       <c r="J65">
-        <v>0.396844796920716</v>
+        <v>0.81212121212121202</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C66">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D66">
         <v>15</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>3600.0123503684999</v>
+        <v>144.259060001373</v>
       </c>
       <c r="G66">
-        <v>4.7358505898080001E-2</v>
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H66">
-        <v>0.84568803124519598</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I66">
-        <v>0.196581200325424</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J66">
-        <v>0.30666665543966698</v>
+        <v>0.84848484848484795</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>3685.8653913974699</v>
-      </c>
-      <c r="G67">
-        <v>4.6406123571474001E-2</v>
+        <v>3600.0067761897999</v>
+      </c>
+      <c r="G67" s="1">
+        <v>9.6890235479452603E-7</v>
       </c>
       <c r="H67">
-        <v>0.84875404307507796</v>
+        <v>0.99999704895972097</v>
       </c>
       <c r="I67">
-        <v>0.19301993744052701</v>
+        <v>1.4816050024250901E-2</v>
       </c>
       <c r="J67">
-        <v>0.35052289396405101</v>
+        <v>0.95555148660595202</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>3604.6169613361299</v>
-      </c>
-      <c r="G68">
-        <v>4.6415099206195298E-2</v>
+        <v>1.5339475154876701</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6.4907775692879001E-17</v>
       </c>
       <c r="H68">
-        <v>0.84888582698511705</v>
-      </c>
-      <c r="I68">
-        <v>0.20071225226765901</v>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5.9211894646675002E-17</v>
       </c>
       <c r="J68">
-        <v>0.33725489634719003</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>41.623150014877297</v>
+        <v>0.72650270462036104</v>
       </c>
       <c r="G69" s="1">
-        <v>2.62104265121909E-17</v>
+        <v>1.33320729199634E-15</v>
       </c>
       <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>7.3080481036077699E-2</v>
+        <v>0.999999999999995</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1.2982207901283401E-15</v>
       </c>
       <c r="J69">
-        <v>0.81556200283316904</v>
+        <v>0.999999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1625.9106063842701</v>
-      </c>
-      <c r="G70">
-        <v>2.1570561331444699E-3</v>
+        <v>1.5390488147735499</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.1874490643181401E-16</v>
       </c>
       <c r="H70">
-        <v>0.99541502825611705</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I70">
-        <v>5.6337090491567002E-2</v>
+        <v>2.66666666666667E-2</v>
       </c>
       <c r="J70">
-        <v>0.84539366395791804</v>
+        <v>0.89999999999999902</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>232</v>
-      </c>
-      <c r="D71">
-        <v>16</v>
-      </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71">
-        <v>1531.2569945335299</v>
-      </c>
-      <c r="G71">
-        <v>1.08108108108108E-3</v>
-      </c>
-      <c r="H71">
-        <v>0.99782608695652097</v>
-      </c>
-      <c r="I71">
-        <v>5.5966697502312597E-2</v>
-      </c>
-      <c r="J71">
-        <v>0.87036885692492005</v>
-      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>4.01720008850097</v>
-      </c>
-      <c r="G72" s="1">
-        <v>3.0014150536432002E-17</v>
+        <v>3619.4590810775699</v>
+      </c>
+      <c r="G72">
+        <v>0.13120000000000001</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0.51334892894336204</v>
       </c>
       <c r="I72">
-        <v>2.4E-2</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="J72">
-        <v>0.95</v>
+        <v>0.40385633657929598</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3541,31 +3600,31 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73">
-        <v>18.148175811767501</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.9109293272336E-16</v>
+        <v>3615.4994162082598</v>
+      </c>
+      <c r="G73">
+        <v>0.12780000000002401</v>
       </c>
       <c r="H73">
-        <v>0.999999999999999</v>
+        <v>0.52581353557814903</v>
       </c>
       <c r="I73">
-        <v>8.00000000000008E-3</v>
+        <v>0.16400000000001699</v>
       </c>
       <c r="J73">
-        <v>0.98333333333333295</v>
+        <v>0.37701691098269502</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3573,47 +3632,2857 @@
         <v>13</v>
       </c>
       <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>625</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>3604.9547914505001</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.12680000000399999</v>
+      </c>
+      <c r="H74">
+        <v>0.52945614877640701</v>
+      </c>
+      <c r="I74">
+        <v>0.16880000001600001</v>
+      </c>
+      <c r="J74">
+        <v>0.358857483378487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>1728</v>
+      </c>
+      <c r="D75">
+        <v>19</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>3600.0538076877501</v>
+      </c>
+      <c r="G75">
+        <v>6.9444313643829705E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.49793839618034602</v>
+      </c>
+      <c r="I75">
+        <v>7.7360029041356193E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.438249840335731</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>1728</v>
+      </c>
+      <c r="D76">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>3644.3347746848999</v>
+      </c>
+      <c r="G76">
+        <v>7.0120744663596496E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.49314611823857801</v>
+      </c>
+      <c r="I76">
+        <v>7.5422635503057306E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.45480507630036698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>1728</v>
+      </c>
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>3614.5098840236601</v>
+      </c>
+      <c r="G77" s="4">
+        <v>6.7852836402613206E-2</v>
+      </c>
+      <c r="H77">
+        <v>0.50929150259851397</v>
+      </c>
+      <c r="I77">
+        <v>7.29217279606824E-2</v>
+      </c>
+      <c r="J77">
+        <v>0.472445216920371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>132</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>3658.3096920490202</v>
+      </c>
+      <c r="G78">
+        <v>6.5354896675651905E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.78713660122248597</v>
+      </c>
+      <c r="I78">
+        <v>0.19330484330484299</v>
+      </c>
+      <c r="J78">
+        <v>0.35163398692810399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>132</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>2713.65476417541</v>
+      </c>
+      <c r="G79">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.80566015194712604</v>
+      </c>
+      <c r="I79">
+        <v>0.21182336182336101</v>
+      </c>
+      <c r="J79">
+        <v>0.27810457516339798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>132</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>2243.01396355628</v>
+      </c>
+      <c r="G80">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.80566015194712604</v>
+      </c>
+      <c r="I80">
+        <v>0.21552706552706499</v>
+      </c>
+      <c r="J80">
+        <v>0.26633986928104503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>232</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>2181.5830468654599</v>
+      </c>
+      <c r="G81">
+        <v>3.2374445255828701E-3</v>
+      </c>
+      <c r="H81">
+        <v>0.99303546616009197</v>
+      </c>
+      <c r="I81">
+        <v>3.4597613846110403E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.91467523542204898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>232</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>2219.9089588165202</v>
+      </c>
+      <c r="G82">
+        <v>3.2374825433733301E-3</v>
+      </c>
+      <c r="H82">
+        <v>0.99303538161398597</v>
+      </c>
+      <c r="I82">
+        <v>4.3200813164251298E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.89265130519959202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>232</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>2301.8437390327399</v>
+      </c>
+      <c r="G83">
+        <v>3.2374309793664702E-3</v>
+      </c>
+      <c r="H83">
+        <v>0.99303549602135199</v>
+      </c>
+      <c r="I83">
+        <v>3.0249768732654898E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.92620409719952002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="C84">
         <v>124</v>
       </c>
-      <c r="D74">
-        <v>15</v>
-      </c>
-      <c r="E74">
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>3.62791199684143</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.4318512705468601E-17</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>2.1612341546036299E-17</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>124</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>5.7982018470764096</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4.1852043716172502E-16</v>
+      </c>
+      <c r="H85">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I85">
+        <v>8.0000000000002292E-3</v>
+      </c>
+      <c r="J85">
+        <v>0.97499999999999898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>124</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>12.1064578056335</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1.2560098864446201E-17</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>8.0000000000000192E-3</v>
+      </c>
+      <c r="J86">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>3196</v>
+      </c>
+      <c r="D87">
+        <v>38</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>3600.0837342739101</v>
+      </c>
+      <c r="G87">
+        <v>0.13868511551645901</v>
+      </c>
+      <c r="H87">
+        <v>0.70980040981558601</v>
+      </c>
+      <c r="I87">
+        <v>0.14300176056337999</v>
+      </c>
+      <c r="J87">
+        <v>0.70061278951815398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88">
+        <v>3196</v>
+      </c>
+      <c r="D88">
+        <v>38</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>3873.9075964450799</v>
+      </c>
+      <c r="G88" s="4">
+        <v>9.5987540416575007E-2</v>
+      </c>
+      <c r="H88">
+        <v>0.79913070048466395</v>
+      </c>
+      <c r="I88">
+        <v>9.8520148669842295E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.79375184362280504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89">
+        <v>3196</v>
+      </c>
+      <c r="D89">
+        <v>38</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3662.0286387443498</v>
+      </c>
+      <c r="G89">
+        <v>0.29388432013013999</v>
+      </c>
+      <c r="H89">
+        <v>0.38489680510815499</v>
+      </c>
+      <c r="I89">
+        <v>0.29755330594679102</v>
+      </c>
+      <c r="J89">
+        <v>0.37692434957781401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90">
+        <v>169</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>3600.0197246074599</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0.17014161661219801</v>
+      </c>
+      <c r="H90">
+        <v>0.55280323154520095</v>
+      </c>
+      <c r="I90">
+        <v>0.39073084006238701</v>
+      </c>
+      <c r="J90">
+        <v>-7.2917088686311499E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>3609.3588703632299</v>
+      </c>
+      <c r="G91">
+        <v>0.173093681917211</v>
+      </c>
+      <c r="H91">
+        <v>0.54332611912689599</v>
+      </c>
+      <c r="I91">
+        <v>0.40338680926916198</v>
+      </c>
+      <c r="J91">
+        <v>-8.25999000999003E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>3603.6965285301198</v>
+      </c>
+      <c r="G92">
+        <v>0.173071895424836</v>
+      </c>
+      <c r="H92">
+        <v>0.54314370863649397</v>
+      </c>
+      <c r="I92">
+        <v>0.38502673796791398</v>
+      </c>
+      <c r="J92">
+        <v>-3.9015984015983898E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>277</v>
+      </c>
+      <c r="D93">
+        <v>38</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>3600.0325140476202</v>
+      </c>
+      <c r="G93">
+        <v>0.146211003886239</v>
+      </c>
+      <c r="H93">
+        <v>0.49956888015356599</v>
+      </c>
+      <c r="I93">
+        <v>0.27435072086579998</v>
+      </c>
+      <c r="J93">
+        <v>5.3452162433862402E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>277</v>
+      </c>
+      <c r="D94">
+        <v>38</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>3627.3726189613299</v>
+      </c>
+      <c r="G94">
+        <v>0.15613713260772</v>
+      </c>
+      <c r="H94">
+        <v>0.465902290081394</v>
+      </c>
+      <c r="I94">
+        <v>0.277987012987013</v>
+      </c>
+      <c r="J94">
+        <v>4.3730158730158598E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>277</v>
+      </c>
+      <c r="D95">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>3606.7494415760002</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0.14260323672088299</v>
+      </c>
+      <c r="H95">
+        <v>0.51226620808710299</v>
+      </c>
+      <c r="I95">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="J95">
+        <v>0.115674603174603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>958</v>
+      </c>
+      <c r="D96">
+        <v>27</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>3600.0520593166302</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.15736023502098601</v>
+      </c>
+      <c r="H96">
+        <v>0.54599848231617798</v>
+      </c>
+      <c r="I96">
+        <v>0.19414267015706799</v>
+      </c>
+      <c r="J96">
+        <v>0.43928155636216099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
+        <v>958</v>
+      </c>
+      <c r="D97">
+        <v>27</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>3686.3051899433099</v>
+      </c>
+      <c r="G97">
+        <v>0.17066833241989299</v>
+      </c>
+      <c r="H97">
+        <v>0.50761414286584206</v>
+      </c>
+      <c r="I97">
+        <v>0.19731130017452</v>
+      </c>
+      <c r="J97">
+        <v>0.43006344589955903</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98">
+        <v>958</v>
+      </c>
+      <c r="D98">
+        <v>27</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>3620.4303533553998</v>
+      </c>
+      <c r="G98">
+        <v>0.184501686745347</v>
+      </c>
+      <c r="H98">
+        <v>0.46774305901928998</v>
+      </c>
+      <c r="I98">
+        <v>0.212925392670157</v>
+      </c>
+      <c r="J98">
+        <v>0.38333058388137797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99">
+        <v>122</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>2893.4047431945801</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1.0267242308383001E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.97907792671511995</v>
+      </c>
+      <c r="I99">
+        <v>0.16400002881728001</v>
+      </c>
+      <c r="J99">
+        <v>0.66363630360036296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>122</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>2890.3137133598302</v>
+      </c>
+      <c r="G100">
+        <v>1.43488388583605E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.97065601497031395</v>
+      </c>
+      <c r="I100">
+        <v>0.14700000315343401</v>
+      </c>
+      <c r="J100">
+        <v>0.69242423617070703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>122</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>2905.0341810703198</v>
+      </c>
+      <c r="G101">
+        <v>1.6410687986534798E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.96648936170212696</v>
+      </c>
+      <c r="I101">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J101">
+        <v>0.69545454545454499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>47</v>
+      </c>
+      <c r="D102">
+        <v>45</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>3600.0126199245401</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.23382548703325E-6</v>
+      </c>
+      <c r="H102">
+        <v>0.99999598137482104</v>
+      </c>
+      <c r="I102">
+        <v>2.8149475496687101E-2</v>
+      </c>
+      <c r="J102">
+        <v>0.90555113052384795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>47</v>
+      </c>
+      <c r="D103">
+        <v>45</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>5.4243230342864903</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2.2289740781734598E-16</v>
+      </c>
+      <c r="H103">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I103">
+        <v>1.4814814814814999E-2</v>
+      </c>
+      <c r="J103">
+        <v>0.95555555555555405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <v>47</v>
+      </c>
+      <c r="D104">
+        <v>45</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>2.3323133945465</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.17655213847189E-17</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>2.8888888888888801E-2</v>
+      </c>
+      <c r="J104">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>625</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
         <v>5</v>
       </c>
-      <c r="F74">
+      <c r="F106">
+        <v>3644.4641283512101</v>
+      </c>
+      <c r="G106">
+        <v>0.116000000075759</v>
+      </c>
+      <c r="H106">
+        <v>0.56965727068164795</v>
+      </c>
+      <c r="I106">
+        <v>0.15680000025454599</v>
+      </c>
+      <c r="J106">
+        <v>0.40623139144562198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>625</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>3654.8011954784301</v>
+      </c>
+      <c r="G107">
+        <v>0.110200000000012</v>
+      </c>
+      <c r="H107">
+        <v>0.591305714498913</v>
+      </c>
+      <c r="I107">
+        <v>0.14720000000001099</v>
+      </c>
+      <c r="J107">
+        <v>0.44295647953139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>625</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>3609.9233734130798</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0.106200000000005</v>
+      </c>
+      <c r="H108">
+        <v>0.60595826788212503</v>
+      </c>
+      <c r="I108">
+        <v>0.15893333333332799</v>
+      </c>
+      <c r="J108">
+        <v>0.396844796920716</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>132</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>3600.0123503684999</v>
+      </c>
+      <c r="G109">
+        <v>4.7358505898080001E-2</v>
+      </c>
+      <c r="H109">
+        <v>0.84568803124519598</v>
+      </c>
+      <c r="I109">
+        <v>0.196581200325424</v>
+      </c>
+      <c r="J109">
+        <v>0.30666665543966698</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>132</v>
+      </c>
+      <c r="D110">
+        <v>15</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>3685.8653913974699</v>
+      </c>
+      <c r="G110" s="4">
+        <v>4.6406123571474001E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.84875404307507796</v>
+      </c>
+      <c r="I110">
+        <v>0.19301993744052701</v>
+      </c>
+      <c r="J110">
+        <v>0.35052289396405101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>132</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>3604.6169613361299</v>
+      </c>
+      <c r="G111">
+        <v>4.6415099206195298E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.84888582698511705</v>
+      </c>
+      <c r="I111">
+        <v>0.20071225226765901</v>
+      </c>
+      <c r="J111">
+        <v>0.33725489634719003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>232</v>
+      </c>
+      <c r="D112">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>41.623150014877297</v>
+      </c>
+      <c r="G112" s="5">
+        <v>2.62104265121909E-17</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>7.3080481036077699E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.81556200283316904</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>232</v>
+      </c>
+      <c r="D113">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>1625.9106063842701</v>
+      </c>
+      <c r="G113">
+        <v>2.1570561331444699E-3</v>
+      </c>
+      <c r="H113">
+        <v>0.99541502825611705</v>
+      </c>
+      <c r="I113">
+        <v>5.6337090491567002E-2</v>
+      </c>
+      <c r="J113">
+        <v>0.84539366395791804</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>232</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>1531.2569945335299</v>
+      </c>
+      <c r="G114">
+        <v>1.08108108108108E-3</v>
+      </c>
+      <c r="H114">
+        <v>0.99782608695652097</v>
+      </c>
+      <c r="I114">
+        <v>5.5966697502312597E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.87036885692492005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>124</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>4.01720008850097</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3.0014150536432002E-17</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>124</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>18.148175811767501</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.9109293272336E-16</v>
+      </c>
+      <c r="H116">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I116">
+        <v>8.00000000000008E-3</v>
+      </c>
+      <c r="J116">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>124</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
         <v>15.6128136634826</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G117" s="1">
         <v>2.1965660293504699E-17</v>
       </c>
-      <c r="H74">
+      <c r="H117">
         <v>1</v>
       </c>
-      <c r="I74">
+      <c r="I117">
         <v>1.6E-2</v>
       </c>
-      <c r="J74">
+      <c r="J117">
         <v>0.95555555555555505</v>
       </c>
     </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>3196</v>
+      </c>
+      <c r="D118">
+        <v>38</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>3600.5551868438702</v>
+      </c>
+      <c r="G118" s="4">
+        <v>8.9094345327166494E-2</v>
+      </c>
+      <c r="H118">
+        <v>0.81380311074452505</v>
+      </c>
+      <c r="I118">
+        <v>9.2619327073552402E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.80524547936521196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119">
+        <v>3196</v>
+      </c>
+      <c r="D119">
+        <v>38</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>4159.3588869571604</v>
+      </c>
+      <c r="G119">
+        <v>0.112491959535426</v>
+      </c>
+      <c r="H119">
+        <v>0.76429489437100395</v>
+      </c>
+      <c r="I119">
+        <v>0.114485524256652</v>
+      </c>
+      <c r="J119">
+        <v>0.761578611017244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120">
+        <v>3196</v>
+      </c>
+      <c r="D120">
+        <v>38</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>3690.81418566703</v>
+      </c>
+      <c r="G120">
+        <v>0.35561369783031299</v>
+      </c>
+      <c r="H120">
+        <v>0.25661471174655598</v>
+      </c>
+      <c r="I120">
+        <v>0.36227650625977997</v>
+      </c>
+      <c r="J120">
+        <v>0.23785038304494899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <v>47</v>
+      </c>
+      <c r="D121">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>3600.0308247566199</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5.9487688449748498E-8</v>
+      </c>
+      <c r="H121">
+        <v>0.99999982736025494</v>
+      </c>
+      <c r="I121">
+        <v>6.2963013169153703E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.786110926424478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>47</v>
+      </c>
+      <c r="D122">
+        <v>45</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>16.8882508277893</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1.29878721970373E-16</v>
+      </c>
+      <c r="H122">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I122">
+        <v>2.8888888888888999E-2</v>
+      </c>
+      <c r="J122">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>47</v>
+      </c>
+      <c r="D123">
+        <v>45</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>4.4697287559509196</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2.9374321846412299E-18</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>6.5925925925925902E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.79365079365079305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <v>169</v>
+      </c>
+      <c r="D124">
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>3600.0325057506502</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0.10058824502354</v>
+      </c>
+      <c r="H124">
+        <v>0.73218117316607201</v>
+      </c>
+      <c r="I124">
+        <v>0.39679144385026699</v>
+      </c>
+      <c r="J124">
+        <v>-3.3691308691308597E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125">
+        <v>169</v>
+      </c>
+      <c r="D125">
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>3620.5312143802598</v>
+      </c>
+      <c r="G125">
+        <v>0.118322445272331</v>
+      </c>
+      <c r="H125">
+        <v>0.68727513276580399</v>
+      </c>
+      <c r="I125">
+        <v>0.39180034964349397</v>
+      </c>
+      <c r="J125">
+        <v>-1.8601385912005199E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126">
+        <v>169</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>3606.7778844356499</v>
+      </c>
+      <c r="G126">
+        <v>0.121328977187122</v>
+      </c>
+      <c r="H126">
+        <v>0.67943102020799795</v>
+      </c>
+      <c r="I126">
+        <v>0.39625668710635797</v>
+      </c>
+      <c r="J126">
+        <v>-4.0005003085804902E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>277</v>
+      </c>
+      <c r="D127">
+        <v>38</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>3600.0423597335798</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0.103803350862174</v>
+      </c>
+      <c r="H127">
+        <v>0.64540669943655005</v>
+      </c>
+      <c r="I127">
+        <v>0.274415584415584</v>
+      </c>
+      <c r="J127">
+        <v>6.0357142857142797E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>277</v>
+      </c>
+      <c r="D128">
+        <v>38</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>3676.5880657672801</v>
+      </c>
+      <c r="G128">
+        <v>0.13085076026252501</v>
+      </c>
+      <c r="H128">
+        <v>0.55176200250826901</v>
+      </c>
+      <c r="I128">
+        <v>0.30331168831168798</v>
+      </c>
+      <c r="J128">
+        <v>-4.3690476190475197E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>277</v>
+      </c>
+      <c r="D129">
+        <v>38</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>3613.18185448646</v>
+      </c>
+      <c r="G129">
+        <v>0.107394725041783</v>
+      </c>
+      <c r="H129">
+        <v>0.63248519308220796</v>
+      </c>
+      <c r="I129">
+        <v>0.281623376623376</v>
+      </c>
+      <c r="J129">
+        <v>3.4087301587301597E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>958</v>
+      </c>
+      <c r="D130">
+        <v>27</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>3600.0809388160701</v>
+      </c>
+      <c r="G130">
+        <v>0.13909776995584799</v>
+      </c>
+      <c r="H130">
+        <v>0.59784472663724697</v>
+      </c>
+      <c r="I130">
+        <v>0.17957569808027901</v>
+      </c>
+      <c r="J130">
+        <v>0.48285497647728898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131">
+        <v>958</v>
+      </c>
+      <c r="D131">
+        <v>27</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>3778.8654988288799</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0.124993447053902</v>
+      </c>
+      <c r="H131">
+        <v>0.63951858675509599</v>
+      </c>
+      <c r="I131">
+        <v>0.17541993891798199</v>
+      </c>
+      <c r="J131">
+        <v>0.49016827892499398</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132">
+        <v>958</v>
+      </c>
+      <c r="D132">
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>3637.5662843227301</v>
+      </c>
+      <c r="G132">
+        <v>0.152140685795595</v>
+      </c>
+      <c r="H132">
+        <v>0.56168697171202497</v>
+      </c>
+      <c r="I132">
+        <v>0.21302901396160501</v>
+      </c>
+      <c r="J132">
+        <v>0.383250634538774</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>122</v>
+      </c>
+      <c r="D133">
+        <v>15</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>1229.14404959678</v>
+      </c>
+      <c r="G133">
+        <v>2.04081673632657E-3</v>
+      </c>
+      <c r="H133">
+        <v>0.99583333249666595</v>
+      </c>
+      <c r="I133">
+        <v>9.7999998326666504E-2</v>
+      </c>
+      <c r="J133">
+        <v>0.79696970031636305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>122</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>1497.8961339473699</v>
+      </c>
+      <c r="G134" s="4">
+        <v>2.0408163265306098E-3</v>
+      </c>
+      <c r="H134">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="I134">
+        <v>0.156</v>
+      </c>
+      <c r="J134">
+        <v>0.67878787878787805</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>122</v>
+      </c>
+      <c r="D135">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>1566.8069158553999</v>
+      </c>
+      <c r="G135">
+        <v>2.0408199229341702E-3</v>
+      </c>
+      <c r="H135">
+        <v>0.99583332599067598</v>
+      </c>
+      <c r="I135">
+        <v>9.9000002097901996E-2</v>
+      </c>
+      <c r="J135">
+        <v>0.79999999580419501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136">
+        <v>1728</v>
+      </c>
+      <c r="D136">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>3600.0758007049499</v>
+      </c>
+      <c r="G136">
+        <v>6.7853743286876295E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.50919083066775905</v>
+      </c>
+      <c r="I136">
+        <v>6.9056993661165494E-2</v>
+      </c>
+      <c r="J136">
+        <v>0.50043583385680102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>1728</v>
+      </c>
+      <c r="D137">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>3811.63042278289</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5.5652627051874397E-2</v>
+      </c>
+      <c r="H137">
+        <v>0.59715599834112099</v>
+      </c>
+      <c r="I137">
+        <v>6.1142665661394299E-2</v>
+      </c>
+      <c r="J137">
+        <v>0.55884458802416703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>1728</v>
+      </c>
+      <c r="D138">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>3669.0488229274702</v>
+      </c>
+      <c r="G138">
+        <v>6.7273093197356401E-2</v>
+      </c>
+      <c r="H138">
+        <v>0.51333339354444096</v>
+      </c>
+      <c r="I138">
+        <v>6.4635447208958099E-2</v>
+      </c>
+      <c r="J138">
+        <v>0.53322736349033095</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
-    <sortCondition ref="E2:E74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J138">
+    <sortCondition ref="E2:E138"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2084D2-2D66-C641-8F70-6115B968D845}">
+  <dimension ref="A1:V15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>958</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.16709685865474899</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.16709685865474899</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.16709685865474899</v>
+      </c>
+      <c r="L3">
+        <v>0.33091732111692801</v>
+      </c>
+      <c r="M3">
+        <v>0.33091732111692801</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.32254035776614298</v>
+      </c>
+      <c r="P3" s="3">
+        <v>6.6812889144889406E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>6.6812889144889406E-2</v>
+      </c>
+      <c r="R3">
+        <v>6.22834773801835E-2</v>
+      </c>
+      <c r="T3">
+        <v>1008.8966509819001</v>
+      </c>
+      <c r="U3" s="3">
+        <v>765.74852881431502</v>
+      </c>
+      <c r="V3">
+        <v>1608.99466433525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6.6666666666668198E-3</v>
+      </c>
+      <c r="M4">
+        <v>7.4074074074074502E-3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6.6666666666668198E-3</v>
+      </c>
+      <c r="P4">
+        <v>0.97142857142856998</v>
+      </c>
+      <c r="Q4">
+        <v>0.97142857142856998</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.97777777777777697</v>
+      </c>
+      <c r="T4">
+        <v>1.20447473526</v>
+      </c>
+      <c r="U4">
+        <v>24.479506778716999</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.69806575775146396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.135903111768816</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.135903111768816</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.135903111768816</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+      <c r="T5">
+        <v>14.3914228916168</v>
+      </c>
+      <c r="U5" s="3">
+        <v>6.9664452552795399</v>
+      </c>
+      <c r="V5">
+        <v>13.5440484523773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.86604609929078002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.86604609929078002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.86604609929078002</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="T6">
+        <v>1.0466373443603501</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.58983201980590805</v>
+      </c>
+      <c r="V6">
+        <v>0.97851257324218699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="T7">
+        <v>1.4145691871643</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.77993779182433998</v>
+      </c>
+      <c r="V7">
+        <v>1.37499208450317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1.90849673202611E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1.90849673202611E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1.90849673202611E-2</v>
+      </c>
+      <c r="T8">
+        <v>1.98078293800354</v>
+      </c>
+      <c r="U8">
+        <v>2.5107397556304898</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.5291576385498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.92139724310776905</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.92139724310776905</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.92139724310776905</v>
+      </c>
+      <c r="T9">
+        <v>1.8091198444366401</v>
+      </c>
+      <c r="U9">
+        <v>1.5448903560638401</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.0118609905242899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>277</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="P10" s="3">
+        <v>9.5674603174603204E-2</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>9.5674603174603204E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>9.5674603174603204E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>38.375191736221304</v>
+      </c>
+      <c r="U10">
+        <v>42.659689950942898</v>
+      </c>
+      <c r="V10">
+        <v>111.456831741333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>625</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.37520002794653601</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.37520002794653601</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.37520002794653601</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.1784</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.1784</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.1784</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.32227951892088502</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.32227951892088502</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.32227951892088502</v>
+      </c>
+      <c r="T11">
+        <v>53.940104722976599</v>
+      </c>
+      <c r="U11">
+        <v>30.0016683101654</v>
+      </c>
+      <c r="V11" s="3">
+        <v>21.3305683612823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1728</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.37369126317794699</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.37369126317794699</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.37369126317794699</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.372173387259709</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.372173387259709</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.372173387259709</v>
+      </c>
+      <c r="T12">
+        <v>151.038380622863</v>
+      </c>
+      <c r="U12">
+        <v>95.709519386291504</v>
+      </c>
+      <c r="V12" s="3">
+        <v>64.223447847366302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>3196</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.72626560862035805</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.72626560862035805</v>
+      </c>
+      <c r="J13">
+        <v>0.691282110270523</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.13078491784037499</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.13078491784037499</v>
+      </c>
+      <c r="N13">
+        <v>0.135518241392801</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.72633810091972595</v>
+      </c>
+      <c r="Q13">
+        <v>0.69713175171337705</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.72633810091972595</v>
+      </c>
+      <c r="T13">
+        <v>2018.96998000144</v>
+      </c>
+      <c r="U13" s="3">
+        <v>858.71918382644606</v>
+      </c>
+      <c r="V13">
+        <v>3027.1228082656799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D15" s="3">
+        <f>AVERAGE(D3:D13)</f>
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="E15" s="3">
+        <f>AVERAGE(E3:E13)</f>
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="F15" s="3">
+        <f>AVERAGE(F3:F13)</f>
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="H15" s="3">
+        <f>AVERAGE(H3:H14)</f>
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="I15" s="3">
+        <f>AVERAGE(I3:I13)</f>
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="J15" s="3">
+        <f>AVERAGE(J3:J13)</f>
+        <v>0.52917068323670702</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(L3:L13)</f>
+        <v>0.18844664835146932</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(M3:M13)</f>
+        <v>0.1885139884188094</v>
+      </c>
+      <c r="N15" s="3">
+        <f>AVERAGE(N3:N13)</f>
+        <v>0.18811540836980034</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGE(P3:P13)</f>
+        <v>0.4122378402912158</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE(Q3:Q13)</f>
+        <v>0.40958271763609311</v>
+      </c>
+      <c r="R15" s="3">
+        <f>AVERAGE(R3:R13)</f>
+        <v>0.41240327616253403</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(T3:T14)</f>
+        <v>299.36975590965847</v>
+      </c>
+      <c r="U15" s="3">
+        <f>AVERAGE(U3:U13)</f>
+        <v>166.33726747686202</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(V3:V13)</f>
+        <v>441.11499618616909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EBF45-E1AD-7548-86AF-F6B49A0EF3E6}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3632,27 +6501,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>124</v>
@@ -3672,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>124</v>
@@ -3689,10 +6558,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4">
         <v>124</v>
@@ -3709,10 +6578,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>132</v>
@@ -3732,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>132</v>
@@ -3749,10 +6618,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>132</v>
@@ -3769,10 +6638,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>232</v>
@@ -3792,7 +6661,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>232</v>
@@ -3809,10 +6678,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>232</v>
@@ -3829,10 +6698,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>277</v>
@@ -3852,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>277</v>
@@ -3869,10 +6738,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>277</v>
@@ -3889,10 +6758,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>625</v>
@@ -3912,7 +6781,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>625</v>
@@ -3929,10 +6798,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>625</v>
@@ -3949,10 +6818,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>1728</v>
@@ -3972,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>1728</v>
@@ -3989,10 +6858,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1728</v>

--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BB0A14-E11C-3B40-95D2-A0FD153A77E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4F4A8-E15A-8345-A701-26C9F28B38F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="-680" windowWidth="36020" windowHeight="15600" activeTab="1" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
+    <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="3" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="foglio" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="res_2023_03_13" localSheetId="1">Sheet3!$A$67:$J$73</definedName>
-    <definedName name="res_2023_03_14" localSheetId="0">Sheet1!$A$2:$I$19</definedName>
-    <definedName name="res_2023_03_14" localSheetId="3">Sheet2!$A$2:$G$19</definedName>
-    <definedName name="res_2023_03_14" localSheetId="1">Sheet3!$A$26:$J$66</definedName>
-    <definedName name="res_2023_03_15" localSheetId="1">Sheet3!$A$2:$J$25</definedName>
-    <definedName name="res_2023_03_21" localSheetId="1">Sheet3!$A$130:$J$138</definedName>
-    <definedName name="res_2023_03_22" localSheetId="1">Sheet3!$A$77:$J$129</definedName>
-    <definedName name="res_2023_03_23" localSheetId="1">Sheet3!$A$74:$J$76</definedName>
+    <definedName name="res_2023_03_13" localSheetId="2">Sheet3!$A$65:$J$71</definedName>
+    <definedName name="res_2023_03_14" localSheetId="1">Sheet1!$A$2:$I$19</definedName>
+    <definedName name="res_2023_03_14" localSheetId="0">Sheet2!$A$2:$G$19</definedName>
+    <definedName name="res_2023_03_14" localSheetId="2">Sheet3!$A$26:$J$64</definedName>
+    <definedName name="res_2023_03_15" localSheetId="2">Sheet3!$A$2:$J$25</definedName>
+    <definedName name="res_2023_03_21" localSheetId="2">Sheet3!$A$128:$J$136</definedName>
+    <definedName name="res_2023_03_22" localSheetId="2">Sheet3!$A$75:$J$127</definedName>
+    <definedName name="res_2023_03_23" localSheetId="2">Sheet3!$A$72:$J$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,7 +146,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{576FBB86-15BF-6240-9F52-164DCF4F8DA8}" name="res_2023-03-21" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-21.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-21.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -165,7 +165,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{3F0F3BDE-1385-DB4C-A954-2EC98445C765}" name="res_2023-03-22" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-22.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-22.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -184,7 +184,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{697E2654-104B-2D4C-B229-7E65A5BD3D6D}" name="res_2023-03-23" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="49">
   <si>
     <t>model</t>
   </si>
@@ -354,9 +354,6 @@
   <si>
     <t>average</t>
   </si>
-  <si>
-    <t>FlowORT_light_e_n</t>
-  </si>
 </sst>
 </file>
 
@@ -405,13 +402,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,35 +433,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="3" xr16:uid="{42D83F4C-E1F2-1247-8436-E6134923AE7C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="2" xr16:uid="{1F3EF633-C4D4-3446-B3BC-BABBF2739846}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="3" xr16:uid="{42D83F4C-E1F2-1247-8436-E6134923AE7C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,6 +760,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EBF45-E1AD-7548-86AF-F6B49A0EF3E6}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.77993779182433998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.167313131313131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.37499208450317</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.167313131313131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>124</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.4145691871643</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.167313131313131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5107397556304898</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.18843665768194001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.98078293800354</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.18843665768194001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.5291576385498</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.18843665768194001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0118609905242899</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.0183086312118499E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>232</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5448903560638401</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.01830863121186E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>232</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.8091198444366401</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.0183086312118499E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>277</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42.659689950942898</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.220231543760955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>277</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>111.456831741333</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.220231543760955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>277</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38.375191736221304</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.220231543760955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>625</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30.0016683101654</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.16839999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>625</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>21.3305683612823</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.16839999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>625</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>53.940104722976599</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.16839999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1728</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>95.709519386291504</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.6612923310029899E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>1728</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>64.223447847366302</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.6612923310029899E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1728</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>151.038380622863</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.6612923310029899E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8E55D1-32F4-9D4B-9988-326B85F785E5}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -1332,12 +1739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2449F541-BB08-3E45-95D2-51CB8E55BE17}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G133" activeCellId="10" sqref="G103:J103 G106:J106 G109:J109 G112:J112 G115:J115 G118:J118 G121:J121 G124:J124 G127:J127 G130:J130 G133:J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1389,31 +1796,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>958</v>
+        <v>625</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>765.74852881431502</v>
+        <v>30.0016683101654</v>
       </c>
       <c r="G2">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H2">
-        <v>0.16709685865474899</v>
+        <v>0.37520002794653601</v>
       </c>
       <c r="I2">
-        <v>0.32254035776614298</v>
+        <v>0.1784</v>
       </c>
       <c r="J2">
-        <v>6.6812889144889406E-2</v>
+        <v>0.32227951892088502</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1421,31 +1828,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>958</v>
+        <v>625</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1008.8966509819001</v>
+        <v>21.3305683612823</v>
       </c>
       <c r="G3">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H3">
-        <v>0.16709685865474899</v>
+        <v>0.37520002794653601</v>
       </c>
       <c r="I3">
-        <v>0.33091732111692801</v>
+        <v>0.1784</v>
       </c>
       <c r="J3">
-        <v>4.3283477380183497E-2</v>
+        <v>0.32227951892088502</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1453,31 +1860,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>958</v>
+        <v>625</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1608.99466433525</v>
+        <v>53.940104722976599</v>
       </c>
       <c r="G4">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H4">
-        <v>0.16709685865474899</v>
+        <v>0.37520002794653601</v>
       </c>
       <c r="I4">
-        <v>0.32254035776614298</v>
+        <v>0.178399999999999</v>
       </c>
       <c r="J4">
-        <v>6.6812889144889406E-2</v>
+        <v>0.32227951892088502</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1485,31 +1892,31 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>24.479506778716999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7.0154470469321597E-9</v>
+        <v>42.659689950942898</v>
+      </c>
+      <c r="G5">
+        <v>0.220231543760955</v>
       </c>
       <c r="H5">
-        <v>0.99999997838483901</v>
+        <v>0.246868753137409</v>
       </c>
       <c r="I5">
-        <v>6.6666740718591896E-3</v>
+        <v>0.26370129870129799</v>
       </c>
       <c r="J5">
-        <v>0.97142854921299304</v>
+        <v>9.5674603174603204E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1517,31 +1924,31 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1.20447473526</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.6245895098604499E-16</v>
+        <v>111.456831741333</v>
+      </c>
+      <c r="G6">
+        <v>0.220231543760955</v>
       </c>
       <c r="H6">
-        <v>0.999999999999999</v>
+        <v>0.246868753137409</v>
       </c>
       <c r="I6">
-        <v>6.6666666666668198E-3</v>
+        <v>0.27798701298701201</v>
       </c>
       <c r="J6">
-        <v>0.97142857142856998</v>
+        <v>4.0436507936507902E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1549,31 +1956,31 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0.69806575775146396</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7.8971127093002696E-17</v>
+        <v>38.375191736221304</v>
+      </c>
+      <c r="G7">
+        <v>0.220231543760955</v>
       </c>
       <c r="H7">
-        <v>0.999999999999999</v>
+        <v>0.246868753137409</v>
       </c>
       <c r="I7">
-        <v>7.4074074074074502E-3</v>
+        <v>0.26720779220779201</v>
       </c>
       <c r="J7">
-        <v>0.97777777777777697</v>
+        <v>8.0119047619047604E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1581,31 +1988,31 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>1728</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>6.9664452552795399</v>
+        <v>95.709519386291504</v>
       </c>
       <c r="G8">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="H8">
-        <v>0.135903111768816</v>
+        <v>0.37369126317794699</v>
       </c>
       <c r="I8">
-        <v>0.40873440285204898</v>
+        <v>8.6616961268883796E-2</v>
       </c>
       <c r="J8">
-        <v>-9.3653846153846101E-2</v>
+        <v>0.372173387259709</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1613,31 +2020,31 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>169</v>
+        <v>1728</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>13.5440484523773</v>
+        <v>64.223447847366302</v>
       </c>
       <c r="G9">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="H9">
-        <v>0.135903111768816</v>
+        <v>0.37369126317794699</v>
       </c>
       <c r="I9">
-        <v>0.40873440285204898</v>
+        <v>8.6616961268883796E-2</v>
       </c>
       <c r="J9">
-        <v>-9.3653846153846101E-2</v>
+        <v>0.372173387259709</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,31 +2052,31 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>169</v>
+        <v>1728</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>14.3914228916168</v>
+        <v>151.038380622863</v>
       </c>
       <c r="G10">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="H10">
-        <v>0.135903111768816</v>
+        <v>0.37369126317794699</v>
       </c>
       <c r="I10">
-        <v>0.40873440285204898</v>
+        <v>8.6616961268883796E-2</v>
       </c>
       <c r="J10">
-        <v>-9.3653846153846101E-2</v>
+        <v>0.372173387259709</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1677,10 +2084,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1689,19 +2096,19 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.58983201980590805</v>
+        <v>2.5107397556304898</v>
       </c>
       <c r="G11">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="H11">
-        <v>0.86604609929078002</v>
+        <v>0.38503463897708301</v>
       </c>
       <c r="I11">
-        <v>6.5666666666666595E-2</v>
+        <v>0.28774928774928699</v>
       </c>
       <c r="J11">
-        <v>0.86363636363636298</v>
+        <v>1.90849673202611E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1709,10 +2116,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1721,19 +2128,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1.0466373443603501</v>
+        <v>1.98078293800354</v>
       </c>
       <c r="G12">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="H12">
-        <v>0.86604609929078002</v>
+        <v>0.38503463897708301</v>
       </c>
       <c r="I12">
-        <v>6.5666666666666595E-2</v>
+        <v>0.28774928774928699</v>
       </c>
       <c r="J12">
-        <v>0.86363636363636298</v>
+        <v>1.9084967320261399E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1741,10 +2148,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1753,19 +2160,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.97851257324218699</v>
+        <v>1.5291576385498</v>
       </c>
       <c r="G13">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="H13">
-        <v>0.86604609929078002</v>
+        <v>0.38503463897708301</v>
       </c>
       <c r="I13">
-        <v>6.5666666666666595E-2</v>
+        <v>0.28774928774928699</v>
       </c>
       <c r="J13">
-        <v>0.86363636363636298</v>
+        <v>1.9084967320261399E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,31 +2180,31 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.77993779182433998</v>
+        <v>1.0118609905242899</v>
       </c>
       <c r="G14">
-        <v>0.167313131313131</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="H14">
-        <v>0.64466873706004102</v>
+        <v>0.93508591531989405</v>
       </c>
       <c r="I14">
-        <v>0.28333333333333299</v>
+        <v>3.0342275670675298E-2</v>
       </c>
       <c r="J14">
-        <v>0.26944444444444399</v>
+        <v>0.92139724310776905</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1805,31 +2212,31 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1.37499208450317</v>
+        <v>1.5448903560638401</v>
       </c>
       <c r="G15">
-        <v>0.167313131313131</v>
+        <v>3.01830863121186E-2</v>
       </c>
       <c r="H15">
-        <v>0.64466873706004102</v>
+        <v>0.93508591531989405</v>
       </c>
       <c r="I15">
-        <v>0.28333333333333299</v>
+        <v>3.0342275670675298E-2</v>
       </c>
       <c r="J15">
-        <v>0.26944444444444399</v>
+        <v>0.92139724310776905</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1837,31 +2244,31 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1.4145691871643</v>
+        <v>1.8091198444366401</v>
       </c>
       <c r="G16">
-        <v>0.167313131313131</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="H16">
-        <v>0.64466873706004102</v>
+        <v>0.93508591531989405</v>
       </c>
       <c r="I16">
-        <v>0.28333333333333299</v>
+        <v>3.0342275670675298E-2</v>
       </c>
       <c r="J16">
-        <v>0.26944444444444399</v>
+        <v>0.92139724310776905</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1869,31 +2276,31 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2.5107397556304898</v>
+        <v>858.71918382644606</v>
       </c>
       <c r="G17">
-        <v>0.18843665768194001</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="H17">
-        <v>0.38503463897708301</v>
+        <v>0.72626560862035805</v>
       </c>
       <c r="I17">
-        <v>0.28774928774928699</v>
+        <v>0.13078491784037499</v>
       </c>
       <c r="J17">
-        <v>1.90849673202611E-2</v>
+        <v>0.72633810091972595</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1901,31 +2308,31 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1.98078293800354</v>
+        <v>3027.1228082656799</v>
       </c>
       <c r="G18">
-        <v>0.18843665768194001</v>
+        <v>0.14737019431148199</v>
       </c>
       <c r="H18">
-        <v>0.38503463897708301</v>
+        <v>0.691282110270523</v>
       </c>
       <c r="I18">
-        <v>0.28774928774928699</v>
+        <v>0.14518241392801201</v>
       </c>
       <c r="J18">
-        <v>1.9084967320261399E-2</v>
+        <v>0.69713175171337705</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1933,31 +2340,31 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1.5291576385498</v>
+        <v>2018.96998000144</v>
       </c>
       <c r="G19">
-        <v>0.18843665768194001</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="H19">
-        <v>0.38503463897708301</v>
+        <v>0.72626560862035805</v>
       </c>
       <c r="I19">
-        <v>0.28774928774928699</v>
+        <v>0.13078491784037499</v>
       </c>
       <c r="J19">
-        <v>1.9084967320261399E-2</v>
+        <v>0.72633810091972595</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1965,31 +2372,31 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1.0118609905242899</v>
+        <v>0.77993779182433998</v>
       </c>
       <c r="G20">
-        <v>3.0183086312118499E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="H20">
-        <v>0.93508591531989405</v>
+        <v>0.64466873706004102</v>
       </c>
       <c r="I20">
-        <v>3.0342275670675298E-2</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="J20">
-        <v>0.92139724310776905</v>
+        <v>0.26944444444444399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1997,31 +2404,31 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1.5448903560638401</v>
+        <v>1.37499208450317</v>
       </c>
       <c r="G21">
-        <v>3.01830863121186E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="H21">
-        <v>0.93508591531989405</v>
+        <v>0.64466873706004102</v>
       </c>
       <c r="I21">
-        <v>3.0342275670675298E-2</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="J21">
-        <v>0.92139724310776905</v>
+        <v>0.26944444444444399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2029,31 +2436,31 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1.8091198444366401</v>
+        <v>1.4145691871643</v>
       </c>
       <c r="G22">
-        <v>3.0183086312118499E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="H22">
-        <v>0.93508591531989405</v>
+        <v>0.64466873706004102</v>
       </c>
       <c r="I22">
-        <v>3.0342275670675298E-2</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="J22">
-        <v>0.92139724310776905</v>
+        <v>0.26944444444444399</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2061,31 +2468,31 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>42.659689950942898</v>
+        <v>6.9664452552795399</v>
       </c>
       <c r="G23">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="H23">
-        <v>0.246868753137409</v>
+        <v>0.135903111768816</v>
       </c>
       <c r="I23">
-        <v>0.26370129870129799</v>
+        <v>0.40873440285204898</v>
       </c>
       <c r="J23">
-        <v>9.5674603174603204E-2</v>
+        <v>-9.3653846153846101E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2093,31 +2500,31 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>111.456831741333</v>
+        <v>13.5440484523773</v>
       </c>
       <c r="G24">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="H24">
-        <v>0.246868753137409</v>
+        <v>0.135903111768816</v>
       </c>
       <c r="I24">
-        <v>0.27798701298701201</v>
+        <v>0.40873440285204898</v>
       </c>
       <c r="J24">
-        <v>4.0436507936507902E-2</v>
+        <v>-9.3653846153846101E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2125,31 +2532,31 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>38.375191736221304</v>
+        <v>14.3914228916168</v>
       </c>
       <c r="G25">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="H25">
-        <v>0.246868753137409</v>
+        <v>0.135903111768816</v>
       </c>
       <c r="I25">
-        <v>0.26720779220779201</v>
+        <v>0.40873440285204898</v>
       </c>
       <c r="J25">
-        <v>8.0119047619047604E-2</v>
+        <v>-9.3653846153846101E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2157,31 +2564,31 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>30.0016683101654</v>
+        <v>0.58983201980590805</v>
       </c>
       <c r="G26">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="H26">
-        <v>0.37520002794653601</v>
+        <v>0.86604609929078002</v>
       </c>
       <c r="I26">
-        <v>0.1784</v>
+        <v>6.5666666666666595E-2</v>
       </c>
       <c r="J26">
-        <v>0.32227951892088502</v>
+        <v>0.86363636363636298</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2189,31 +2596,31 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>21.3305683612823</v>
+        <v>1.0466373443603501</v>
       </c>
       <c r="G27">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="H27">
-        <v>0.37520002794653601</v>
+        <v>0.86604609929078002</v>
       </c>
       <c r="I27">
-        <v>0.1784</v>
+        <v>6.5666666666666595E-2</v>
       </c>
       <c r="J27">
-        <v>0.32227951892088502</v>
+        <v>0.86363636363636298</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2221,31 +2628,31 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>53.940104722976599</v>
+        <v>0.97851257324218699</v>
       </c>
       <c r="G28">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="H28">
-        <v>0.37520002794653601</v>
+        <v>0.86604609929078002</v>
       </c>
       <c r="I28">
-        <v>0.178399999999999</v>
+        <v>6.5666666666666595E-2</v>
       </c>
       <c r="J28">
-        <v>0.32227951892088502</v>
+        <v>0.86363636363636298</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2253,31 +2660,31 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>95.709519386291504</v>
-      </c>
-      <c r="G29">
-        <v>8.6612923310029899E-2</v>
+        <v>24.479506778716999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.0154470469321597E-9</v>
       </c>
       <c r="H29">
-        <v>0.37369126317794699</v>
+        <v>0.99999997838483901</v>
       </c>
       <c r="I29">
-        <v>8.6616961268883796E-2</v>
+        <v>6.6666740718591896E-3</v>
       </c>
       <c r="J29">
-        <v>0.372173387259709</v>
+        <v>0.97142854921299304</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2285,31 +2692,31 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>64.223447847366302</v>
-      </c>
-      <c r="G30">
-        <v>8.6612923310029899E-2</v>
+        <v>1.20447473526</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.6245895098604499E-16</v>
       </c>
       <c r="H30">
-        <v>0.37369126317794699</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I30">
-        <v>8.6616961268883796E-2</v>
+        <v>6.6666666666668198E-3</v>
       </c>
       <c r="J30">
-        <v>0.372173387259709</v>
+        <v>0.97142857142856998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2317,31 +2724,31 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>151.038380622863</v>
-      </c>
-      <c r="G31">
-        <v>8.6612923310029899E-2</v>
+        <v>0.69806575775146396</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.8971127093002696E-17</v>
       </c>
       <c r="H31">
-        <v>0.37369126317794699</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I31">
-        <v>8.6616961268883796E-2</v>
+        <v>7.4074074074074502E-3</v>
       </c>
       <c r="J31">
-        <v>0.372173387259709</v>
+        <v>0.97777777777777697</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2349,31 +2756,31 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>3196</v>
+        <v>958</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>858.71918382644606</v>
+        <v>765.74852881431502</v>
       </c>
       <c r="G32">
-        <v>0.13078826235997601</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="H32">
-        <v>0.72626560862035805</v>
+        <v>0.16709685865474899</v>
       </c>
       <c r="I32">
-        <v>0.13078491784037499</v>
+        <v>0.32254035776614298</v>
       </c>
       <c r="J32">
-        <v>0.72633810091972595</v>
+        <v>6.6812889144889406E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2381,31 +2788,31 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>3196</v>
+        <v>958</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>3027.1228082656799</v>
+        <v>1008.8966509819001</v>
       </c>
       <c r="G33">
-        <v>0.14737019431148199</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="H33">
-        <v>0.691282110270523</v>
+        <v>0.16709685865474899</v>
       </c>
       <c r="I33">
-        <v>0.14518241392801201</v>
+        <v>0.33091732111692801</v>
       </c>
       <c r="J33">
-        <v>0.69713175171337705</v>
+        <v>4.3283477380183497E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2413,100 +2820,132 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>3196</v>
+        <v>958</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>2018.96998000144</v>
+        <v>1608.99466433525</v>
       </c>
       <c r="G34">
-        <v>0.13078826235997601</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="H34">
-        <v>0.72626560862035805</v>
+        <v>0.16709685865474899</v>
       </c>
       <c r="I34">
-        <v>0.13078491784037499</v>
+        <v>0.32254035776614298</v>
       </c>
       <c r="J34">
-        <v>0.72633810091972595</v>
+        <v>6.6812889144889406E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>625</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3600.0210060119598</v>
+      </c>
+      <c r="G35">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.44780360158138299</v>
+      </c>
+      <c r="I35">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.31142400715455598</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>3600.3775082111301</v>
+        <v>3609.5883147716499</v>
       </c>
       <c r="G36" s="4">
-        <v>0.18411805470629</v>
+        <v>0.14419999999999999</v>
       </c>
       <c r="H36">
-        <v>0.37011804116281699</v>
+        <v>0.46489465899612098</v>
       </c>
       <c r="I36">
-        <v>0.281623376623376</v>
+        <v>0.18</v>
       </c>
       <c r="J36">
-        <v>3.3055555555555498E-2</v>
+        <v>0.31666820739875701</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>277</v>
+        <v>625</v>
       </c>
       <c r="D37">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>3611.5633339881801</v>
+        <v>3604.8088218212101</v>
       </c>
       <c r="G37">
-        <v>0.18773388773388699</v>
+        <v>0.1484</v>
       </c>
       <c r="H37">
-        <v>0.358040665801859</v>
+        <v>0.44936708737826597</v>
       </c>
       <c r="I37">
-        <v>0.29584415584415502</v>
+        <v>0.17359999999999901</v>
       </c>
       <c r="J37">
-        <v>-2.1111111111111001E-2</v>
+        <v>0.34170238153160298</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2521,184 +2960,184 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>3602.4289192676501</v>
-      </c>
-      <c r="G38">
-        <v>0.185928009457421</v>
+        <v>3600.3775082111301</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.18411805470629</v>
       </c>
       <c r="H38">
-        <v>0.36415511519989102</v>
+        <v>0.37011804116281699</v>
       </c>
       <c r="I38">
-        <v>0.263636363636363</v>
+        <v>0.281623376623376</v>
       </c>
       <c r="J38">
-        <v>9.3015873015872996E-2</v>
+        <v>3.3055555555555498E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>7.7758556365966696</v>
+        <v>3611.5633339881801</v>
       </c>
       <c r="G39">
-        <v>7.0585858585858696E-2</v>
+        <v>0.18773388773388699</v>
       </c>
       <c r="H39">
-        <v>0.84966430050280894</v>
+        <v>0.358040665801859</v>
       </c>
       <c r="I39">
-        <v>0.169333333333333</v>
+        <v>0.29584415584415502</v>
       </c>
       <c r="J39">
-        <v>0.56444444444444397</v>
+        <v>-2.1111111111111001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>13.7165688514709</v>
+        <v>3602.4289192676501</v>
       </c>
       <c r="G40">
-        <v>7.0585858585859002E-2</v>
+        <v>0.185928009457421</v>
       </c>
       <c r="H40">
-        <v>0.84966430050280795</v>
+        <v>0.36415511519989102</v>
       </c>
       <c r="I40">
-        <v>0.18533333333333299</v>
+        <v>0.263636363636363</v>
       </c>
       <c r="J40">
-        <v>0.51999999999999902</v>
+        <v>9.3015873015872996E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>124</v>
+        <v>1728</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41">
-        <v>46.022251653671198</v>
-      </c>
-      <c r="G41">
-        <v>7.0585858585858599E-2</v>
+        <v>3600.0448319911902</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7.6485502583051299E-2</v>
       </c>
       <c r="H41">
-        <v>0.84966430050280894</v>
+        <v>0.44696249830403201</v>
       </c>
       <c r="I41">
-        <v>0.17733333333333301</v>
+        <v>8.0828237133842407E-2</v>
       </c>
       <c r="J41">
-        <v>0.54222222222222205</v>
+        <v>0.41475397323937002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>132</v>
+        <v>1728</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42">
-        <v>456.976330757141</v>
+        <v>3636.4633485794002</v>
       </c>
       <c r="G42">
-        <v>0.11930817610062799</v>
+        <v>7.6630255263503894E-2</v>
       </c>
       <c r="H42">
-        <v>0.61075758925678703</v>
+        <v>0.44595851075182702</v>
       </c>
       <c r="I42">
-        <v>0.26467236467236399</v>
+        <v>8.0250760939376095E-2</v>
       </c>
       <c r="J42">
-        <v>8.83660130718954E-2</v>
+        <v>0.41972386924375499</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>132</v>
+        <v>1728</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>55.598494911193796</v>
+        <v>3614.93088846206</v>
       </c>
       <c r="G43">
-        <v>0.11930817610062799</v>
+        <v>7.65338116101415E-2</v>
       </c>
       <c r="H43">
-        <v>0.61075758925678703</v>
+        <v>0.44666520496729301</v>
       </c>
       <c r="I43">
-        <v>0.26096866096866</v>
+        <v>8.0636675881712305E-2</v>
       </c>
       <c r="J43">
-        <v>0.10503267973856199</v>
+        <v>0.41707596870422903</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
@@ -2713,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <v>39.796940708160399</v>
+        <v>456.976330757141</v>
       </c>
       <c r="G44">
         <v>0.11930817610062799</v>
@@ -2722,79 +3161,79 @@
         <v>0.61075758925678703</v>
       </c>
       <c r="I44">
-        <v>0.26096866096866</v>
+        <v>0.26467236467236399</v>
       </c>
       <c r="J44">
-        <v>0.10503267973856199</v>
+        <v>8.83660130718954E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>271.00781641006398</v>
+        <v>55.598494911193796</v>
       </c>
       <c r="G45">
-        <v>1.8326068003487302E-2</v>
+        <v>0.11930817610062799</v>
       </c>
       <c r="H45">
-        <v>0.96068197335003602</v>
+        <v>0.61075758925678703</v>
       </c>
       <c r="I45">
-        <v>4.7548566142460599E-2</v>
+        <v>0.26096866096866</v>
       </c>
       <c r="J45">
-        <v>0.88097962297046895</v>
+        <v>0.10503267973856199</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46">
-        <v>229.85752367973299</v>
+        <v>39.796940708160399</v>
       </c>
       <c r="G46">
-        <v>1.8326068003487302E-2</v>
+        <v>0.11930817610062799</v>
       </c>
       <c r="H46">
-        <v>0.96068197335003602</v>
+        <v>0.61075758925678703</v>
       </c>
       <c r="I46">
-        <v>7.3450508788159105E-2</v>
+        <v>0.26096866096866</v>
       </c>
       <c r="J46">
-        <v>0.80597962297046899</v>
+        <v>0.10503267973856199</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -2809,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <v>589.58496770858699</v>
+        <v>271.00781641006398</v>
       </c>
       <c r="G47">
         <v>1.8326068003487302E-2</v>
@@ -2818,335 +3257,335 @@
         <v>0.96068197335003602</v>
       </c>
       <c r="I47">
-        <v>7.3450508788159105E-2</v>
+        <v>4.7548566142460599E-2</v>
       </c>
       <c r="J47">
-        <v>0.80795330718099501</v>
+        <v>0.88097962297046895</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>625</v>
+        <v>232</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48">
-        <v>3600.0210060119598</v>
+        <v>229.85752367973299</v>
       </c>
       <c r="G48">
-        <v>0.14879999999999999</v>
+        <v>1.8326068003487302E-2</v>
       </c>
       <c r="H48">
-        <v>0.44780360158138299</v>
+        <v>0.96068197335003602</v>
       </c>
       <c r="I48">
-        <v>0.18160000000000001</v>
+        <v>7.3450508788159105E-2</v>
       </c>
       <c r="J48">
-        <v>0.31142400715455598</v>
+        <v>0.80597962297046899</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>625</v>
+        <v>232</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49">
-        <v>3609.5883147716499</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.14419999999999999</v>
+        <v>589.58496770858699</v>
+      </c>
+      <c r="G49">
+        <v>1.8326068003487302E-2</v>
       </c>
       <c r="H49">
-        <v>0.46489465899612098</v>
+        <v>0.96068197335003602</v>
       </c>
       <c r="I49">
-        <v>0.18</v>
+        <v>7.3450508788159105E-2</v>
       </c>
       <c r="J49">
-        <v>0.31666820739875701</v>
+        <v>0.80795330718099501</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>625</v>
+        <v>3196</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
       <c r="F50">
-        <v>3604.8088218212101</v>
-      </c>
-      <c r="G50">
-        <v>0.1484</v>
+        <v>3600.0755199432301</v>
+      </c>
+      <c r="G50" s="4">
+        <v>8.1506411256833999E-2</v>
       </c>
       <c r="H50">
-        <v>0.44936708737826597</v>
+        <v>0.82924130745184499</v>
       </c>
       <c r="I50">
-        <v>0.17359999999999901</v>
+        <v>8.2919600938967095E-2</v>
       </c>
       <c r="J50">
-        <v>0.34170238153160298</v>
+        <v>0.82724030609040899</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>625</v>
+        <v>3196</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
       <c r="F51">
-        <v>12.042043876647901</v>
+        <v>3694.55465273857</v>
       </c>
       <c r="G51">
-        <v>0.69119999999999904</v>
+        <v>0.138537893156532</v>
       </c>
       <c r="H51">
-        <v>-1.5639406282571799</v>
+        <v>0.71001726635296403</v>
       </c>
       <c r="I51">
-        <v>0.69120000000000004</v>
+        <v>0.143274647887324</v>
       </c>
       <c r="J51">
-        <v>-1.6254326097684699</v>
+        <v>0.70007306777189304</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>958</v>
+        <v>3196</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>3600.02772302627</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.223383634995795</v>
+        <v>3626.2636537075</v>
+      </c>
+      <c r="G52">
+        <v>0.21041193495654301</v>
       </c>
       <c r="H52">
-        <v>0.35535391495431801</v>
+        <v>0.55905768905277198</v>
       </c>
       <c r="I52">
-        <v>0.26729384816753898</v>
+        <v>0.211225058685446</v>
       </c>
       <c r="J52">
-        <v>0.22810953667001799</v>
+        <v>0.55985604540520495</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>958</v>
+        <v>124</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="F53">
-        <v>3621.7336405753999</v>
+        <v>7.7758556365966696</v>
       </c>
       <c r="G53">
-        <v>0.227819894403954</v>
+        <v>7.0585858585858696E-2</v>
       </c>
       <c r="H53">
-        <v>0.34266405284879897</v>
+        <v>0.84966430050280894</v>
       </c>
       <c r="I53">
-        <v>0.26101112565445</v>
+        <v>0.169333333333333</v>
       </c>
       <c r="J53">
-        <v>0.24677643108787201</v>
+        <v>0.56444444444444397</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>958</v>
+        <v>124</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
-        <v>3607.2565189361499</v>
+        <v>13.7165688514709</v>
       </c>
       <c r="G54">
-        <v>0.22938749527677199</v>
+        <v>7.0585858585859002E-2</v>
       </c>
       <c r="H54">
-        <v>0.33833680663145899</v>
+        <v>0.84966430050280795</v>
       </c>
       <c r="I54">
-        <v>0.26308355148342</v>
+        <v>0.18533333333333299</v>
       </c>
       <c r="J54">
-        <v>0.23943971612392601</v>
+        <v>0.51999999999999902</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>3196</v>
+        <v>124</v>
       </c>
       <c r="D55">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55">
-        <v>3600.0755199432301</v>
-      </c>
-      <c r="G55" s="4">
-        <v>8.1506411256833999E-2</v>
+        <v>46.022251653671198</v>
+      </c>
+      <c r="G55">
+        <v>7.0585858585858599E-2</v>
       </c>
       <c r="H55">
-        <v>0.82924130745184499</v>
+        <v>0.84966430050280894</v>
       </c>
       <c r="I55">
-        <v>8.2919600938967095E-2</v>
+        <v>0.17733333333333301</v>
       </c>
       <c r="J55">
-        <v>0.82724030609040899</v>
+        <v>0.54222222222222205</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>3196</v>
+        <v>169</v>
       </c>
       <c r="D56">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56">
-        <v>3694.55465273857</v>
+        <v>2623.87762823104</v>
       </c>
       <c r="G56">
-        <v>0.138537893156532</v>
+        <v>0.22633986928104499</v>
       </c>
       <c r="H56">
-        <v>0.71001726635296403</v>
+        <v>0.40231625354544298</v>
       </c>
       <c r="I56">
-        <v>0.143274647887324</v>
+        <v>0.40196078431372501</v>
       </c>
       <c r="J56">
-        <v>0.70007306777189304</v>
+        <v>-9.5237262737262698E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>3196</v>
+        <v>169</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57">
-        <v>3626.2636537075</v>
+        <v>3109.9881845474201</v>
       </c>
       <c r="G57">
-        <v>0.21041193495654301</v>
+        <v>0.22633986928104499</v>
       </c>
       <c r="H57">
-        <v>0.55905768905277198</v>
+        <v>0.40231625354544298</v>
       </c>
       <c r="I57">
-        <v>0.211225058685446</v>
+        <v>0.40196078431372501</v>
       </c>
       <c r="J57">
-        <v>0.55985604540520495</v>
+        <v>-9.5237262737262698E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -3161,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <v>2623.87762823104</v>
+        <v>3601.9782942771899</v>
       </c>
       <c r="G58">
         <v>0.22633986928104499</v>
@@ -3178,13 +3617,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -3193,30 +3632,30 @@
         <v>3</v>
       </c>
       <c r="F59">
-        <v>3109.9881845474201</v>
+        <v>33.759254503250098</v>
       </c>
       <c r="G59">
-        <v>0.22633986928104499</v>
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H59">
-        <v>0.40231625354544298</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I59">
-        <v>0.40196078431372501</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J59">
-        <v>-9.5237262737262698E-2</v>
+        <v>0.84848484848484795</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D60">
         <v>15</v>
@@ -3225,443 +3664,472 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>3601.9782942771899</v>
+        <v>84.381926631927399</v>
       </c>
       <c r="G60">
-        <v>0.22633986928104499</v>
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H60">
-        <v>0.40231625354544298</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I60">
-        <v>0.40196078431372501</v>
+        <v>0.09</v>
       </c>
       <c r="J60">
-        <v>-9.5237262737262698E-2</v>
+        <v>0.81212121212121202</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C61">
-        <v>1728</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61">
-        <v>3600.0448319911902</v>
-      </c>
-      <c r="G61" s="4">
-        <v>7.6485502583051299E-2</v>
+        <v>144.259060001373</v>
+      </c>
+      <c r="G61">
+        <v>4.3046496949295097E-2</v>
       </c>
       <c r="H61">
-        <v>0.44696249830403201</v>
+        <v>0.91214539007092199</v>
       </c>
       <c r="I61">
-        <v>8.0828237133842407E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="J61">
-        <v>0.41475397323937002</v>
+        <v>0.84848484848484795</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
       <c r="F62">
-        <v>3636.4633485794002</v>
-      </c>
-      <c r="G62">
-        <v>7.6630255263503894E-2</v>
+        <v>3600.0067761897999</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9.6890235479452603E-7</v>
       </c>
       <c r="H62">
-        <v>0.44595851075182702</v>
+        <v>0.99999704895972097</v>
       </c>
       <c r="I62">
-        <v>8.0250760939376095E-2</v>
+        <v>1.4816050024250901E-2</v>
       </c>
       <c r="J62">
-        <v>0.41972386924375499</v>
+        <v>0.95555148660595202</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C63">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
       <c r="F63">
-        <v>3614.93088846206</v>
-      </c>
-      <c r="G63">
-        <v>7.65338116101415E-2</v>
+        <v>1.5339475154876701</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6.4907775692879001E-17</v>
       </c>
       <c r="H63">
-        <v>0.44666520496729301</v>
-      </c>
-      <c r="I63">
-        <v>8.0636675881712305E-2</v>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5.9211894646675002E-17</v>
       </c>
       <c r="J63">
-        <v>0.41707596870422903</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64">
-        <v>33.759254503250098</v>
-      </c>
-      <c r="G64">
-        <v>4.3046496949295097E-2</v>
+        <v>0.72650270462036104</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.33320729199634E-15</v>
       </c>
       <c r="H64">
-        <v>0.91214539007092199</v>
-      </c>
-      <c r="I64">
-        <v>7.3999999999999996E-2</v>
+        <v>0.999999999999995</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.2982207901283401E-15</v>
       </c>
       <c r="J64">
-        <v>0.84848484848484795</v>
+        <v>0.999999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>122</v>
+        <v>958</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65">
-        <v>84.381926631927399</v>
-      </c>
-      <c r="G65">
-        <v>4.3046496949295097E-2</v>
+        <v>3600.02772302627</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.223383634995795</v>
       </c>
       <c r="H65">
-        <v>0.91214539007092199</v>
+        <v>0.35535391495431801</v>
       </c>
       <c r="I65">
-        <v>0.09</v>
+        <v>0.26729384816753898</v>
       </c>
       <c r="J65">
-        <v>0.81212121212121202</v>
+        <v>0.22810953667001799</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66">
-        <v>122</v>
+        <v>958</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66">
-        <v>144.259060001373</v>
+        <v>3621.7336405753999</v>
       </c>
       <c r="G66">
-        <v>4.3046496949295097E-2</v>
+        <v>0.227819894403954</v>
       </c>
       <c r="H66">
-        <v>0.91214539007092199</v>
+        <v>0.34266405284879897</v>
       </c>
       <c r="I66">
-        <v>7.3999999999999996E-2</v>
+        <v>0.26101112565445</v>
       </c>
       <c r="J66">
-        <v>0.84848484848484795</v>
+        <v>0.24677643108787201</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67">
-        <v>47</v>
+        <v>958</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67">
-        <v>3600.0067761897999</v>
-      </c>
-      <c r="G67" s="1">
-        <v>9.6890235479452603E-7</v>
+        <v>3607.2565189361499</v>
+      </c>
+      <c r="G67">
+        <v>0.22938749527677199</v>
       </c>
       <c r="H67">
-        <v>0.99999704895972097</v>
+        <v>0.33833680663145899</v>
       </c>
       <c r="I67">
-        <v>1.4816050024250901E-2</v>
+        <v>0.26308355148342</v>
       </c>
       <c r="J67">
-        <v>0.95555148660595202</v>
+        <v>0.23943971612392601</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D68">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>1.5339475154876701</v>
-      </c>
-      <c r="G68" s="1">
-        <v>6.4907775692879001E-17</v>
+        <v>3619.4590810775699</v>
+      </c>
+      <c r="G68">
+        <v>0.13120000000000001</v>
       </c>
       <c r="H68">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="I68" s="1">
-        <v>5.9211894646675002E-17</v>
+        <v>0.51334892894336204</v>
+      </c>
+      <c r="I68">
+        <v>0.15840000000000001</v>
       </c>
       <c r="J68">
-        <v>0.999999999999999</v>
+        <v>0.40385633657929598</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>0.72650270462036104</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.33320729199634E-15</v>
+        <v>3615.4994162082598</v>
+      </c>
+      <c r="G69">
+        <v>0.12780000000002401</v>
       </c>
       <c r="H69">
-        <v>0.999999999999995</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.2982207901283401E-15</v>
+        <v>0.52581353557814903</v>
+      </c>
+      <c r="I69">
+        <v>0.16400000000001699</v>
       </c>
       <c r="J69">
-        <v>0.999999999999995</v>
+        <v>0.37701691098269502</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>1.5390488147735499</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.1874490643181401E-16</v>
+        <v>3604.9547914505001</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.12680000000399999</v>
       </c>
       <c r="H70">
-        <v>0.999999999999999</v>
+        <v>0.52945614877640701</v>
       </c>
       <c r="I70">
-        <v>2.66666666666667E-2</v>
+        <v>0.16880000001600001</v>
       </c>
       <c r="J70">
-        <v>0.89999999999999902</v>
+        <v>0.358857483378487</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G71" s="1"/>
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>277</v>
+      </c>
+      <c r="D71">
+        <v>38</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>3600.0325140476202</v>
+      </c>
+      <c r="G71">
+        <v>0.146211003886239</v>
+      </c>
+      <c r="H71">
+        <v>0.49956888015356599</v>
+      </c>
+      <c r="I71">
+        <v>0.27435072086579998</v>
+      </c>
+      <c r="J71">
+        <v>5.3452162433862402E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>625</v>
+        <v>277</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E72">
         <v>4</v>
       </c>
       <c r="F72">
-        <v>3619.4590810775699</v>
+        <v>3627.3726189613299</v>
       </c>
       <c r="G72">
-        <v>0.13120000000000001</v>
+        <v>0.15613713260772</v>
       </c>
       <c r="H72">
-        <v>0.51334892894336204</v>
+        <v>0.465902290081394</v>
       </c>
       <c r="I72">
-        <v>0.15840000000000001</v>
+        <v>0.277987012987013</v>
       </c>
       <c r="J72">
-        <v>0.40385633657929598</v>
+        <v>4.3730158730158598E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>625</v>
+        <v>277</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E73">
         <v>4</v>
       </c>
       <c r="F73">
-        <v>3615.4994162082598</v>
-      </c>
-      <c r="G73">
-        <v>0.12780000000002401</v>
+        <v>3606.7494415760002</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0.14260323672088299</v>
       </c>
       <c r="H73">
-        <v>0.52581353557814903</v>
+        <v>0.51226620808710299</v>
       </c>
       <c r="I73">
-        <v>0.16400000000001699</v>
+        <v>0.25636363636363602</v>
       </c>
       <c r="J73">
-        <v>0.37701691098269502</v>
+        <v>0.115674603174603</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>625</v>
+        <v>1728</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>4</v>
       </c>
       <c r="F74">
-        <v>3604.9547914505001</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0.12680000000399999</v>
+        <v>3600.0538076877501</v>
+      </c>
+      <c r="G74">
+        <v>6.9444313643829705E-2</v>
       </c>
       <c r="H74">
-        <v>0.52945614877640701</v>
+        <v>0.49793839618034602</v>
       </c>
       <c r="I74">
-        <v>0.16880000001600001</v>
+        <v>7.7360029041356193E-2</v>
       </c>
       <c r="J74">
-        <v>0.358857483378487</v>
+        <v>0.438249840335731</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -3676,24 +4144,24 @@
         <v>4</v>
       </c>
       <c r="F75">
-        <v>3600.0538076877501</v>
+        <v>3644.3347746848999</v>
       </c>
       <c r="G75">
-        <v>6.9444313643829705E-2</v>
+        <v>7.0120744663596496E-2</v>
       </c>
       <c r="H75">
-        <v>0.49793839618034602</v>
+        <v>0.49314611823857801</v>
       </c>
       <c r="I75">
-        <v>7.7360029041356193E-2</v>
+        <v>7.5422635503057306E-2</v>
       </c>
       <c r="J75">
-        <v>0.438249840335731</v>
+        <v>0.45480507630036698</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -3708,56 +4176,56 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>3644.3347746848999</v>
-      </c>
-      <c r="G76">
-        <v>7.0120744663596496E-2</v>
+        <v>3614.5098840236601</v>
+      </c>
+      <c r="G76" s="4">
+        <v>6.7852836402613206E-2</v>
       </c>
       <c r="H76">
-        <v>0.49314611823857801</v>
+        <v>0.50929150259851397</v>
       </c>
       <c r="I76">
-        <v>7.5422635503057306E-2</v>
+        <v>7.29217279606824E-2</v>
       </c>
       <c r="J76">
-        <v>0.45480507630036698</v>
+        <v>0.472445216920371</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>1728</v>
+        <v>132</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
       <c r="F77">
-        <v>3614.5098840236601</v>
-      </c>
-      <c r="G77" s="4">
-        <v>6.7852836402613206E-2</v>
+        <v>3658.3096920490202</v>
+      </c>
+      <c r="G77">
+        <v>6.5354896675651905E-2</v>
       </c>
       <c r="H77">
-        <v>0.50929150259851397</v>
+        <v>0.78713660122248597</v>
       </c>
       <c r="I77">
-        <v>7.29217279606824E-2</v>
+        <v>0.19330484330484299</v>
       </c>
       <c r="J77">
-        <v>0.472445216920371</v>
+        <v>0.35163398692810399</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -3772,24 +4240,24 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>3658.3096920490202</v>
+        <v>2713.65476417541</v>
       </c>
       <c r="G78">
-        <v>6.5354896675651905E-2</v>
+        <v>5.9667565139263197E-2</v>
       </c>
       <c r="H78">
-        <v>0.78713660122248597</v>
+        <v>0.80566015194712604</v>
       </c>
       <c r="I78">
-        <v>0.19330484330484299</v>
+        <v>0.21182336182336101</v>
       </c>
       <c r="J78">
-        <v>0.35163398692810399</v>
+        <v>0.27810457516339798</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -3804,7 +4272,7 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <v>2713.65476417541</v>
+        <v>2243.01396355628</v>
       </c>
       <c r="G79">
         <v>5.9667565139263197E-2</v>
@@ -3813,47 +4281,47 @@
         <v>0.80566015194712604</v>
       </c>
       <c r="I79">
-        <v>0.21182336182336101</v>
+        <v>0.21552706552706499</v>
       </c>
       <c r="J79">
-        <v>0.27810457516339798</v>
+        <v>0.26633986928104503</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>4</v>
       </c>
       <c r="F80">
-        <v>2243.01396355628</v>
+        <v>2181.5830468654599</v>
       </c>
       <c r="G80">
-        <v>5.9667565139263197E-2</v>
+        <v>3.2374445255828701E-3</v>
       </c>
       <c r="H80">
-        <v>0.80566015194712604</v>
+        <v>0.99303546616009197</v>
       </c>
       <c r="I80">
-        <v>0.21552706552706499</v>
+        <v>3.4597613846110403E-2</v>
       </c>
       <c r="J80">
-        <v>0.26633986928104503</v>
+        <v>0.91467523542204898</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -3868,24 +4336,24 @@
         <v>4</v>
       </c>
       <c r="F81">
-        <v>2181.5830468654599</v>
+        <v>2219.9089588165202</v>
       </c>
       <c r="G81">
-        <v>3.2374445255828701E-3</v>
+        <v>3.2374825433733301E-3</v>
       </c>
       <c r="H81">
-        <v>0.99303546616009197</v>
+        <v>0.99303538161398597</v>
       </c>
       <c r="I81">
-        <v>3.4597613846110403E-2</v>
+        <v>4.3200813164251298E-2</v>
       </c>
       <c r="J81">
-        <v>0.91467523542204898</v>
+        <v>0.89265130519959202</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -3900,120 +4368,120 @@
         <v>4</v>
       </c>
       <c r="F82">
-        <v>2219.9089588165202</v>
+        <v>2301.8437390327399</v>
       </c>
       <c r="G82">
-        <v>3.2374825433733301E-3</v>
+        <v>3.2374309793664702E-3</v>
       </c>
       <c r="H82">
-        <v>0.99303538161398597</v>
+        <v>0.99303549602135199</v>
       </c>
       <c r="I82">
-        <v>4.3200813164251298E-2</v>
+        <v>3.0249768732654898E-2</v>
       </c>
       <c r="J82">
-        <v>0.89265130519959202</v>
+        <v>0.92620409719952002</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>232</v>
+        <v>3196</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E83">
         <v>4</v>
       </c>
       <c r="F83">
-        <v>2301.8437390327399</v>
+        <v>3600.0837342739101</v>
       </c>
       <c r="G83">
-        <v>3.2374309793664702E-3</v>
+        <v>0.13868511551645901</v>
       </c>
       <c r="H83">
-        <v>0.99303549602135199</v>
+        <v>0.70980040981558601</v>
       </c>
       <c r="I83">
-        <v>3.0249768732654898E-2</v>
+        <v>0.14300176056337999</v>
       </c>
       <c r="J83">
-        <v>0.92620409719952002</v>
+        <v>0.70061278951815398</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C84">
-        <v>124</v>
+        <v>3196</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E84">
         <v>4</v>
       </c>
       <c r="F84">
-        <v>3.62791199684143</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1.4318512705468601E-17</v>
+        <v>3873.9075964450799</v>
+      </c>
+      <c r="G84" s="4">
+        <v>9.5987540416575007E-2</v>
       </c>
       <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84" s="1">
-        <v>2.1612341546036299E-17</v>
+        <v>0.79913070048466395</v>
+      </c>
+      <c r="I84">
+        <v>9.8520148669842295E-2</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0.79375184362280504</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>124</v>
+        <v>3196</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
       <c r="F85">
-        <v>5.7982018470764096</v>
-      </c>
-      <c r="G85" s="1">
-        <v>4.1852043716172502E-16</v>
+        <v>3662.0286387443498</v>
+      </c>
+      <c r="G85">
+        <v>0.29388432013013999</v>
       </c>
       <c r="H85">
-        <v>0.999999999999999</v>
+        <v>0.38489680510815499</v>
       </c>
       <c r="I85">
-        <v>8.0000000000002292E-3</v>
+        <v>0.29755330594679102</v>
       </c>
       <c r="J85">
-        <v>0.97499999999999898</v>
+        <v>0.37692434957781401</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -4028,120 +4496,120 @@
         <v>4</v>
       </c>
       <c r="F86">
-        <v>12.1064578056335</v>
+        <v>3.62791199684143</v>
       </c>
       <c r="G86" s="1">
-        <v>1.2560098864446201E-17</v>
+        <v>1.4318512705468601E-17</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>8.0000000000000192E-3</v>
+      <c r="I86" s="1">
+        <v>2.1612341546036299E-17</v>
       </c>
       <c r="J86">
-        <v>0.97499999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>3196</v>
+        <v>124</v>
       </c>
       <c r="D87">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>4</v>
       </c>
       <c r="F87">
-        <v>3600.0837342739101</v>
-      </c>
-      <c r="G87">
-        <v>0.13868511551645901</v>
+        <v>5.7982018470764096</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4.1852043716172502E-16</v>
       </c>
       <c r="H87">
-        <v>0.70980040981558601</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I87">
-        <v>0.14300176056337999</v>
+        <v>8.0000000000002292E-3</v>
       </c>
       <c r="J87">
-        <v>0.70061278951815398</v>
+        <v>0.97499999999999898</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>3196</v>
+        <v>124</v>
       </c>
       <c r="D88">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>4</v>
       </c>
       <c r="F88">
-        <v>3873.9075964450799</v>
-      </c>
-      <c r="G88" s="4">
-        <v>9.5987540416575007E-2</v>
+        <v>12.1064578056335</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.2560098864446201E-17</v>
       </c>
       <c r="H88">
-        <v>0.79913070048466395</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>9.8520148669842295E-2</v>
+        <v>8.0000000000000192E-3</v>
       </c>
       <c r="J88">
-        <v>0.79375184362280504</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C89">
-        <v>3196</v>
+        <v>169</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>4</v>
       </c>
       <c r="F89">
-        <v>3662.0286387443498</v>
-      </c>
-      <c r="G89">
-        <v>0.29388432013013999</v>
+        <v>3600.0197246074599</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0.17014161661219801</v>
       </c>
       <c r="H89">
-        <v>0.38489680510815499</v>
+        <v>0.55280323154520095</v>
       </c>
       <c r="I89">
-        <v>0.29755330594679102</v>
+        <v>0.39073084006238701</v>
       </c>
       <c r="J89">
-        <v>0.37692434957781401</v>
+        <v>-7.2917088686311499E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
@@ -4156,24 +4624,24 @@
         <v>4</v>
       </c>
       <c r="F90">
-        <v>3600.0197246074599</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0.17014161661219801</v>
+        <v>3609.3588703632299</v>
+      </c>
+      <c r="G90">
+        <v>0.173093681917211</v>
       </c>
       <c r="H90">
-        <v>0.55280323154520095</v>
+        <v>0.54332611912689599</v>
       </c>
       <c r="I90">
-        <v>0.39073084006238701</v>
+        <v>0.40338680926916198</v>
       </c>
       <c r="J90">
-        <v>-7.2917088686311499E-2</v>
+        <v>-8.25999000999003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>35</v>
@@ -4188,30 +4656,30 @@
         <v>4</v>
       </c>
       <c r="F91">
-        <v>3609.3588703632299</v>
+        <v>3603.6965285301198</v>
       </c>
       <c r="G91">
-        <v>0.173093681917211</v>
+        <v>0.173071895424836</v>
       </c>
       <c r="H91">
-        <v>0.54332611912689599</v>
+        <v>0.54314370863649397</v>
       </c>
       <c r="I91">
-        <v>0.40338680926916198</v>
+        <v>0.38502673796791398</v>
       </c>
       <c r="J91">
-        <v>-8.25999000999003E-2</v>
+        <v>-3.9015984015983898E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C92">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>15</v>
@@ -4220,184 +4688,184 @@
         <v>4</v>
       </c>
       <c r="F92">
-        <v>3603.6965285301198</v>
-      </c>
-      <c r="G92">
-        <v>0.173071895424836</v>
+        <v>2893.4047431945801</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1.0267242308383001E-2</v>
       </c>
       <c r="H92">
-        <v>0.54314370863649397</v>
+        <v>0.97907792671511995</v>
       </c>
       <c r="I92">
-        <v>0.38502673796791398</v>
+        <v>0.16400002881728001</v>
       </c>
       <c r="J92">
-        <v>-3.9015984015983898E-2</v>
+        <v>0.66363630360036296</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C93">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="D93">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>4</v>
       </c>
       <c r="F93">
-        <v>3600.0325140476202</v>
+        <v>2890.3137133598302</v>
       </c>
       <c r="G93">
-        <v>0.146211003886239</v>
+        <v>1.43488388583605E-2</v>
       </c>
       <c r="H93">
-        <v>0.49956888015356599</v>
+        <v>0.97065601497031395</v>
       </c>
       <c r="I93">
-        <v>0.27435072086579998</v>
+        <v>0.14700000315343401</v>
       </c>
       <c r="J93">
-        <v>5.3452162433862402E-2</v>
+        <v>0.69242423617070703</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C94">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="D94">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>4</v>
       </c>
       <c r="F94">
-        <v>3627.3726189613299</v>
+        <v>2905.0341810703198</v>
       </c>
       <c r="G94">
-        <v>0.15613713260772</v>
+        <v>1.6410687986534798E-2</v>
       </c>
       <c r="H94">
-        <v>0.465902290081394</v>
+        <v>0.96648936170212696</v>
       </c>
       <c r="I94">
-        <v>0.277987012987013</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="J94">
-        <v>4.3730158730158598E-2</v>
+        <v>0.69545454545454499</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="D95">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E95">
         <v>4</v>
       </c>
       <c r="F95">
-        <v>3606.7494415760002</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0.14260323672088299</v>
+        <v>3600.0126199245401</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.23382548703325E-6</v>
       </c>
       <c r="H95">
-        <v>0.51226620808710299</v>
+        <v>0.99999598137482104</v>
       </c>
       <c r="I95">
-        <v>0.25636363636363602</v>
+        <v>2.8149475496687101E-2</v>
       </c>
       <c r="J95">
-        <v>0.115674603174603</v>
+        <v>0.90555113052384795</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C96">
-        <v>958</v>
+        <v>47</v>
       </c>
       <c r="D96">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E96">
         <v>4</v>
       </c>
       <c r="F96">
-        <v>3600.0520593166302</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0.15736023502098601</v>
+        <v>5.4243230342864903</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2.2289740781734598E-16</v>
       </c>
       <c r="H96">
-        <v>0.54599848231617798</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I96">
-        <v>0.19414267015706799</v>
+        <v>1.4814814814814999E-2</v>
       </c>
       <c r="J96">
-        <v>0.43928155636216099</v>
+        <v>0.95555555555555405</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>958</v>
+        <v>47</v>
       </c>
       <c r="D97">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E97">
         <v>4</v>
       </c>
       <c r="F97">
-        <v>3686.3051899433099</v>
-      </c>
-      <c r="G97">
-        <v>0.17066833241989299</v>
+        <v>2.3323133945465</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.17655213847189E-17</v>
       </c>
       <c r="H97">
-        <v>0.50761414286584206</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0.19731130017452</v>
+        <v>2.8888888888888801E-2</v>
       </c>
       <c r="J97">
-        <v>0.43006344589955903</v>
+        <v>0.89642857142857102</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>33</v>
@@ -4412,348 +4880,376 @@
         <v>4</v>
       </c>
       <c r="F98">
-        <v>3620.4303533553998</v>
-      </c>
-      <c r="G98">
-        <v>0.184501686745347</v>
+        <v>3600.0520593166302</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.15736023502098601</v>
       </c>
       <c r="H98">
-        <v>0.46774305901928998</v>
+        <v>0.54599848231617798</v>
       </c>
       <c r="I98">
-        <v>0.212925392670157</v>
+        <v>0.19414267015706799</v>
       </c>
       <c r="J98">
-        <v>0.38333058388137797</v>
+        <v>0.43928155636216099</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C99">
-        <v>122</v>
+        <v>958</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E99">
         <v>4</v>
       </c>
       <c r="F99">
-        <v>2893.4047431945801</v>
-      </c>
-      <c r="G99" s="4">
-        <v>1.0267242308383001E-2</v>
+        <v>3686.3051899433099</v>
+      </c>
+      <c r="G99">
+        <v>0.17066833241989299</v>
       </c>
       <c r="H99">
-        <v>0.97907792671511995</v>
+        <v>0.50761414286584206</v>
       </c>
       <c r="I99">
-        <v>0.16400002881728001</v>
+        <v>0.19731130017452</v>
       </c>
       <c r="J99">
-        <v>0.66363630360036296</v>
+        <v>0.43006344589955903</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C100">
-        <v>122</v>
+        <v>958</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E100">
         <v>4</v>
       </c>
       <c r="F100">
-        <v>2890.3137133598302</v>
+        <v>3620.4303533553998</v>
       </c>
       <c r="G100">
-        <v>1.43488388583605E-2</v>
+        <v>0.184501686745347</v>
       </c>
       <c r="H100">
-        <v>0.97065601497031395</v>
+        <v>0.46774305901928998</v>
       </c>
       <c r="I100">
-        <v>0.14700000315343401</v>
+        <v>0.212925392670157</v>
       </c>
       <c r="J100">
-        <v>0.69242423617070703</v>
+        <v>0.38333058388137797</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C101">
-        <v>122</v>
+        <v>625</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>2905.0341810703198</v>
+        <v>3644.4641283512101</v>
       </c>
       <c r="G101">
-        <v>1.6410687986534798E-2</v>
+        <v>0.116000000075759</v>
       </c>
       <c r="H101">
-        <v>0.96648936170212696</v>
+        <v>0.56965727068164795</v>
       </c>
       <c r="I101">
-        <v>0.14699999999999999</v>
+        <v>0.15680000025454599</v>
       </c>
       <c r="J101">
-        <v>0.69545454545454499</v>
+        <v>0.40623139144562198</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D102">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>3600.0126199245401</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1.23382548703325E-6</v>
+        <v>3654.8011954784301</v>
+      </c>
+      <c r="G102">
+        <v>0.110200000000012</v>
       </c>
       <c r="H102">
-        <v>0.99999598137482104</v>
+        <v>0.591305714498913</v>
       </c>
       <c r="I102">
-        <v>2.8149475496687101E-2</v>
+        <v>0.14720000000001099</v>
       </c>
       <c r="J102">
-        <v>0.90555113052384795</v>
+        <v>0.44295647953139</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>47</v>
+        <v>625</v>
       </c>
       <c r="D103">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>5.4243230342864903</v>
-      </c>
-      <c r="G103" s="1">
-        <v>2.2289740781734598E-16</v>
+        <v>3609.9233734130798</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0.106200000000005</v>
       </c>
       <c r="H103">
-        <v>0.999999999999999</v>
+        <v>0.60595826788212503</v>
       </c>
       <c r="I103">
-        <v>1.4814814814814999E-2</v>
+        <v>0.15893333333332799</v>
       </c>
       <c r="J103">
-        <v>0.95555555555555405</v>
+        <v>0.396844796920716</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D104">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>2.3323133945465</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1.17655213847189E-17</v>
+        <v>3600.0423597335798</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0.103803350862174</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0.64540669943655005</v>
       </c>
       <c r="I104">
-        <v>2.8888888888888801E-2</v>
+        <v>0.274415584415584</v>
       </c>
       <c r="J104">
-        <v>0.89642857142857102</v>
+        <v>6.0357142857142797E-2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>277</v>
+      </c>
+      <c r="D105">
+        <v>38</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>3676.5880657672801</v>
+      </c>
+      <c r="G105">
+        <v>0.13085076026252501</v>
+      </c>
+      <c r="H105">
+        <v>0.55176200250826901</v>
+      </c>
+      <c r="I105">
+        <v>0.30331168831168798</v>
+      </c>
+      <c r="J105">
+        <v>-4.3690476190475197E-2</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>625</v>
+        <v>277</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
       <c r="F106">
-        <v>3644.4641283512101</v>
+        <v>3613.18185448646</v>
       </c>
       <c r="G106">
-        <v>0.116000000075759</v>
+        <v>0.107394725041783</v>
       </c>
       <c r="H106">
-        <v>0.56965727068164795</v>
+        <v>0.63248519308220796</v>
       </c>
       <c r="I106">
-        <v>0.15680000025454599</v>
+        <v>0.281623376623376</v>
       </c>
       <c r="J106">
-        <v>0.40623139144562198</v>
+        <v>3.4087301587301597E-2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>625</v>
+        <v>1728</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>5</v>
       </c>
       <c r="F107">
-        <v>3654.8011954784301</v>
+        <v>3600.0758007049499</v>
       </c>
       <c r="G107">
-        <v>0.110200000000012</v>
+        <v>6.7853743286876295E-2</v>
       </c>
       <c r="H107">
-        <v>0.591305714498913</v>
+        <v>0.50919083066775905</v>
       </c>
       <c r="I107">
-        <v>0.14720000000001099</v>
+        <v>6.9056993661165494E-2</v>
       </c>
       <c r="J107">
-        <v>0.44295647953139</v>
+        <v>0.50043583385680102</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C108">
-        <v>625</v>
+        <v>1728</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
       <c r="F108">
-        <v>3609.9233734130798</v>
+        <v>3811.63042278289</v>
       </c>
       <c r="G108" s="4">
-        <v>0.106200000000005</v>
+        <v>5.5652627051874397E-2</v>
       </c>
       <c r="H108">
-        <v>0.60595826788212503</v>
+        <v>0.59715599834112099</v>
       </c>
       <c r="I108">
-        <v>0.15893333333332799</v>
+        <v>6.1142665661394299E-2</v>
       </c>
       <c r="J108">
-        <v>0.396844796920716</v>
+        <v>0.55884458802416703</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>132</v>
+        <v>1728</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="F109">
-        <v>3600.0123503684999</v>
+        <v>3669.0488229274702</v>
       </c>
       <c r="G109">
-        <v>4.7358505898080001E-2</v>
+        <v>6.7273093197356401E-2</v>
       </c>
       <c r="H109">
-        <v>0.84568803124519598</v>
+        <v>0.51333339354444096</v>
       </c>
       <c r="I109">
-        <v>0.196581200325424</v>
+        <v>6.4635447208958099E-2</v>
       </c>
       <c r="J109">
-        <v>0.30666665543966698</v>
+        <v>0.53322736349033095</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
@@ -4768,24 +5264,24 @@
         <v>5</v>
       </c>
       <c r="F110">
-        <v>3685.8653913974699</v>
-      </c>
-      <c r="G110" s="4">
-        <v>4.6406123571474001E-2</v>
+        <v>3600.0123503684999</v>
+      </c>
+      <c r="G110">
+        <v>4.7358505898080001E-2</v>
       </c>
       <c r="H110">
-        <v>0.84875404307507796</v>
+        <v>0.84568803124519598</v>
       </c>
       <c r="I110">
-        <v>0.19301993744052701</v>
+        <v>0.196581200325424</v>
       </c>
       <c r="J110">
-        <v>0.35052289396405101</v>
+        <v>0.30666665543966698</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -4800,56 +5296,56 @@
         <v>5</v>
       </c>
       <c r="F111">
-        <v>3604.6169613361299</v>
-      </c>
-      <c r="G111">
-        <v>4.6415099206195298E-2</v>
+        <v>3685.8653913974699</v>
+      </c>
+      <c r="G111" s="4">
+        <v>4.6406123571474001E-2</v>
       </c>
       <c r="H111">
-        <v>0.84888582698511705</v>
+        <v>0.84875404307507796</v>
       </c>
       <c r="I111">
-        <v>0.20071225226765901</v>
+        <v>0.19301993744052701</v>
       </c>
       <c r="J111">
-        <v>0.33725489634719003</v>
+        <v>0.35052289396405101</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>5</v>
       </c>
       <c r="F112">
-        <v>41.623150014877297</v>
-      </c>
-      <c r="G112" s="5">
-        <v>2.62104265121909E-17</v>
+        <v>3604.6169613361299</v>
+      </c>
+      <c r="G112">
+        <v>4.6415099206195298E-2</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0.84888582698511705</v>
       </c>
       <c r="I112">
-        <v>7.3080481036077699E-2</v>
+        <v>0.20071225226765901</v>
       </c>
       <c r="J112">
-        <v>0.81556200283316904</v>
+        <v>0.33725489634719003</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -4864,24 +5360,24 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>1625.9106063842701</v>
-      </c>
-      <c r="G113">
-        <v>2.1570561331444699E-3</v>
+        <v>41.623150014877297</v>
+      </c>
+      <c r="G113" s="5">
+        <v>2.62104265121909E-17</v>
       </c>
       <c r="H113">
-        <v>0.99541502825611705</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>5.6337090491567002E-2</v>
+        <v>7.3080481036077699E-2</v>
       </c>
       <c r="J113">
-        <v>0.84539366395791804</v>
+        <v>0.81556200283316904</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -4896,120 +5392,120 @@
         <v>5</v>
       </c>
       <c r="F114">
-        <v>1531.2569945335299</v>
+        <v>1625.9106063842701</v>
       </c>
       <c r="G114">
-        <v>1.08108108108108E-3</v>
+        <v>2.1570561331444699E-3</v>
       </c>
       <c r="H114">
-        <v>0.99782608695652097</v>
+        <v>0.99541502825611705</v>
       </c>
       <c r="I114">
-        <v>5.5966697502312597E-2</v>
+        <v>5.6337090491567002E-2</v>
       </c>
       <c r="J114">
-        <v>0.87036885692492005</v>
+        <v>0.84539366395791804</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="D115">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>5</v>
       </c>
       <c r="F115">
-        <v>4.01720008850097</v>
-      </c>
-      <c r="G115" s="1">
-        <v>3.0014150536432002E-17</v>
+        <v>1531.2569945335299</v>
+      </c>
+      <c r="G115">
+        <v>1.08108108108108E-3</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0.99782608695652097</v>
       </c>
       <c r="I115">
-        <v>2.4E-2</v>
+        <v>5.5966697502312597E-2</v>
       </c>
       <c r="J115">
-        <v>0.95</v>
+        <v>0.87036885692492005</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C116">
-        <v>124</v>
+        <v>3196</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E116">
         <v>5</v>
       </c>
       <c r="F116">
-        <v>18.148175811767501</v>
-      </c>
-      <c r="G116" s="1">
-        <v>1.9109293272336E-16</v>
+        <v>3600.5551868438702</v>
+      </c>
+      <c r="G116" s="4">
+        <v>8.9094345327166494E-2</v>
       </c>
       <c r="H116">
-        <v>0.999999999999999</v>
+        <v>0.81380311074452505</v>
       </c>
       <c r="I116">
-        <v>8.00000000000008E-3</v>
+        <v>9.2619327073552402E-2</v>
       </c>
       <c r="J116">
-        <v>0.98333333333333295</v>
+        <v>0.80524547936521196</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C117">
-        <v>124</v>
+        <v>3196</v>
       </c>
       <c r="D117">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E117">
         <v>5</v>
       </c>
       <c r="F117">
-        <v>15.6128136634826</v>
-      </c>
-      <c r="G117" s="1">
-        <v>2.1965660293504699E-17</v>
+        <v>4159.3588869571604</v>
+      </c>
+      <c r="G117">
+        <v>0.112491959535426</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0.76429489437100395</v>
       </c>
       <c r="I117">
-        <v>1.6E-2</v>
+        <v>0.114485524256652</v>
       </c>
       <c r="J117">
-        <v>0.95555555555555505</v>
+        <v>0.761578611017244</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
         <v>37</v>
@@ -5024,184 +5520,184 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>3600.5551868438702</v>
-      </c>
-      <c r="G118" s="4">
-        <v>8.9094345327166494E-2</v>
+        <v>3690.81418566703</v>
+      </c>
+      <c r="G118">
+        <v>0.35561369783031299</v>
       </c>
       <c r="H118">
-        <v>0.81380311074452505</v>
+        <v>0.25661471174655598</v>
       </c>
       <c r="I118">
-        <v>9.2619327073552402E-2</v>
+        <v>0.36227650625977997</v>
       </c>
       <c r="J118">
-        <v>0.80524547936521196</v>
+        <v>0.23785038304494899</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>3196</v>
+        <v>124</v>
       </c>
       <c r="D119">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>5</v>
       </c>
       <c r="F119">
-        <v>4159.3588869571604</v>
-      </c>
-      <c r="G119">
-        <v>0.112491959535426</v>
+        <v>4.01720008850097</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3.0014150536432002E-17</v>
       </c>
       <c r="H119">
-        <v>0.76429489437100395</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0.114485524256652</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J119">
-        <v>0.761578611017244</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C120">
-        <v>3196</v>
+        <v>124</v>
       </c>
       <c r="D120">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>5</v>
       </c>
       <c r="F120">
-        <v>3690.81418566703</v>
-      </c>
-      <c r="G120">
-        <v>0.35561369783031299</v>
+        <v>18.148175811767501</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1.9109293272336E-16</v>
       </c>
       <c r="H120">
-        <v>0.25661471174655598</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I120">
-        <v>0.36227650625977997</v>
+        <v>8.00000000000008E-3</v>
       </c>
       <c r="J120">
-        <v>0.23785038304494899</v>
+        <v>0.98333333333333295</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D121">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>5</v>
       </c>
       <c r="F121">
-        <v>3600.0308247566199</v>
+        <v>15.6128136634826</v>
       </c>
       <c r="G121" s="1">
-        <v>5.9487688449748498E-8</v>
+        <v>2.1965660293504699E-17</v>
       </c>
       <c r="H121">
-        <v>0.99999982736025494</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>6.2963013169153703E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J121">
-        <v>0.786110926424478</v>
+        <v>0.95555555555555505</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="D122">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>5</v>
       </c>
       <c r="F122">
-        <v>16.8882508277893</v>
-      </c>
-      <c r="G122" s="1">
-        <v>1.29878721970373E-16</v>
+        <v>3600.0325057506502</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0.10058824502354</v>
       </c>
       <c r="H122">
-        <v>0.999999999999999</v>
+        <v>0.73218117316607201</v>
       </c>
       <c r="I122">
-        <v>2.8888888888888999E-2</v>
+        <v>0.39679144385026699</v>
       </c>
       <c r="J122">
-        <v>0.89642857142857102</v>
+        <v>-3.3691308691308597E-2</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="D123">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E123">
         <v>5</v>
       </c>
       <c r="F123">
-        <v>4.4697287559509196</v>
-      </c>
-      <c r="G123" s="1">
-        <v>2.9374321846412299E-18</v>
+        <v>3620.5312143802598</v>
+      </c>
+      <c r="G123">
+        <v>0.118322445272331</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0.68727513276580399</v>
       </c>
       <c r="I123">
-        <v>6.5925925925925902E-2</v>
+        <v>0.39180034964349397</v>
       </c>
       <c r="J123">
-        <v>0.79365079365079305</v>
+        <v>-1.8601385912005199E-2</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
@@ -5216,30 +5712,30 @@
         <v>5</v>
       </c>
       <c r="F124">
-        <v>3600.0325057506502</v>
-      </c>
-      <c r="G124" s="4">
-        <v>0.10058824502354</v>
+        <v>3606.7778844356499</v>
+      </c>
+      <c r="G124">
+        <v>0.121328977187122</v>
       </c>
       <c r="H124">
-        <v>0.73218117316607201</v>
+        <v>0.67943102020799795</v>
       </c>
       <c r="I124">
-        <v>0.39679144385026699</v>
+        <v>0.39625668710635797</v>
       </c>
       <c r="J124">
-        <v>-3.3691308691308597E-2</v>
+        <v>-4.0005003085804902E-2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C125">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D125">
         <v>15</v>
@@ -5248,30 +5744,30 @@
         <v>5</v>
       </c>
       <c r="F125">
-        <v>3620.5312143802598</v>
+        <v>1229.14404959678</v>
       </c>
       <c r="G125">
-        <v>0.118322445272331</v>
+        <v>2.04081673632657E-3</v>
       </c>
       <c r="H125">
-        <v>0.68727513276580399</v>
+        <v>0.99583333249666595</v>
       </c>
       <c r="I125">
-        <v>0.39180034964349397</v>
+        <v>9.7999998326666504E-2</v>
       </c>
       <c r="J125">
-        <v>-1.8601385912005199E-2</v>
+        <v>0.79696970031636305</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C126">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D126">
         <v>15</v>
@@ -5280,152 +5776,152 @@
         <v>5</v>
       </c>
       <c r="F126">
-        <v>3606.7778844356499</v>
-      </c>
-      <c r="G126">
-        <v>0.121328977187122</v>
+        <v>1497.8961339473699</v>
+      </c>
+      <c r="G126" s="4">
+        <v>2.0408163265306098E-3</v>
       </c>
       <c r="H126">
-        <v>0.67943102020799795</v>
+        <v>0.99583333333333302</v>
       </c>
       <c r="I126">
-        <v>0.39625668710635797</v>
+        <v>0.156</v>
       </c>
       <c r="J126">
-        <v>-4.0005003085804902E-2</v>
+        <v>0.67878787878787805</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C127">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="D127">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>5</v>
       </c>
       <c r="F127">
-        <v>3600.0423597335798</v>
-      </c>
-      <c r="G127" s="4">
-        <v>0.103803350862174</v>
+        <v>1566.8069158553999</v>
+      </c>
+      <c r="G127">
+        <v>2.0408199229341702E-3</v>
       </c>
       <c r="H127">
-        <v>0.64540669943655005</v>
+        <v>0.99583332599067598</v>
       </c>
       <c r="I127">
-        <v>0.274415584415584</v>
+        <v>9.9000002097901996E-2</v>
       </c>
       <c r="J127">
-        <v>6.0357142857142797E-2</v>
+        <v>0.79999999580419501</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C128">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="D128">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E128">
         <v>5</v>
       </c>
       <c r="F128">
-        <v>3676.5880657672801</v>
-      </c>
-      <c r="G128">
-        <v>0.13085076026252501</v>
+        <v>3600.0308247566199</v>
+      </c>
+      <c r="G128" s="1">
+        <v>5.9487688449748498E-8</v>
       </c>
       <c r="H128">
-        <v>0.55176200250826901</v>
+        <v>0.99999982736025494</v>
       </c>
       <c r="I128">
-        <v>0.30331168831168798</v>
+        <v>6.2963013169153703E-2</v>
       </c>
       <c r="J128">
-        <v>-4.3690476190475197E-2</v>
+        <v>0.786110926424478</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C129">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="D129">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E129">
         <v>5</v>
       </c>
       <c r="F129">
-        <v>3613.18185448646</v>
-      </c>
-      <c r="G129">
-        <v>0.107394725041783</v>
+        <v>16.8882508277893</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1.29878721970373E-16</v>
       </c>
       <c r="H129">
-        <v>0.63248519308220796</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="I129">
-        <v>0.281623376623376</v>
+        <v>2.8888888888888999E-2</v>
       </c>
       <c r="J129">
-        <v>3.4087301587301597E-2</v>
+        <v>0.89642857142857102</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C130">
-        <v>958</v>
+        <v>47</v>
       </c>
       <c r="D130">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E130">
         <v>5</v>
       </c>
       <c r="F130">
-        <v>3600.0809388160701</v>
-      </c>
-      <c r="G130">
-        <v>0.13909776995584799</v>
+        <v>4.4697287559509196</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2.9374321846412299E-18</v>
       </c>
       <c r="H130">
-        <v>0.59784472663724697</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0.17957569808027901</v>
+        <v>6.5925925925925902E-2</v>
       </c>
       <c r="J130">
-        <v>0.48285497647728898</v>
+        <v>0.79365079365079305</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>33</v>
@@ -5440,24 +5936,24 @@
         <v>5</v>
       </c>
       <c r="F131">
-        <v>3778.8654988288799</v>
-      </c>
-      <c r="G131" s="4">
-        <v>0.124993447053902</v>
+        <v>3600.0809388160701</v>
+      </c>
+      <c r="G131">
+        <v>0.13909776995584799</v>
       </c>
       <c r="H131">
-        <v>0.63951858675509599</v>
+        <v>0.59784472663724697</v>
       </c>
       <c r="I131">
-        <v>0.17541993891798199</v>
+        <v>0.17957569808027901</v>
       </c>
       <c r="J131">
-        <v>0.49016827892499398</v>
+        <v>0.48285497647728898</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>33</v>
@@ -5472,233 +5968,76 @@
         <v>5</v>
       </c>
       <c r="F132">
-        <v>3637.5662843227301</v>
-      </c>
-      <c r="G132">
-        <v>0.152140685795595</v>
+        <v>3778.8654988288799</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0.124993447053902</v>
       </c>
       <c r="H132">
-        <v>0.56168697171202497</v>
+        <v>0.63951858675509599</v>
       </c>
       <c r="I132">
-        <v>0.21302901396160501</v>
+        <v>0.17541993891798199</v>
       </c>
       <c r="J132">
-        <v>0.383250634538774</v>
+        <v>0.49016827892499398</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C133">
-        <v>122</v>
+        <v>958</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E133">
         <v>5</v>
       </c>
       <c r="F133">
-        <v>1229.14404959678</v>
+        <v>3637.5662843227301</v>
       </c>
       <c r="G133">
-        <v>2.04081673632657E-3</v>
+        <v>0.152140685795595</v>
       </c>
       <c r="H133">
-        <v>0.99583333249666595</v>
+        <v>0.56168697171202497</v>
       </c>
       <c r="I133">
-        <v>9.7999998326666504E-2</v>
+        <v>0.21302901396160501</v>
       </c>
       <c r="J133">
-        <v>0.79696970031636305</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" t="s">
-        <v>36</v>
-      </c>
-      <c r="C134">
-        <v>122</v>
-      </c>
-      <c r="D134">
-        <v>15</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-      <c r="F134">
-        <v>1497.8961339473699</v>
-      </c>
-      <c r="G134" s="4">
-        <v>2.0408163265306098E-3</v>
-      </c>
-      <c r="H134">
-        <v>0.99583333333333302</v>
-      </c>
-      <c r="I134">
-        <v>0.156</v>
-      </c>
-      <c r="J134">
-        <v>0.67878787878787805</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>36</v>
-      </c>
-      <c r="C135">
-        <v>122</v>
-      </c>
-      <c r="D135">
-        <v>15</v>
-      </c>
-      <c r="E135">
-        <v>5</v>
-      </c>
-      <c r="F135">
-        <v>1566.8069158553999</v>
-      </c>
-      <c r="G135">
-        <v>2.0408199229341702E-3</v>
-      </c>
-      <c r="H135">
-        <v>0.99583332599067598</v>
-      </c>
-      <c r="I135">
-        <v>9.9000002097901996E-2</v>
-      </c>
-      <c r="J135">
-        <v>0.79999999580419501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136">
-        <v>1728</v>
-      </c>
-      <c r="D136">
-        <v>19</v>
-      </c>
-      <c r="E136">
-        <v>5</v>
-      </c>
-      <c r="F136">
-        <v>3600.0758007049499</v>
-      </c>
-      <c r="G136">
-        <v>6.7853743286876295E-2</v>
-      </c>
-      <c r="H136">
-        <v>0.50919083066775905</v>
-      </c>
-      <c r="I136">
-        <v>6.9056993661165494E-2</v>
-      </c>
-      <c r="J136">
-        <v>0.50043583385680102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137">
-        <v>1728</v>
-      </c>
-      <c r="D137">
-        <v>19</v>
-      </c>
-      <c r="E137">
-        <v>5</v>
-      </c>
-      <c r="F137">
-        <v>3811.63042278289</v>
-      </c>
-      <c r="G137" s="4">
-        <v>5.5652627051874397E-2</v>
-      </c>
-      <c r="H137">
-        <v>0.59715599834112099</v>
-      </c>
-      <c r="I137">
-        <v>6.1142665661394299E-2</v>
-      </c>
-      <c r="J137">
-        <v>0.55884458802416703</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138">
-        <v>1728</v>
-      </c>
-      <c r="D138">
-        <v>19</v>
-      </c>
-      <c r="E138">
-        <v>5</v>
-      </c>
-      <c r="F138">
-        <v>3669.0488229274702</v>
-      </c>
-      <c r="G138">
-        <v>6.7273093197356401E-2</v>
-      </c>
-      <c r="H138">
-        <v>0.51333339354444096</v>
-      </c>
-      <c r="I138">
-        <v>6.4635447208958099E-2</v>
-      </c>
-      <c r="J138">
-        <v>0.53322736349033095</v>
+        <v>0.383250634538774</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J138">
-    <sortCondition ref="E2:E138"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J136">
+    <sortCondition ref="E2:E136"/>
+    <sortCondition ref="B2:B136"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2084D2-2D66-C641-8F70-6115B968D845}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -5779,22 +6118,22 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>958</v>
+        <v>625</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="F3" s="3">
-        <v>0.28862238350223401</v>
+        <v>0.16839999999999999</v>
       </c>
       <c r="H3" s="3">
         <v>0.16709685865474899</v>
@@ -5835,22 +6174,22 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>0.220231543760955</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>0.220231543760955</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>0.220231543760955</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -5891,22 +6230,22 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>169</v>
+        <v>1728</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.32692810457516303</v>
+        <v>8.6612923310029899E-2</v>
       </c>
       <c r="H5" s="3">
         <v>0.135903111768816</v>
@@ -5947,22 +6286,22 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="E6" s="3">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="F6" s="3">
-        <v>6.5579633915421806E-2</v>
+        <v>0.18843665768194001</v>
       </c>
       <c r="H6" s="3">
         <v>0.86604609929078002</v>
@@ -6003,22 +6342,22 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>0.167313131313131</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.167313131313131</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.167313131313131</v>
+        <v>3.0183086312118499E-2</v>
       </c>
       <c r="H7" s="3">
         <v>0.64466873706004102</v>
@@ -6059,22 +6398,22 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>132</v>
+        <v>3196</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
-        <v>0.18843665768194001</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="E8" s="3">
-        <v>0.18843665768194001</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="F8" s="3">
-        <v>0.18843665768194001</v>
+        <v>0.13078826235997601</v>
       </c>
       <c r="H8" s="3">
         <v>0.38503463897708301</v>
@@ -6115,22 +6454,22 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3">
-        <v>3.0183086312118499E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="E9" s="3">
-        <v>3.0183086312118499E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="F9" s="3">
-        <v>3.0183086312118499E-2</v>
+        <v>0.167313131313131</v>
       </c>
       <c r="H9" s="3">
         <v>0.93508591531989405</v>
@@ -6171,22 +6510,22 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="E10" s="3">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="F10" s="3">
-        <v>0.220231543760955</v>
+        <v>0.32692810457516303</v>
       </c>
       <c r="H10" s="3">
         <v>0.246868753137409</v>
@@ -6227,22 +6566,22 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>625</v>
+        <v>122</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.16839999999999999</v>
+        <v>6.5579633915421806E-2</v>
       </c>
       <c r="H11" s="3">
         <v>0.37520002794653601</v>
@@ -6283,22 +6622,22 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>1728</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
-        <v>8.6612923310029899E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>8.6612923310029899E-2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>8.6612923310029899E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0.37369126317794699</v>
@@ -6339,22 +6678,22 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>3196</v>
+        <v>958</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3">
-        <v>0.13078826235997601</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="E13" s="3">
-        <v>0.13078826235997601</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="F13" s="3">
-        <v>0.13078826235997601</v>
+        <v>0.28862238350223401</v>
       </c>
       <c r="H13" s="3">
         <v>0.72626560862035805</v>
@@ -6472,411 +6811,1764 @@
         <v>441.11499618616909</v>
       </c>
     </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>625</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.1484</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.44936708737826597</v>
+      </c>
+      <c r="I17">
+        <v>0.44780360158138299</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.46489465899612098</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.17359999999999901</v>
+      </c>
+      <c r="M17">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.18</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.34170238153160298</v>
+      </c>
+      <c r="Q17">
+        <v>0.31142400715455598</v>
+      </c>
+      <c r="R17">
+        <v>0.31666820739875701</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>277</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.185928009457421</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.18773388773388699</v>
+      </c>
+      <c r="H18">
+        <v>0.36415511519989102</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.37011804116281699</v>
+      </c>
+      <c r="J18">
+        <v>0.358040665801859</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.263636363636363</v>
+      </c>
+      <c r="M18">
+        <v>0.281623376623376</v>
+      </c>
+      <c r="N18">
+        <v>0.29584415584415502</v>
+      </c>
+      <c r="P18" s="3">
+        <v>9.3015873015872996E-2</v>
+      </c>
+      <c r="Q18">
+        <v>3.3055555555555498E-2</v>
+      </c>
+      <c r="R18">
+        <v>-2.1111111111111001E-2</v>
+      </c>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1728</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7.65338116101415E-2</v>
+      </c>
+      <c r="E19" s="11">
+        <v>7.6485502583051299E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7.6330255263503899E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.44666520496729301</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.44696249830403201</v>
+      </c>
+      <c r="J19">
+        <v>0.44595851075182702</v>
+      </c>
+      <c r="L19">
+        <v>8.0636675881712305E-2</v>
+      </c>
+      <c r="M19">
+        <v>8.0828237133842407E-2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>8.0250760939376095E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.41707596870422903</v>
+      </c>
+      <c r="Q19">
+        <v>0.41475397323937002</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.41972386924375499</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.61075758925678703</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.61075758925678703</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.61075758925678703</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.26096866096866</v>
+      </c>
+      <c r="M20">
+        <v>0.26467236467236399</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.26096866096866</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.10503267973856199</v>
+      </c>
+      <c r="Q20">
+        <v>8.83660130718954E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.10503267973856199</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>232</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.96068197335003602</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.96068197335003602</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.96068197335003602</v>
+      </c>
+      <c r="L21">
+        <v>7.3450508788159105E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4.7548566142460599E-2</v>
+      </c>
+      <c r="N21">
+        <v>7.3450508788159105E-2</v>
+      </c>
+      <c r="P21">
+        <v>0.80795330718099501</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.88097962297046895</v>
+      </c>
+      <c r="R21">
+        <v>0.80597962297046899</v>
+      </c>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>3196</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.21041193495654301</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8.1506411256833999E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.10853789315653201</v>
+      </c>
+      <c r="H22">
+        <v>0.55905768905277198</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.82924130745184499</v>
+      </c>
+      <c r="J22">
+        <v>0.71001726635296403</v>
+      </c>
+      <c r="L22">
+        <v>0.211225058685446</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8.2919600938967095E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.143274647887324</v>
+      </c>
+      <c r="P22">
+        <v>0.55985604540520495</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.82724030609040899</v>
+      </c>
+      <c r="R22">
+        <v>0.70007306777189304</v>
+      </c>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7.0585858585858599E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>7.0585858585858696E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>7.0585858585859002E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.84966430050280894</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.84966430050280894</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.84966430050280795</v>
+      </c>
+      <c r="L23">
+        <v>0.17733333333333301</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.169333333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.18533333333333299</v>
+      </c>
+      <c r="P23">
+        <v>0.54222222222222205</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.56444444444444397</v>
+      </c>
+      <c r="R23">
+        <v>0.51999999999999902</v>
+      </c>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>169</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.91214539007092199</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.91214539007092199</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.91214539007092199</v>
+      </c>
+      <c r="L25" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.09</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.84848484848484795</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.84848484848484795</v>
+      </c>
+      <c r="R25">
+        <v>0.81212121212121202</v>
+      </c>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.33320729199634E-15</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9.6890235479452603E-7</v>
+      </c>
+      <c r="F26" s="9">
+        <v>6.4907775692879001E-17</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="I26">
+        <v>0.99999704895972097</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.2982207901283401E-15</v>
+      </c>
+      <c r="M26">
+        <v>1.4816050024250901E-2</v>
+      </c>
+      <c r="N26" s="10">
+        <v>5.9211894646675002E-17</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="Q26">
+        <v>0.95555148660595202</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>958</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.22938749527677199</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.223383634995795</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.217819894403954</v>
+      </c>
+      <c r="H27">
+        <v>0.33833680663145899</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.35535391495431801</v>
+      </c>
+      <c r="J27">
+        <v>0.34266405284879897</v>
+      </c>
+      <c r="L27">
+        <v>0.26308355148342</v>
+      </c>
+      <c r="M27">
+        <v>0.26729384816753898</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.26101112565445</v>
+      </c>
+      <c r="P27">
+        <v>0.23943971612392601</v>
+      </c>
+      <c r="Q27">
+        <v>0.22810953667001799</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.24677643108787201</v>
+      </c>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>AVERAGE(D17:D27)</f>
+        <v>0.12075161092919937</v>
+      </c>
+      <c r="E29" s="3">
+        <f>AVERAGE(E17:E27)</f>
+        <v>0.10835464012405813</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:R29" si="0">AVERAGE(F17:F27)</f>
+        <v>0.11020258177074466</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.62664976454142485</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65318562901273758</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.64155824195250599</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0.17999044882643805</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16969056012271436</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.17928127070265293</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>0.44177688906092688</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45974295741365945</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>0.43727515604401312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>625</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.12680000000399999</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.125800000000024</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.52945614877640701</v>
+      </c>
+      <c r="I31">
+        <v>0.51334892894336204</v>
+      </c>
+      <c r="J31">
+        <v>0.52581353557814903</v>
+      </c>
+      <c r="L31">
+        <v>0.16880000001600001</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.16400000000001699</v>
+      </c>
+      <c r="P31">
+        <v>0.358857483378487</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.40385633657929598</v>
+      </c>
+      <c r="R31">
+        <v>0.37701691098269502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>277</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.14260323672088299</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.146211003886239</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.15613713260772</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.51226620808710299</v>
+      </c>
+      <c r="I32">
+        <v>0.49956888015356599</v>
+      </c>
+      <c r="J32">
+        <v>0.465902290081394</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="M32">
+        <v>0.27435072086579998</v>
+      </c>
+      <c r="N32">
+        <v>0.277987012987013</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.115674603174603</v>
+      </c>
+      <c r="Q32">
+        <v>5.3452162433862402E-2</v>
+      </c>
+      <c r="R32">
+        <v>4.3730158730158598E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>1728</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8">
+        <v>6.7852836402613206E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6.9444313643829705E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>7.0120744663596496E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.50929150259851397</v>
+      </c>
+      <c r="I33">
+        <v>0.49793839618034602</v>
+      </c>
+      <c r="J33">
+        <v>0.49314611823857801</v>
+      </c>
+      <c r="L33" s="3">
+        <v>7.29217279606824E-2</v>
+      </c>
+      <c r="M33">
+        <v>7.7360029041356193E-2</v>
+      </c>
+      <c r="N33">
+        <v>7.5422635503057306E-2</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.472445216920371</v>
+      </c>
+      <c r="Q33">
+        <v>0.438249840335731</v>
+      </c>
+      <c r="R33">
+        <v>0.45480507630036698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6.5354896675651905E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.80566015194712604</v>
+      </c>
+      <c r="I34">
+        <v>0.78713660122248597</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.80566015194712604</v>
+      </c>
+      <c r="L34">
+        <v>0.21552706552706499</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.19330484330484299</v>
+      </c>
+      <c r="N34">
+        <v>0.21182336182336101</v>
+      </c>
+      <c r="P34">
+        <v>0.26633986928104503</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.35163398692810399</v>
+      </c>
+      <c r="R34">
+        <v>0.27810457516339798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>232</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3.2374309793664702E-3</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3.2374445255828701E-3</v>
+      </c>
+      <c r="F35" s="8">
+        <v>3.2374825433733301E-3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.99303549602135199</v>
+      </c>
+      <c r="I35">
+        <v>0.99303546616009197</v>
+      </c>
+      <c r="J35">
+        <v>0.99303538161398597</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3.0249768732654898E-2</v>
+      </c>
+      <c r="M35">
+        <v>3.4597613846110403E-2</v>
+      </c>
+      <c r="N35">
+        <v>4.3200813164251298E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.92620409719952002</v>
+      </c>
+      <c r="Q35">
+        <v>0.91467523542204898</v>
+      </c>
+      <c r="R35">
+        <v>0.89265130519959202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>3196</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.29388432013013999</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.13868511551645901</v>
+      </c>
+      <c r="F36" s="8">
+        <v>9.5987540416575007E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.38489680510815499</v>
+      </c>
+      <c r="I36">
+        <v>0.70980040981558601</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.79913070048466395</v>
+      </c>
+      <c r="L36">
+        <v>0.29755330594679102</v>
+      </c>
+      <c r="M36">
+        <v>0.14300176056337999</v>
+      </c>
+      <c r="N36" s="3">
+        <v>9.8520148669842295E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.37692434957781401</v>
+      </c>
+      <c r="Q36">
+        <v>0.70061278951815398</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.79375184362280504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1.2560098864446201E-17</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.4318512705468601E-17</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4.1852043716172502E-16</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="L37">
+        <v>8.0000000000000192E-3</v>
+      </c>
+      <c r="M37" s="10">
+        <v>2.1612341546036299E-17</v>
+      </c>
+      <c r="N37">
+        <v>8.0000000000002292E-3</v>
+      </c>
+      <c r="P37">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0.97499999999999898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>169</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.173071895424836</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.17014161661219801</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.173093681917211</v>
+      </c>
+      <c r="H38">
+        <v>0.54314370863649397</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.55280323154520095</v>
+      </c>
+      <c r="J38">
+        <v>0.54332611912689599</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.38502673796791398</v>
+      </c>
+      <c r="M38">
+        <v>0.39073084006238701</v>
+      </c>
+      <c r="N38">
+        <v>0.40338680926916198</v>
+      </c>
+      <c r="P38" s="3">
+        <v>-3.9015984015983898E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-7.2917088686311499E-2</v>
+      </c>
+      <c r="R38">
+        <v>-8.25999000999003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.6410687986534798E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1.0267242308383001E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1.43488388583605E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.96648936170212696</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.97907792671511995</v>
+      </c>
+      <c r="J39">
+        <v>0.97065601497031395</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.16400002881728001</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.14700000315343401</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.69545454545454499</v>
+      </c>
+      <c r="Q39">
+        <v>0.66363630360036296</v>
+      </c>
+      <c r="R39">
+        <v>0.69242423617070703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1.17655213847189E-17</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1.23382548703325E-6</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2.2289740781734598E-16</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.99999598137482104</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="L40">
+        <v>2.8888888888888801E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.8149475496687101E-2</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.4814814814814999E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.89642857142857102</v>
+      </c>
+      <c r="Q40">
+        <v>0.90555113052384795</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.95555555555555405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>958</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.184501686745347</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.15736023502098601</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.17066833241989299</v>
+      </c>
+      <c r="H41">
+        <v>0.46774305901928998</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.54599848231617798</v>
+      </c>
+      <c r="J41">
+        <v>0.50761414286584206</v>
+      </c>
+      <c r="L41">
+        <v>0.212925392670157</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.19414267015706799</v>
+      </c>
+      <c r="N41">
+        <v>0.19731130017452</v>
+      </c>
+      <c r="P41">
+        <v>0.38333058388137797</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.43928155636216099</v>
+      </c>
+      <c r="R41">
+        <v>0.43006344589955903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f>AVERAGE(D31:D41)</f>
+        <v>9.7093605412089432E-2</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(E31:E41)</f>
+        <v>8.108210018316514E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <f>AVERAGE(F31:F41)</f>
+        <v>7.9005574415092469E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="F43:R43" si="1">AVERAGE(H31:H41)</f>
+        <v>0.70108931289968812</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0.73442766403879611</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.73675313226426797</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>0.16575059309761719</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0.15073072565044654</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14922426359631571</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>0.49342212148003189</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>0.52709384118338698</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52822756432044848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>625</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.106200000000005</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.116000000075759</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.110200000000012</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.60595826788212503</v>
+      </c>
+      <c r="I45">
+        <v>0.56965727068164795</v>
+      </c>
+      <c r="J45">
+        <v>0.591305714498913</v>
+      </c>
+      <c r="L45">
+        <v>0.15893333333332799</v>
+      </c>
+      <c r="M45">
+        <v>0.15680000025454599</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.14720000000001099</v>
+      </c>
+      <c r="P45">
+        <v>0.396844796920716</v>
+      </c>
+      <c r="Q45">
+        <v>0.40623139144562198</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.44295647953139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>277</v>
+      </c>
+      <c r="C46">
+        <v>38</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.107394725041783</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.103803350862174</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.13085076026252501</v>
+      </c>
+      <c r="H46">
+        <v>0.63248519308220796</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.64540669943655005</v>
+      </c>
+      <c r="J46">
+        <v>0.55176200250826901</v>
+      </c>
+      <c r="L46">
+        <v>0.281623376623376</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.274415584415584</v>
+      </c>
+      <c r="N46">
+        <v>0.30331168831168798</v>
+      </c>
+      <c r="P46">
+        <v>3.4087301587301597E-2</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>6.0357142857142797E-2</v>
+      </c>
+      <c r="R46">
+        <v>-4.3690476190475197E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>1728</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6">
+        <v>6.7273093197356401E-2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>6.7853743286876295E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5.5652627051874397E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.51333339354444096</v>
+      </c>
+      <c r="I47">
+        <v>0.50919083066775905</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.59715599834112099</v>
+      </c>
+      <c r="L47">
+        <v>6.4635447208958099E-2</v>
+      </c>
+      <c r="M47">
+        <v>6.9056993661165494E-2</v>
+      </c>
+      <c r="N47" s="3">
+        <v>6.1142665661394299E-2</v>
+      </c>
+      <c r="P47">
+        <v>0.53322736349033095</v>
+      </c>
+      <c r="Q47">
+        <v>0.50043583385680102</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.55884458802416703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>132</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" s="11">
+        <v>4.6415099206195298E-2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4.7358505898080001E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>4.6406123571474001E-2</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.84888582698511705</v>
+      </c>
+      <c r="I48">
+        <v>0.84568803124519598</v>
+      </c>
+      <c r="J48">
+        <v>0.84875404307507796</v>
+      </c>
+      <c r="L48">
+        <v>0.20071225226765901</v>
+      </c>
+      <c r="M48">
+        <v>0.196581200325424</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.19301993744052701</v>
+      </c>
+      <c r="P48">
+        <v>0.33725489634719003</v>
+      </c>
+      <c r="Q48">
+        <v>0.30666665543966698</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.35052289396405101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>232</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1.08108108108108E-3</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2.62104265121909E-17</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2.1570561331444699E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.99782608695652097</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.99541502825611705</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5.5966697502312597E-2</v>
+      </c>
+      <c r="M49">
+        <v>7.3080481036077699E-2</v>
+      </c>
+      <c r="N49">
+        <v>5.6337090491567002E-2</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0.87036885692492005</v>
+      </c>
+      <c r="Q49">
+        <v>0.81556200283316904</v>
+      </c>
+      <c r="R49">
+        <v>0.84539366395791804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>3196</v>
+      </c>
+      <c r="C50">
+        <v>38</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.35561369783031299</v>
+      </c>
+      <c r="E50" s="8">
+        <v>8.9094345327166494E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.112491959535426</v>
+      </c>
+      <c r="H50">
+        <v>0.25661471174655598</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.81380311074452505</v>
+      </c>
+      <c r="J50">
+        <v>0.76429489437100395</v>
+      </c>
+      <c r="L50">
+        <v>0.36227650625977997</v>
+      </c>
+      <c r="M50" s="3">
+        <v>9.2619327073552402E-2</v>
+      </c>
+      <c r="N50">
+        <v>0.114485524256652</v>
+      </c>
+      <c r="P50">
+        <v>0.23785038304494899</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0.80524547936521196</v>
+      </c>
+      <c r="R50">
+        <v>0.761578611017244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>124</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" s="9">
+        <v>2.1965660293504699E-17</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3.0014150536432002E-17</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.9109293272336E-16</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="L51">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M51">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N51" s="3">
+        <v>8.00000000000008E-3</v>
+      </c>
+      <c r="P51">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="Q51">
+        <v>0.95</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>169</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.121328977187122</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.10058824502354</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.118322445272331</v>
+      </c>
+      <c r="H52">
+        <v>0.67943102020799795</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.73218117316607201</v>
+      </c>
+      <c r="J52">
+        <v>0.68727513276580399</v>
+      </c>
+      <c r="L52">
+        <v>0.39625668710635797</v>
+      </c>
+      <c r="M52">
+        <v>0.39679144385026699</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.39180034964349397</v>
+      </c>
+      <c r="P52">
+        <v>-4.0005003085804902E-2</v>
+      </c>
+      <c r="Q52">
+        <v>-3.3691308691308597E-2</v>
+      </c>
+      <c r="R52" s="3">
+        <v>-1.8601385912005199E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>122</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.0408199229341702E-3</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2.04081673632657E-3</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2.0408163265306098E-3</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.99583332599067598</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.99583333249666595</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="L53">
+        <v>9.9000002097901996E-2</v>
+      </c>
+      <c r="M53" s="3">
+        <v>9.7999998326666504E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.156</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0.79999999580419501</v>
+      </c>
+      <c r="Q53">
+        <v>0.79696970031636305</v>
+      </c>
+      <c r="R53">
+        <v>0.67878787878787805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>45</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2.9374321846412299E-18</v>
+      </c>
+      <c r="E54" s="7">
+        <v>5.9487688449748498E-8</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1.29878721970373E-16</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0.99999982736025494</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="L54">
+        <v>6.5925925925925902E-2</v>
+      </c>
+      <c r="M54">
+        <v>6.2963013169153703E-2</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2.8888888888888999E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="Q54">
+        <v>0.786110926424478</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>958</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.152140685795595</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.13909776995584799</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.124993447053902</v>
+      </c>
+      <c r="H55">
+        <v>0.56168697171202497</v>
+      </c>
+      <c r="I55">
+        <v>0.59784472663724697</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.63951858675509599</v>
+      </c>
+      <c r="L55">
+        <v>0.21302901396160501</v>
+      </c>
+      <c r="M55">
+        <v>0.17957569808027901</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.17541993891798199</v>
+      </c>
+      <c r="P55">
+        <v>0.383250634538774</v>
+      </c>
+      <c r="Q55">
+        <v>0.48285497647728898</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.49016827892499398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f>AVERAGE(D45:D55)</f>
+        <v>8.7226198114762274E-2</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E45:E55)</f>
+        <v>6.0530621513950812E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:R57" si="2">AVERAGE(F45:F55)</f>
+        <v>6.3919566837019992E-2</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73564134528251512</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.79178227294871983</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.78830133944588487</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0.17403265838974588</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="2"/>
+        <v>0.14762579456297414</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>0.14869146214656404</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>0.48200777952535634</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>0.53424934548403968</v>
+      </c>
+      <c r="R57" s="3">
+        <f t="shared" si="2"/>
+        <v>0.54052022153336965</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EBF45-E1AD-7548-86AF-F6B49A0EF3E6}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>124</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.77993779182433998</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.167313131313131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>124</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.37499208450317</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.167313131313131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>124</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.4145691871643</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.167313131313131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>132</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.5107397556304898</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.18843665768194001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>132</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.98078293800354</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.18843665768194001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>132</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.5291576385498</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.18843665768194001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>232</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0118609905242899</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.0183086312118499E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>232</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.5448903560638401</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.01830863121186E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>232</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.8091198444366401</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3.0183086312118499E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>277</v>
-      </c>
-      <c r="D11">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42.659689950942898</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.220231543760955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>277</v>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2">
-        <v>111.456831741333</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.220231543760955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>277</v>
-      </c>
-      <c r="D13">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2">
-        <v>38.375191736221304</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.220231543760955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>625</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>30.0016683101654</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.16839999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>625</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2">
-        <v>21.3305683612823</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.16839999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>625</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16" s="2">
-        <v>53.940104722976599</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.16839999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>1728</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2">
-        <v>95.709519386291504</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8.6612923310029899E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>1728</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2">
-        <v>64.223447847366302</v>
-      </c>
-      <c r="F18" s="2">
-        <v>8.6612923310029899E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>1728</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2">
-        <v>151.038380622863</v>
-      </c>
-      <c r="F19" s="2">
-        <v>8.6612923310029899E-2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:V27">
+    <sortCondition ref="A17:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4F4A8-E15A-8345-A701-26C9F28B38F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23961445-AE87-8C4C-872B-253EA00E886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2140" windowWidth="38400" windowHeight="19560" activeTab="3" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="7" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="foglio" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="foglio" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="res_2023_03_13" localSheetId="2">Sheet3!$A$65:$J$71</definedName>
@@ -27,6 +31,11 @@
     <definedName name="res_2023_03_21" localSheetId="2">Sheet3!$A$128:$J$136</definedName>
     <definedName name="res_2023_03_22" localSheetId="2">Sheet3!$A$75:$J$127</definedName>
     <definedName name="res_2023_03_23" localSheetId="2">Sheet3!$A$72:$J$74</definedName>
+    <definedName name="res_2023_03_23" localSheetId="3">Sheet7!$A$22:$G$46</definedName>
+    <definedName name="res_2023_03_24" localSheetId="3">Sheet7!$A$2:$F$21</definedName>
+    <definedName name="res_2023_03_25" localSheetId="3">Sheet7!$A$47:$F$67</definedName>
+    <definedName name="res_2023_03_26" localSheetId="3">Sheet7!$A$68:$F$86</definedName>
+    <definedName name="res_2023_03_27" localSheetId="3">Sheet7!$A$87:$F$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -202,11 +211,102 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="9" xr16:uid="{FE8F91D7-05E5-6D46-AD6B-6F7E22A4745F}" name="res_2023-03-231" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" xr16:uid="{B40357A9-3B8C-0C4B-9467-A39F27DA14CC}" name="res_2023-03-24" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-24.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" xr16:uid="{DD1689D1-697E-574D-A606-D227CF25C1F6}" name="res_2023-03-25" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-25.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" xr16:uid="{FF89058B-1C05-D044-8013-E105F0CFA3BD}" name="res_2023-03-26" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-26.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" xr16:uid="{C7277F0C-7150-4F4A-BDE7-7B4DD9B6B151}" name="res_2023-03-27" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-27.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="64">
   <si>
     <t>model</t>
   </si>
@@ -354,12 +454,61 @@
   <si>
     <t>average</t>
   </si>
+  <si>
+    <t>kr-vs-kp</t>
+  </si>
+  <si>
+    <t>monk2</t>
+  </si>
+  <si>
+    <t>monk3</t>
+  </si>
+  <si>
+    <t>soybean-small</t>
+  </si>
+  <si>
+    <t>tic-tac-toe</t>
+  </si>
+  <si>
+    <t>Mean in-sample mae</t>
+  </si>
+  <si>
+    <t>Mean in-sample R^2</t>
+  </si>
+  <si>
+    <t>Mean out-of-sample R^2</t>
+  </si>
+  <si>
+    <t>Mean out-of-sample mae</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Mean improvement</t>
+  </si>
+  <si>
+    <t>Mean in-sample r^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean improvement </t>
+  </si>
+  <si>
+    <t>Mean out-of-sample r^2</t>
+  </si>
+  <si>
+    <t>Mean time of resolution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +520,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -398,23 +554,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,32 +656,52 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="3" xr16:uid="{42D83F4C-E1F2-1247-8436-E6134923AE7C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-26" connectionId="12" xr16:uid="{F4331ABC-09B7-DF4A-A9B1-E388929B73E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-25" connectionId="11" xr16:uid="{C3864F85-9D63-7F4C-A96A-97AF73C15F02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="9" xr16:uid="{4A37E13E-E5C2-114F-92D7-DCB59EA533AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-24" connectionId="10" xr16:uid="{7B42227C-9B99-F248-8BE7-07DEBCE0BCBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="2" xr16:uid="{1F3EF633-C4D4-3446-B3BC-BABBF2739846}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-27" connectionId="13" xr16:uid="{A1142A11-A80A-0F45-9AA7-6A103816768C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1743,20 +1983,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2449F541-BB08-3E45-95D2-51CB8E55BE17}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G133" activeCellId="10" sqref="G103:J103 G106:J106 G109:J109 G112:J112 G115:J115 G118:J118 G121:J121 G124:J124 G127:J127 G130:J130 G133:J133"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="36.5" customWidth="1"/>
-    <col min="8" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -6026,11 +6269,1911 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154728-4769-1F4E-8BFE-48FF1BD81924}">
+  <dimension ref="A1:J88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F87" activeCellId="10" sqref="F68:G68 F70:G70 F73:G73 F72:G72 F75:G75 F77:G77 F79:G79 F81:G81 F83:G83 F85:G85 F87:G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>625</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>67.595086002349802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>625</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>79.9555272579193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>277</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>46.044323921203599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>174.211125278472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1728</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>215.847045516967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1728</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>171.136780548095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>132</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>6.3024588108062698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4.6325440883636402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>232</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.7890879631042398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>232</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4.4066001892089801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>3196</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2705.19911894798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>3196</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2893.5440589427899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.9995683193206699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>124</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3.6727759361266998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>169</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10.965242958068799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>169</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>21.345438814163199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>122</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.68092584609985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.12122507095336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>33.7879865169525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3.7319445610046298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>958</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1280.6643830299299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>958</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1570.6633662700599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>625</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3600.0301123142199</v>
+      </c>
+      <c r="G24">
+        <v>3630.1053077697702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>625</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3630.1053077697702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>277</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3600.01723833084</v>
+      </c>
+      <c r="G26">
+        <v>3621.9736510276698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>277</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3621.9736510276698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1728</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3600.0632909297901</v>
+      </c>
+      <c r="G28">
+        <v>3670.4122146129598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>1728</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3670.4122146129598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>496.507497072219</v>
+      </c>
+      <c r="G30" s="3">
+        <v>69.301433944702097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>132</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>69.301433944702097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>232</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>267.871769952774</v>
+      </c>
+      <c r="G32">
+        <v>405.36388406753503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>232</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>405.36388406753503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>3196</v>
+      </c>
+      <c r="D34">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3600.1258586406698</v>
+      </c>
+      <c r="G34">
+        <v>3847.11237320899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>3196</v>
+      </c>
+      <c r="D35">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3847.11237320899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>124</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>18.455342435836702</v>
+      </c>
+      <c r="G36">
+        <v>43.905413055419899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>124</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>43.905413055419899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>169</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2904.9893135070802</v>
+      </c>
+      <c r="G38">
+        <v>3601.2106929302199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3601.2106929302199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>122</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>46.391470289230298</v>
+      </c>
+      <c r="G40">
+        <v>114.95464682578999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>114.95464682578999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3600.0106637477802</v>
+      </c>
+      <c r="G42">
+        <v>4.4302166461944497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>4.4302166461944497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>958</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>3600.0405506133998</v>
+      </c>
+      <c r="G44">
+        <v>3650.5519627571098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>958</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3650.5519627571098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>625</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>3600.0352322578401</v>
+      </c>
+      <c r="G46">
+        <v>3674.90252027511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>625</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3674.90252027511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>277</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>3600.0280714988698</v>
+      </c>
+      <c r="G48">
+        <v>3654.3656842231699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>277</v>
+      </c>
+      <c r="D49">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>3654.3656842231699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>1728</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>3600.0755996704102</v>
+      </c>
+      <c r="G50">
+        <v>3793.27751364707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>1728</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>3793.27751364707</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>132</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>3600.0161398887599</v>
+      </c>
+      <c r="G52">
+        <v>3611.2709299087501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>132</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>3611.2709299087501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>232</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>2375.6623290061898</v>
+      </c>
+      <c r="G54">
+        <v>2198.8873501777598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>232</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>2198.8873501777598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>3196</v>
+      </c>
+      <c r="D56">
+        <v>38</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>3600.22850766181</v>
+      </c>
+      <c r="G56">
+        <v>4226.0187529086998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <v>3196</v>
+      </c>
+      <c r="D57">
+        <v>38</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>4226.0187529086998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>10.0405284404754</v>
+      </c>
+      <c r="G58">
+        <v>48.671902608871399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>124</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>48.671902608871399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>169</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3600.0209545135499</v>
+      </c>
+      <c r="G60">
+        <v>3617.73263506889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>169</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>3617.73263506889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>122</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>2894.9386599540699</v>
+      </c>
+      <c r="G62">
+        <v>2962.5231067657401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>122</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>2962.5231067657401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>47</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>3600.0197561263999</v>
+      </c>
+      <c r="G64" s="3">
+        <v>13.1782979965209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>47</v>
+      </c>
+      <c r="D65">
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" s="3">
+        <v>13.1782979965209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>958</v>
+      </c>
+      <c r="D66">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>3600.05373740196</v>
+      </c>
+      <c r="G66">
+        <v>3739.8305227279602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>958</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>3739.8305227279602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>625</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>3600.0545965671499</v>
+      </c>
+      <c r="G68">
+        <v>3777.7124600410398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>625</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>3777.7124600410398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>277</v>
+      </c>
+      <c r="D70">
+        <v>38</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>3600.0475780010202</v>
+      </c>
+      <c r="G70">
+        <v>3754.1953323364201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>277</v>
+      </c>
+      <c r="D71">
+        <v>38</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>3754.1953323364201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>1728</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>4109.8022240161899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>132</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>3600.0261177539801</v>
+      </c>
+      <c r="G73">
+        <v>3628.8926054000799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74">
+        <v>132</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>3628.8926054000799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>765.39904904365505</v>
+      </c>
+      <c r="G75">
+        <v>1750.6692141056001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>232</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>1750.6692141056001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77">
+        <v>3196</v>
+      </c>
+      <c r="D77">
+        <v>38</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>3601.8162955760899</v>
+      </c>
+      <c r="G77">
+        <v>5282.5431439876502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>3196</v>
+      </c>
+      <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>5282.5431439876502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>124</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>16.087993955612099</v>
+      </c>
+      <c r="G79">
+        <v>51.977069902419998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>124</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>51.977069902419998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <v>169</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>3600.0303051471701</v>
+      </c>
+      <c r="G81">
+        <v>3638.1205739021302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>169</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>3638.1205739021302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>122</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>441.76184582710198</v>
+      </c>
+      <c r="G83">
+        <v>1795.56134109497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84">
+        <v>122</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>1795.56134109497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85">
+        <v>47</v>
+      </c>
+      <c r="D85">
+        <v>45</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>3600.0399630069701</v>
+      </c>
+      <c r="G85">
+        <v>35.761830663681003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>47</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>35.761830663681003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>958</v>
+      </c>
+      <c r="D87">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>3600.0681100368502</v>
+      </c>
+      <c r="G87">
+        <v>3940.9725767135601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88">
+        <v>958</v>
+      </c>
+      <c r="D88">
+        <v>27</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>3940.9725767135601</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J88">
+    <sortCondition ref="E2:E88"/>
+    <sortCondition ref="B2:B88"/>
+    <sortCondition ref="A2:A88"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2084D2-2D66-C641-8F70-6115B968D845}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="T57" activeCellId="3" sqref="T15:U15 T29:U29 T43:U43 T57:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6040,7 +8183,7 @@
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>38</v>
       </c>
@@ -6056,11 +8199,11 @@
       <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -6107,16 +8250,16 @@
         <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="3">
+        <v>67.595086002349802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6162,17 +8305,17 @@
       <c r="R3">
         <v>6.22834773801835E-2</v>
       </c>
-      <c r="T3">
-        <v>1008.8966509819001</v>
-      </c>
-      <c r="U3" s="3">
-        <v>765.74852881431502</v>
-      </c>
-      <c r="V3">
-        <v>1608.99466433525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T3" s="3">
+        <v>67.595086002349802</v>
+      </c>
+      <c r="U3">
+        <v>79.9555272579193</v>
+      </c>
+      <c r="W3">
+        <v>79.9555272579193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -6219,16 +8362,16 @@
         <v>0.97777777777777697</v>
       </c>
       <c r="T4">
-        <v>1.20447473526</v>
-      </c>
-      <c r="U4">
         <v>24.479506778716999</v>
       </c>
-      <c r="V4" s="3">
+      <c r="U4" s="3">
         <v>0.69806575775146396</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="3">
+        <v>46.044323921203599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6275,16 +8418,16 @@
         <v>-9.3653846153846101E-2</v>
       </c>
       <c r="T5">
-        <v>14.3914228916168</v>
+        <v>215.847045516967</v>
       </c>
       <c r="U5" s="3">
-        <v>6.9664452552795399</v>
-      </c>
-      <c r="V5">
-        <v>13.5440484523773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>171.136780548095</v>
+      </c>
+      <c r="W5">
+        <v>174.211125278472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6331,16 +8474,16 @@
         <v>0.86363636363636298</v>
       </c>
       <c r="T6">
-        <v>1.0466373443603501</v>
+        <v>6.3024588108062698</v>
       </c>
       <c r="U6" s="3">
-        <v>0.58983201980590805</v>
-      </c>
-      <c r="V6">
-        <v>0.97851257324218699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4.6325440883636402</v>
+      </c>
+      <c r="W6">
+        <v>215.847045516967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6386,17 +8529,17 @@
       <c r="R7" s="3">
         <v>0.26944444444444399</v>
       </c>
-      <c r="T7">
-        <v>1.4145691871643</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0.77993779182433998</v>
-      </c>
-      <c r="V7">
-        <v>1.37499208450317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T7" s="3">
+        <v>2.7890879631042398</v>
+      </c>
+      <c r="U7">
+        <v>4.4066001892089801</v>
+      </c>
+      <c r="W7" s="3">
+        <v>171.136780548095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6442,17 +8585,17 @@
       <c r="R8" s="3">
         <v>1.90849673202611E-2</v>
       </c>
-      <c r="T8">
-        <v>1.98078293800354</v>
+      <c r="T8" s="3">
+        <v>2705.19911894798</v>
       </c>
       <c r="U8">
-        <v>2.5107397556304898</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1.5291576385498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2893.5440589427899</v>
+      </c>
+      <c r="W8">
+        <v>6.3024588108062698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6498,17 +8641,17 @@
       <c r="R9" s="3">
         <v>0.92139724310776905</v>
       </c>
-      <c r="T9">
-        <v>1.8091198444366401</v>
+      <c r="T9" s="3">
+        <v>1.9995683193206699</v>
       </c>
       <c r="U9">
-        <v>1.5448903560638401</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1.0118609905242899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3.6727759361266998</v>
+      </c>
+      <c r="W9">
+        <v>4.6325440883636402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -6555,16 +8698,16 @@
         <v>9.5674603174603204E-2</v>
       </c>
       <c r="T10" s="3">
-        <v>38.375191736221304</v>
+        <v>10.965242958068799</v>
       </c>
       <c r="U10">
-        <v>42.659689950942898</v>
-      </c>
-      <c r="V10">
-        <v>111.456831741333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>21.345438814163199</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2.7890879631042398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -6610,17 +8753,17 @@
       <c r="R11" s="3">
         <v>0.32227951892088502</v>
       </c>
-      <c r="T11">
-        <v>53.940104722976599</v>
-      </c>
-      <c r="U11">
-        <v>30.0016683101654</v>
-      </c>
-      <c r="V11" s="3">
-        <v>21.3305683612823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T11" s="3">
+        <v>1.68092584609985</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2.12122507095336</v>
+      </c>
+      <c r="W11">
+        <v>4.4066001892089801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6667,16 +8810,16 @@
         <v>0.372173387259709</v>
       </c>
       <c r="T12">
-        <v>151.038380622863</v>
-      </c>
-      <c r="U12">
-        <v>95.709519386291504</v>
-      </c>
-      <c r="V12" s="3">
-        <v>64.223447847366302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>33.7879865169525</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3.7319445610046298</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2705.19911894798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6701,8 +8844,8 @@
       <c r="I13" s="3">
         <v>0.72626560862035805</v>
       </c>
-      <c r="J13">
-        <v>0.691282110270523</v>
+      <c r="J13" s="3">
+        <v>0.72626560862035805</v>
       </c>
       <c r="L13" s="3">
         <v>0.13078491784037499</v>
@@ -6722,17 +8865,17 @@
       <c r="R13" s="3">
         <v>0.72633810091972595</v>
       </c>
-      <c r="T13">
-        <v>2018.96998000144</v>
-      </c>
-      <c r="U13" s="3">
-        <v>858.71918382644606</v>
-      </c>
-      <c r="V13">
-        <v>3027.1228082656799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>1280.6643830299299</v>
+      </c>
+      <c r="U13">
+        <v>1570.6633662700599</v>
+      </c>
+      <c r="W13">
+        <v>2893.5440589427899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>48</v>
       </c>
@@ -6745,11 +8888,14 @@
       <c r="Q14" t="s">
         <v>48</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>1.9995683193206699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D15" s="3">
         <f>AVERAGE(D3:D13)</f>
         <v>0.15209961152099719</v>
@@ -6772,7 +8918,7 @@
       </c>
       <c r="J15" s="3">
         <f>AVERAGE(J3:J13)</f>
-        <v>0.52917068323670702</v>
+        <v>0.53235100126851032</v>
       </c>
       <c r="L15">
         <f>AVERAGE(L3:L13)</f>
@@ -6798,20 +8944,24 @@
         <f>AVERAGE(R3:R13)</f>
         <v>0.41240327616253403</v>
       </c>
-      <c r="T15">
-        <f>AVERAGE(T3:T14)</f>
-        <v>299.36975590965847</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="3">
+        <f>AVERAGE(T3:T13)</f>
+        <v>395.57367369911776</v>
+      </c>
+      <c r="U15">
         <f>AVERAGE(U3:U13)</f>
-        <v>166.33726747686202</v>
-      </c>
-      <c r="V15">
-        <f>AVERAGE(V3:V13)</f>
-        <v>441.11499618616909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>432.35530249422141</v>
+      </c>
+      <c r="W15">
+        <v>3.6727759361266998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W16" s="3">
+        <v>10.965242958068799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -6821,13 +8971,13 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>0.1484</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>0.14879999999999999</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <v>0.14419999999999999</v>
       </c>
       <c r="H17">
@@ -6837,7 +8987,7 @@
         <v>0.44780360158138299</v>
       </c>
       <c r="J17" s="3">
-        <v>0.46489465899612098</v>
+        <v>0.49489465899612101</v>
       </c>
       <c r="L17" s="3">
         <v>0.17359999999999901</v>
@@ -6857,9 +9007,17 @@
       <c r="R17">
         <v>0.31666820739875701</v>
       </c>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W17">
+        <v>21.345438814163199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6869,14 +9027,14 @@
       <c r="C18">
         <v>38</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>0.185928009457421</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="19">
         <v>0.18411805470629</v>
       </c>
-      <c r="F18" s="6">
-        <v>0.18773388773388699</v>
+      <c r="F18" s="3">
+        <v>0.17773388773388701</v>
       </c>
       <c r="H18">
         <v>0.36415511519989102</v>
@@ -6885,7 +9043,7 @@
         <v>0.37011804116281699</v>
       </c>
       <c r="J18">
-        <v>0.358040665801859</v>
+        <v>0.36804066580185901</v>
       </c>
       <c r="L18" s="3">
         <v>0.263636363636363</v>
@@ -6905,9 +9063,17 @@
       <c r="R18">
         <v>-2.1111111111111001E-2</v>
       </c>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1.68092584609985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6917,13 +9083,13 @@
       <c r="C19">
         <v>19</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>7.65338116101415E-2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19">
         <v>7.6485502583051299E-2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="3">
         <v>7.6330255263503899E-2</v>
       </c>
       <c r="H19">
@@ -6953,9 +9119,17 @@
       <c r="R19" s="3">
         <v>0.41972386924375499</v>
       </c>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T19" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U19" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W19" s="3">
+        <v>2.12122507095336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -6965,13 +9139,13 @@
       <c r="C20">
         <v>15</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="3">
         <v>0.11930817610062799</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3">
         <v>0.11930817610062799</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="3">
         <v>0.11930817610062799</v>
       </c>
       <c r="H20" s="3">
@@ -7001,9 +9175,17 @@
       <c r="R20" s="3">
         <v>0.10503267973856199</v>
       </c>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <v>496.507497072219</v>
+      </c>
+      <c r="U20" s="3">
+        <v>69.301433944702097</v>
+      </c>
+      <c r="W20">
+        <v>33.7879865169525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -7013,13 +9195,13 @@
       <c r="C21">
         <v>16</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="3">
         <v>1.8326068003487302E-2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="3">
         <v>1.8326068003487302E-2</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="3">
         <v>1.8326068003487302E-2</v>
       </c>
       <c r="H21" s="3">
@@ -7049,9 +9231,17 @@
       <c r="R21">
         <v>0.80597962297046899</v>
       </c>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>267.871769952774</v>
+      </c>
+      <c r="U21">
+        <v>405.36388406753503</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3.7319445610046298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -7061,14 +9251,14 @@
       <c r="C22">
         <v>38</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>0.21041193495654301</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3">
         <v>8.1506411256833999E-2</v>
       </c>
-      <c r="F22" s="6">
-        <v>0.10853789315653201</v>
+      <c r="F22">
+        <v>9.1537893156532005E-2</v>
       </c>
       <c r="H22">
         <v>0.55905768905277198</v>
@@ -7077,7 +9267,7 @@
         <v>0.82924130745184499</v>
       </c>
       <c r="J22">
-        <v>0.71001726635296403</v>
+        <v>0.800017266352964</v>
       </c>
       <c r="L22">
         <v>0.211225058685446</v>
@@ -7097,9 +9287,17 @@
       <c r="R22">
         <v>0.70007306777189304</v>
       </c>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1280.6643830299299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7109,13 +9307,13 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="3">
         <v>7.0585858585858599E-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3">
         <v>7.0585858585858696E-2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <v>7.0585858585859002E-2</v>
       </c>
       <c r="H23" s="3">
@@ -7145,9 +9343,17 @@
       <c r="R23">
         <v>0.51999999999999902</v>
       </c>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>18.455342435836702</v>
+      </c>
+      <c r="U23">
+        <v>43.905413055419899</v>
+      </c>
+      <c r="W23">
+        <v>1570.6633662700599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -7157,13 +9363,13 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="3">
         <v>0.22633986928104499</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="3">
         <v>0.22633986928104499</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="3">
         <v>0.22633986928104499</v>
       </c>
       <c r="H24" s="3">
@@ -7193,9 +9399,14 @@
       <c r="R24" s="3">
         <v>-9.5237262737262698E-2</v>
       </c>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>2904.9893135070802</v>
+      </c>
+      <c r="U24">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7205,13 +9416,13 @@
       <c r="C25">
         <v>15</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="3">
         <v>4.3046496949295097E-2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>4.3046496949295097E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="3">
         <v>4.3046496949295097E-2</v>
       </c>
       <c r="H25" s="3">
@@ -7241,9 +9452,14 @@
       <c r="R25">
         <v>0.81212121212121202</v>
       </c>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>46.391470289230298</v>
+      </c>
+      <c r="U25">
+        <v>114.95464682578999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7253,13 +9469,13 @@
       <c r="C26">
         <v>45</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="1">
         <v>1.33320729199634E-15</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="1">
         <v>9.6890235479452603E-7</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>6.4907775692879001E-17</v>
       </c>
       <c r="H26" s="3">
@@ -7277,7 +9493,7 @@
       <c r="M26">
         <v>1.4816050024250901E-2</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="6">
         <v>5.9211894646675002E-17</v>
       </c>
       <c r="P26" s="3">
@@ -7289,9 +9505,14 @@
       <c r="R26" s="3">
         <v>0.999999999999999</v>
       </c>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <v>3600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>4.4302166461944497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -7301,13 +9522,13 @@
       <c r="C27">
         <v>27</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27">
         <v>0.22938749527677199</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27">
         <v>0.223383634995795</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="3">
         <v>0.217819894403954</v>
       </c>
       <c r="H27">
@@ -7337,9 +9558,14 @@
       <c r="R27" s="3">
         <v>0.24677643108787201</v>
       </c>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>48</v>
       </c>
@@ -7353,30 +9579,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D29">
         <f>AVERAGE(D17:D27)</f>
         <v>0.12075161092919937</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="19">
         <f>AVERAGE(E17:E27)</f>
         <v>0.10835464012405813</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <f t="shared" ref="F29:R29" si="0">AVERAGE(F17:F27)</f>
-        <v>0.11020258177074466</v>
+        <v>0.10774803631619921</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
         <v>0.62664976454142485</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="19">
         <f t="shared" si="0"/>
         <v>0.65318562901273758</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <f t="shared" si="0"/>
-        <v>0.64155824195250599</v>
+        <v>0.65337642377068772</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
@@ -7402,8 +9628,16 @@
         <f t="shared" si="0"/>
         <v>0.43727515604401312</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T29" s="19">
+        <f>AVERAGE(T17:T27)</f>
+        <v>2303.1104902961033</v>
+      </c>
+      <c r="U29" s="3">
+        <f>AVERAGE(U17:U27)</f>
+        <v>2021.6323267763312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7413,13 +9647,13 @@
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31">
         <v>0.12680000000399999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31">
         <v>0.13120000000000001</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="3">
         <v>0.125800000000024</v>
       </c>
       <c r="H31" s="3">
@@ -7449,8 +9683,14 @@
       <c r="R31">
         <v>0.37701691098269502</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U31" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -7460,13 +9700,13 @@
       <c r="C32">
         <v>38</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="3">
         <v>0.14260323672088299</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32">
         <v>0.146211003886239</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>0.15613713260772</v>
       </c>
       <c r="H32" s="3">
@@ -7496,8 +9736,14 @@
       <c r="R32">
         <v>4.3730158730158598E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -7507,13 +9753,13 @@
       <c r="C33">
         <v>19</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="3">
         <v>6.7852836402613206E-2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33">
         <v>6.9444313643829705E-2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>7.0120744663596496E-2</v>
       </c>
       <c r="H33" s="3">
@@ -7543,8 +9789,14 @@
       <c r="R33">
         <v>0.45480507630036698</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -7554,13 +9806,13 @@
       <c r="C34">
         <v>15</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="3">
         <v>5.9667565139263197E-2</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34">
         <v>6.5354896675651905E-2</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="3">
         <v>5.9667565139263197E-2</v>
       </c>
       <c r="H34" s="3">
@@ -7590,8 +9842,14 @@
       <c r="R34">
         <v>0.27810457516339798</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U34" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -7601,13 +9859,13 @@
       <c r="C35">
         <v>16</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="3">
         <v>3.2374309793664702E-3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="3">
         <v>3.2374445255828701E-3</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="3">
         <v>3.2374825433733301E-3</v>
       </c>
       <c r="H35" s="3">
@@ -7637,8 +9895,14 @@
       <c r="R35">
         <v>0.89265130519959202</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <v>2375.6623290061898</v>
+      </c>
+      <c r="U35" s="3">
+        <v>2198.8873501777598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -7648,13 +9912,13 @@
       <c r="C36">
         <v>38</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>0.29388432013013999</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>0.13868511551645901</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="3">
         <v>9.5987540416575007E-2</v>
       </c>
       <c r="H36">
@@ -7684,8 +9948,14 @@
       <c r="R36" s="3">
         <v>0.79375184362280504</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T36" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U36" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -7695,13 +9965,13 @@
       <c r="C37">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="6">
         <v>1.2560098864446201E-17</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="1">
         <v>1.4318512705468601E-17</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="1">
         <v>4.1852043716172502E-16</v>
       </c>
       <c r="H37" s="3">
@@ -7716,7 +9986,7 @@
       <c r="L37">
         <v>8.0000000000000192E-3</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="6">
         <v>2.1612341546036299E-17</v>
       </c>
       <c r="N37">
@@ -7731,8 +10001,14 @@
       <c r="R37">
         <v>0.97499999999999898</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T37" s="3">
+        <v>10.0405284404754</v>
+      </c>
+      <c r="U37">
+        <v>48.671902608871399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -7742,13 +10018,13 @@
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>0.173071895424836</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="3">
         <v>0.17014161661219801</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>0.173093681917211</v>
       </c>
       <c r="H38">
@@ -7778,8 +10054,14 @@
       <c r="R38">
         <v>-8.25999000999003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T38" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U38" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -7789,13 +10071,13 @@
       <c r="C39">
         <v>15</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39">
         <v>1.6410687986534798E-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="3">
         <v>1.0267242308383001E-2</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39">
         <v>1.43488388583605E-2</v>
       </c>
       <c r="H39">
@@ -7825,8 +10107,14 @@
       <c r="R39">
         <v>0.69242423617070703</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <v>2894.9386599540699</v>
+      </c>
+      <c r="U39" s="3">
+        <v>2762.5231067657401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -7836,13 +10124,13 @@
       <c r="C40">
         <v>45</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>1.17655213847189E-17</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="1">
         <v>1.23382548703325E-6</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="1">
         <v>2.2289740781734598E-16</v>
       </c>
       <c r="H40" s="3">
@@ -7872,8 +10160,14 @@
       <c r="R40" s="3">
         <v>0.95555555555555405</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <v>3600</v>
+      </c>
+      <c r="U40" s="3">
+        <v>13.1782979965209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -7883,13 +10177,13 @@
       <c r="C41">
         <v>27</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41">
         <v>0.184501686745347</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="3">
         <v>0.15736023502098601</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>0.17066833241989299</v>
       </c>
       <c r="H41">
@@ -7919,8 +10213,14 @@
       <c r="R41">
         <v>0.43006344589955903</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U41" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>48</v>
       </c>
@@ -7934,7 +10234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D43">
         <f>AVERAGE(D31:D41)</f>
         <v>9.7093605412089432E-2</v>
@@ -7948,7 +10248,7 @@
         <v>7.9005574415092469E-2</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="F43:R43" si="1">AVERAGE(H31:H41)</f>
+        <f t="shared" ref="H43:R43" si="1">AVERAGE(H31:H41)</f>
         <v>0.70108931289968812</v>
       </c>
       <c r="I43">
@@ -7983,8 +10283,16 @@
         <f t="shared" si="1"/>
         <v>0.52822756432044848</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T43" s="19">
+        <f>AVERAGE(T31:T41)</f>
+        <v>3098.2401379455218</v>
+      </c>
+      <c r="U43" s="3">
+        <f>AVERAGE(U31:U41)</f>
+        <v>2747.5691506862631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -7994,13 +10302,13 @@
       <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="3">
         <v>0.106200000000005</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>0.116000000075759</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>0.110200000000012</v>
       </c>
       <c r="H45" s="3">
@@ -8030,8 +10338,14 @@
       <c r="R45" s="3">
         <v>0.44295647953139</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U45" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -8041,13 +10355,13 @@
       <c r="C46">
         <v>38</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46">
         <v>0.107394725041783</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="3">
         <v>0.103803350862174</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>0.13085076026252501</v>
       </c>
       <c r="H46">
@@ -8077,8 +10391,14 @@
       <c r="R46">
         <v>-4.3690476190475197E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U46" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -8088,13 +10408,13 @@
       <c r="C47">
         <v>19</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47">
         <v>6.7273093197356401E-2</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47">
         <v>6.7853743286876295E-2</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="3">
         <v>5.5652627051874397E-2</v>
       </c>
       <c r="H47">
@@ -8124,8 +10444,14 @@
       <c r="R47" s="3">
         <v>0.55884458802416703</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U47" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -8135,13 +10461,13 @@
       <c r="C48">
         <v>15</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48">
         <v>4.6415099206195298E-2</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48">
         <v>4.7358505898080001E-2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="3">
         <v>4.6406123571474001E-2</v>
       </c>
       <c r="H48" s="3">
@@ -8171,8 +10497,14 @@
       <c r="R48" s="3">
         <v>0.35052289396405101</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U48" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -8182,13 +10514,13 @@
       <c r="C49">
         <v>16</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49">
         <v>1.08108108108108E-3</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>2.62104265121909E-17</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>2.1570561331444699E-3</v>
       </c>
       <c r="H49">
@@ -8218,8 +10550,14 @@
       <c r="R49">
         <v>0.84539366395791804</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>765.39904904365505</v>
+      </c>
+      <c r="U49">
+        <v>1750.6692141056001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8229,13 +10567,13 @@
       <c r="C50">
         <v>38</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50">
         <v>0.35561369783031299</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="3">
         <v>8.9094345327166494E-2</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50">
         <v>0.112491959535426</v>
       </c>
       <c r="H50">
@@ -8265,8 +10603,14 @@
       <c r="R50">
         <v>0.761578611017244</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U50" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -8276,13 +10620,13 @@
       <c r="C51">
         <v>15</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="6">
         <v>2.1965660293504699E-17</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="1">
         <v>3.0014150536432002E-17</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="1">
         <v>1.9109293272336E-16</v>
       </c>
       <c r="H51" s="3">
@@ -8312,8 +10656,14 @@
       <c r="R51" s="3">
         <v>0.98333333333333295</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>16.087993955612099</v>
+      </c>
+      <c r="U51">
+        <v>51.977069902419998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -8323,13 +10673,13 @@
       <c r="C52">
         <v>15</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52">
         <v>0.121328977187122</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="3">
         <v>0.10058824502354</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>0.118322445272331</v>
       </c>
       <c r="H52">
@@ -8359,8 +10709,14 @@
       <c r="R52" s="3">
         <v>-1.8601385912005199E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U52" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -8370,13 +10726,13 @@
       <c r="C53">
         <v>15</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="3">
         <v>2.0408199229341702E-3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="3">
         <v>2.04081673632657E-3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="3">
         <v>2.0408163265306098E-3</v>
       </c>
       <c r="H53" s="3">
@@ -8406,8 +10762,14 @@
       <c r="R53">
         <v>0.67878787878787805</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>441.76184582710198</v>
+      </c>
+      <c r="U53">
+        <v>1795.56134109497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -8417,13 +10779,13 @@
       <c r="C54">
         <v>45</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="6">
         <v>2.9374321846412299E-18</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="1">
         <v>5.9487688449748498E-8</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="1">
         <v>1.29878721970373E-16</v>
       </c>
       <c r="H54" s="3">
@@ -8453,8 +10815,14 @@
       <c r="R54" s="3">
         <v>0.89642857142857102</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>3600</v>
+      </c>
+      <c r="U54" s="3">
+        <v>35.761830663681003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -8464,13 +10832,13 @@
       <c r="C55">
         <v>27</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55">
         <v>0.152140685795595</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55">
         <v>0.13909776995584799</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="3">
         <v>0.124993447053902</v>
       </c>
       <c r="H55">
@@ -8500,8 +10868,14 @@
       <c r="R55" s="3">
         <v>0.49016827892499398</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T55" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U55" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>48</v>
       </c>
@@ -8515,7 +10889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D57">
         <f>AVERAGE(D45:D55)</f>
         <v>8.7226198114762274E-2</v>
@@ -8564,11 +10938,1024 @@
         <f t="shared" si="2"/>
         <v>0.54052022153336965</v>
       </c>
+      <c r="T57" s="19">
+        <f>AVERAGE(T45:T55)</f>
+        <v>2729.3862626205791</v>
+      </c>
+      <c r="U57" s="3">
+        <f>AVERAGE(U45:U55)</f>
+        <v>2621.2699505242426</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:V27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:U27">
     <sortCondition ref="A17:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FB4723-6C74-8949-8A80-6895C5BFDB0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B6E21F-9EEA-544E-8BF7-797940F01785}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>625</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.60595826788212503</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.56965727068164795</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.591305714498913</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.396844796920716</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.40623139144562198</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.44295647953139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.63248519308220796</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64540669943655005</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.55176200250826901</v>
+      </c>
+      <c r="G4" s="12">
+        <v>3.4087301587301597E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>6.0357142857142797E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>-4.3690476190475197E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1728</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.51333339354444096</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.50919083066775905</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.59715599834112099</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.53322736349033095</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.50043583385680102</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.55884458802416703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.84888582698511705</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.84568803124519598</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.84875404307507796</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.33725489634719003</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.30666665543966698</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.35052289396405101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>232</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.99782608695652097</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.99541502825611705</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.87036885692492005</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.81556200283316904</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.84539366395791804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>3196</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.25661471174655598</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.81380311074452505</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.76429489437100395</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.23785038304494899</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.80524547936521196</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.761578611017244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.67943102020799795</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.73218117316607201</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.68727513276580399</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-4.0005003085804902E-2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>-3.3691308691308597E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-1.8601385912005199E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.99583332599067598</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.99583333249666595</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.79999999580419501</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.79696970031636305</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.67878787878787805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.99999982736025494</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.786110926424478</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>958</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.56168697171202497</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.59784472663724697</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.63951858675509599</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.383250634538774</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.48285497647728898</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.49016827892499398</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1036EA42-7C27-EC47-805A-39DC91679ADD}">
+  <dimension ref="A3:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="C5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="D5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="G5">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="H5">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="I5">
+        <v>0.52917068323670702</v>
+      </c>
+      <c r="K5">
+        <v>0.18844664835146932</v>
+      </c>
+      <c r="L5">
+        <v>0.1885139884188094</v>
+      </c>
+      <c r="M5">
+        <v>0.18811540836980034</v>
+      </c>
+      <c r="O5">
+        <v>0.4122378402912158</v>
+      </c>
+      <c r="P5">
+        <v>0.40958271763609311</v>
+      </c>
+      <c r="Q5">
+        <v>0.41240327616253403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.12075161092919937</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.10835464012405813</v>
+      </c>
+      <c r="D6">
+        <v>0.11020258177074466</v>
+      </c>
+      <c r="G6">
+        <v>0.62664976454142485</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.65318562901273758</v>
+      </c>
+      <c r="I6">
+        <v>0.64155824195250599</v>
+      </c>
+      <c r="K6">
+        <v>0.17999044882643805</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.16969056012271436</v>
+      </c>
+      <c r="M6">
+        <v>0.17928127070265293</v>
+      </c>
+      <c r="O6">
+        <v>0.44177688906092688</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.45974295741365945</v>
+      </c>
+      <c r="Q6">
+        <v>0.43727515604401312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9.7093605412089432E-2</v>
+      </c>
+      <c r="C7">
+        <v>8.108210018316514E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.9005574415092469E-2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7">
+        <v>0.70108931289968812</v>
+      </c>
+      <c r="H7">
+        <v>0.73442766403879611</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.73675313226426797</v>
+      </c>
+      <c r="K7">
+        <v>0.16575059309761719</v>
+      </c>
+      <c r="L7">
+        <v>0.15073072565044654</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.14922426359631571</v>
+      </c>
+      <c r="O7">
+        <v>0.49342212148003189</v>
+      </c>
+      <c r="P7">
+        <v>0.52709384118338698</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.52822756432044848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>8.7226198114762274E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.0530621513950812E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.3919566837019992E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.73564134528251512</v>
+      </c>
+      <c r="H8">
+        <v>0.79178227294871983</v>
+      </c>
+      <c r="I8">
+        <v>0.78830133944588487</v>
+      </c>
+      <c r="K8">
+        <v>0.17403265838974588</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.14762579456297414</v>
+      </c>
+      <c r="M8">
+        <v>0.14869146214656404</v>
+      </c>
+      <c r="O8">
+        <v>0.48200777952535634</v>
+      </c>
+      <c r="P8">
+        <v>0.53424934548403968</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.54052022153336965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.10835464012405813</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.10774803631619921</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.65318562901273758</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.65337642377068772</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22">
+        <v>8.108210018316514E-2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>7.9005574415092469E-2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.73442766403879611</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.73675313226426797</v>
+      </c>
+      <c r="G15" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20">
+        <v>6.0530621513950812E-2</v>
+      </c>
+      <c r="C16" s="22">
+        <v>6.3919566837019992E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.79178227294871983</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.78830133944588487</v>
+      </c>
+      <c r="G16" s="24">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.1885139884188094</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.18811540836980034</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.40958271763609311</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.41240327616253403</v>
+      </c>
+      <c r="G20" s="22">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.16969056012271436</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.17928127070265293</v>
+      </c>
+      <c r="D21" s="22">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.45974295741365945</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.43727515604401312</v>
+      </c>
+      <c r="G21" s="22">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0.15073072565044654</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.14922426359631571</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.52709384118338698</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.52822756432044848</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="20">
+        <v>0.14762579456297414</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0.14869146214656404</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-1E-3</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.53424934548403968</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.54052022153336965</v>
+      </c>
+      <c r="G23" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>395.57367369911776</v>
+      </c>
+      <c r="C27">
+        <v>432.35530249422141</v>
+      </c>
+      <c r="D27" s="21">
+        <f>SUM(C27,-B27)</f>
+        <v>36.781628795103643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="19">
+        <v>2303.1104902961033</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021.6323267763312</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" ref="D28:D30" si="0">SUM(C28,-B28)</f>
+        <v>-281.47816351977212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="19">
+        <v>3098.2401379455218</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2747.5691506862631</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>-350.67098725925871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="19">
+        <v>2729.3862626205791</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2621.2699505242426</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
+        <v>-108.11631209633651</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23961445-AE87-8C4C-872B-253EA00E886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCC0C50-171D-044A-93A6-C192F6F6E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="7" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
+    <workbookView xWindow="34380" yWindow="-2140" windowWidth="32780" windowHeight="16140" activeTab="10" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
     <sheet name="foglio" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$20:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$20:$B$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$C$20:$C$23</definedName>
     <definedName name="res_2023_03_13" localSheetId="2">Sheet3!$A$65:$J$71</definedName>
     <definedName name="res_2023_03_14" localSheetId="1">Sheet1!$A$2:$I$19</definedName>
     <definedName name="res_2023_03_14" localSheetId="0">Sheet2!$A$2:$G$19</definedName>
@@ -212,7 +218,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{FE8F91D7-05E5-6D46-AD6B-6F7E22A4745F}" name="res_2023-03-231" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-23.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -231,7 +237,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{B40357A9-3B8C-0C4B-9467-A39F27DA14CC}" name="res_2023-03-24" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-24.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-24.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -249,7 +255,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{DD1689D1-697E-574D-A606-D227CF25C1F6}" name="res_2023-03-25" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-25.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-25.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -267,7 +273,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{FF89058B-1C05-D044-8013-E105F0CFA3BD}" name="res_2023-03-26" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-26.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-26.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -285,7 +291,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{C7277F0C-7150-4F4A-BDE7-7B4DD9B6B151}" name="res_2023-03-27" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-27.csv" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/res_2023-03-27.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -306,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="70">
   <si>
     <t>model</t>
   </si>
@@ -499,6 +505,24 @@
   <si>
     <t>Mean time of resolution</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Mean MAE training</t>
+  </si>
+  <si>
+    <t>Mean r^2 training</t>
+  </si>
+  <si>
+    <t>Mean MAE testing</t>
+  </si>
+  <si>
+    <t>Mean R^2 testing</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -604,14 +628,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -620,18 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,24 +669,4269 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BendersOCT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15209961152099719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10835464012405813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.108210018316514E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0530621513950812E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AECC-7D4D-9371-9F87E5D703C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$C$13:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15209961152099719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10774803631619921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9005574415092469E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3919566837019992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AECC-7D4D-9371-9F87E5D703C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1589092063"/>
+        <c:axId val="1588899903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1589092063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1588899903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1588899903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>In-Sample MAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1589092063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BendersOCT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$E$13:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53235100126851032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65318562901273758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73442766403879611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79178227294871983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1B1-0A48-A555-9BA4347C09B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$13:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$13:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53235100126851032</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65337642377068772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73675313226426797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78830133944588487</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1B1-0A48-A555-9BA4347C09B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712052975"/>
+        <c:axId val="1682421439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712052975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682421439"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682421439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>In-sample </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R²</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712052975"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BendersOCT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1885139884188094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16969056012271436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15073072565044654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14762579456297414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA85-E443-97A4-217A8B9FBFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18811540836980034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17928127070265293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14922426359631571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14869146214656404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA85-E443-97A4-217A8B9FBFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1697684047"/>
+        <c:axId val="1574085599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1697684047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574085599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1574085599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Out-of-sample MAE </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697684047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BendersOCT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40958271763609311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45974295741365945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52709384118338698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53424934548403968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E127-AD4C-B374-21B57DD6445B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FlowORT light</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$20:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.41240327616253403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43727515604401312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52822756432044848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54052022153336965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E127-AD4C-B374-21B57DD6445B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1574661839"/>
+        <c:axId val="1697852623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1574661839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Depth of tree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697852623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1697852623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.35000000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Out-of-sample </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R²</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1574661839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADB1458-D077-D569-F778-CA41D67C68FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0222A5-45F5-C545-3C1C-E130C470A663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A96ED8-2F31-F0A6-CBE6-F51352A11F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9332C1FD-DA3F-B140-C2D0-402B8301C73C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="3" xr16:uid="{42D83F4C-E1F2-1247-8436-E6134923AE7C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-27" connectionId="13" xr16:uid="{A1142A11-A80A-0F45-9AA7-6A103816768C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-26" connectionId="12" xr16:uid="{F4331ABC-09B7-DF4A-A9B1-E388929B73E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-25" connectionId="11" xr16:uid="{C3864F85-9D63-7F4C-A96A-97AF73C15F02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="9" xr16:uid="{4A37E13E-E5C2-114F-92D7-DCB59EA533AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-24" connectionId="10" xr16:uid="{7B42227C-9B99-F248-8BE7-07DEBCE0BCBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,31 +4939,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-27" connectionId="13" xr16:uid="{A1142A11-A80A-0F45-9AA7-6A103816768C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-24" connectionId="10" xr16:uid="{7B42227C-9B99-F248-8BE7-07DEBCE0BCBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,6 +5665,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B6E21F-9EEA-544E-8BF7-797940F01785}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>625</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.60595826788212503</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.56965727068164795</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.591305714498913</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.396844796920716</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.40623139144562198</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.44295647953139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.63248519308220796</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.64540669943655005</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.55176200250826901</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3.4087301587301597E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6.0357142857142797E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-4.3690476190475197E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1728</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.51333339354444096</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.50919083066775905</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.59715599834112099</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.53322736349033095</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.50043583385680102</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.55884458802416703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.84888582698511705</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.84568803124519598</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.84875404307507796</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.33725489634719003</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.30666665543966698</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.35052289396405101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>232</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.99782608695652097</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.99541502825611705</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.87036885692492005</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.81556200283316904</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.84539366395791804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>3196</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.25661471174655598</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.81380311074452505</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.76429489437100395</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.23785038304494899</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.80524547936521196</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.761578611017244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.67943102020799795</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.73218117316607201</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.68727513276580399</v>
+      </c>
+      <c r="G10" s="11">
+        <v>-4.0005003085804902E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-3.3691308691308597E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-1.8601385912005199E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.99583332599067598</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.99583333249666595</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.79999999580419501</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.79696970031636305</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.67878787878787805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.99999982736025494</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.786110926424478</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>958</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.56168697171202497</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.59784472663724697</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.63951858675509599</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.383250634538774</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.48285497647728898</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.49016827892499398</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1036EA42-7C27-EC47-805A-39DC91679ADD}">
+  <dimension ref="A3:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="O3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="C5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="D5">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="G5">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="H5">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="I5">
+        <v>0.52917068323670702</v>
+      </c>
+      <c r="K5">
+        <v>0.18844664835146932</v>
+      </c>
+      <c r="L5">
+        <v>0.1885139884188094</v>
+      </c>
+      <c r="M5">
+        <v>0.18811540836980034</v>
+      </c>
+      <c r="O5">
+        <v>0.4122378402912158</v>
+      </c>
+      <c r="P5">
+        <v>0.40958271763609311</v>
+      </c>
+      <c r="Q5">
+        <v>0.41240327616253403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.12075161092919937</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.10835464012405813</v>
+      </c>
+      <c r="D6">
+        <v>0.11020258177074466</v>
+      </c>
+      <c r="G6">
+        <v>0.62664976454142485</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.65318562901273758</v>
+      </c>
+      <c r="I6">
+        <v>0.64155824195250599</v>
+      </c>
+      <c r="K6">
+        <v>0.17999044882643805</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.16969056012271436</v>
+      </c>
+      <c r="M6">
+        <v>0.17928127070265293</v>
+      </c>
+      <c r="O6">
+        <v>0.44177688906092688</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.45974295741365945</v>
+      </c>
+      <c r="Q6">
+        <v>0.43727515604401312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9.7093605412089432E-2</v>
+      </c>
+      <c r="C7">
+        <v>8.108210018316514E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.9005574415092469E-2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7">
+        <v>0.70108931289968812</v>
+      </c>
+      <c r="H7">
+        <v>0.73442766403879611</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.73675313226426797</v>
+      </c>
+      <c r="K7">
+        <v>0.16575059309761719</v>
+      </c>
+      <c r="L7">
+        <v>0.15073072565044654</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.14922426359631571</v>
+      </c>
+      <c r="O7">
+        <v>0.49342212148003189</v>
+      </c>
+      <c r="P7">
+        <v>0.52709384118338698</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.52822756432044848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>8.7226198114762274E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.0530621513950812E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.3919566837019992E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.73564134528251512</v>
+      </c>
+      <c r="H8">
+        <v>0.79178227294871983</v>
+      </c>
+      <c r="I8">
+        <v>0.78830133944588487</v>
+      </c>
+      <c r="K8">
+        <v>0.17403265838974588</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.14762579456297414</v>
+      </c>
+      <c r="M8">
+        <v>0.14869146214656404</v>
+      </c>
+      <c r="O8">
+        <v>0.48200777952535634</v>
+      </c>
+      <c r="P8">
+        <v>0.53424934548403968</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.54052022153336965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.15209961152099719</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.53235100126851032</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.10835464012405813</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.10774803631619921</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.65318562901273758</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.65337642377068772</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="15">
+        <v>8.108210018316514E-2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7.9005574415092469E-2</v>
+      </c>
+      <c r="D15">
+        <v>2E-3</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.73442766403879611</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.73675313226426797</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6.0530621513950812E-2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>6.3919566837019992E-2</v>
+      </c>
+      <c r="D16">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.79178227294871983</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.78830133944588487</v>
+      </c>
+      <c r="G16" s="16">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.1885139884188094</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.18811540836980034</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.40958271763609311</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.41240327616253403</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.16969056012271436</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.17928127070265293</v>
+      </c>
+      <c r="D21" s="15">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.45974295741365945</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.43727515604401312</v>
+      </c>
+      <c r="G21" s="15">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.15073072565044654</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.14922426359631571</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.52709384118338698</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.52822756432044848</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.14762579456297414</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.14869146214656404</v>
+      </c>
+      <c r="D23" s="15">
+        <v>-1E-3</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.53424934548403968</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.54052022153336965</v>
+      </c>
+      <c r="G23" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>395.57367369911776</v>
+      </c>
+      <c r="C27">
+        <v>432.35530249422141</v>
+      </c>
+      <c r="D27" s="15">
+        <f>SUM(C27,-B27)</f>
+        <v>36.781628795103643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2303.1104902961033</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2021.6323267763312</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:D30" si="0">SUM(C28,-B28)</f>
+        <v>-281.47816351977212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3098.2401379455218</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2747.5691506862631</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>-350.67098725925871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2729.3862626205791</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2621.2699505242426</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="0"/>
+        <v>-108.11631209633651</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8E55D1-32F4-9D4B-9988-326B85F785E5}">
   <dimension ref="A1:I19"/>
@@ -6272,7 +11524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154728-4769-1F4E-8BFE-48FF1BD81924}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F87" activeCellId="10" sqref="F68:G68 F70:G70 F73:G73 F72:G72 F75:G75 F77:G77 F79:G79 F81:G81 F83:G83 F85:G85 F87:G87"/>
     </sheetView>
   </sheetViews>
@@ -8172,8 +13424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2084D2-2D66-C641-8F70-6115B968D845}">
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="T57" activeCellId="3" sqref="T15:U15 T29:U29 T43:U43 T57:U57"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9030,7 +14282,7 @@
       <c r="D18">
         <v>0.185928009457421</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18">
         <v>0.18411805470629</v>
       </c>
       <c r="F18" s="3">
@@ -9584,7 +14836,7 @@
         <f>AVERAGE(D17:D27)</f>
         <v>0.12075161092919937</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29">
         <f>AVERAGE(E17:E27)</f>
         <v>0.10835464012405813</v>
       </c>
@@ -9596,7 +14848,7 @@
         <f t="shared" si="0"/>
         <v>0.62664976454142485</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>0.65318562901273758</v>
       </c>
@@ -9628,7 +14880,7 @@
         <f t="shared" si="0"/>
         <v>0.43727515604401312</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T29">
         <f>AVERAGE(T17:T27)</f>
         <v>2303.1104902961033</v>
       </c>
@@ -10283,7 +15535,7 @@
         <f t="shared" si="1"/>
         <v>0.52822756432044848</v>
       </c>
-      <c r="T43" s="19">
+      <c r="T43">
         <f>AVERAGE(T31:T41)</f>
         <v>3098.2401379455218</v>
       </c>
@@ -10938,7 +16190,7 @@
         <f t="shared" si="2"/>
         <v>0.54052022153336965</v>
       </c>
-      <c r="T57" s="19">
+      <c r="T57">
         <f>AVERAGE(T45:T55)</f>
         <v>2729.3862626205791</v>
       </c>
@@ -10956,6 +16208,2562 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73650FEE-8DCF-DA43-9B86-5543CADEF0A0}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.33091732111692801</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.33091732111692801</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.32254035776614298</v>
+      </c>
+      <c r="F3" s="14">
+        <v>6.6812889144889406E-2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>6.6812889144889406E-2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>6.22834773801835E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.17359999999999901</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.34170238153160298</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.31142400715455598</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.31666820739875701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.16880000001600001</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.16400000000001699</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.358857483378487</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.40385633657929598</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.37701691098269502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.15893333333332799</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.15680000025454599</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.14720000000001099</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.396844796920716</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.40623139144562198</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.44295647953139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6.6666666666668198E-3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>7.4074074074074502E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>6.6666666666668198E-3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.97142857142856998</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.97142857142856998</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.97777777777777697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.263636363636363</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.281623376623376</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.29584415584415502</v>
+      </c>
+      <c r="F8" s="14">
+        <v>9.3015873015872996E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3.3055555555555498E-2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>-2.1111111111111001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.25636363636363602</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.27435072086579998</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.277987012987013</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.115674603174603</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5.3452162433862402E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4.3730158730158598E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.281623376623376</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.274415584415584</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.30331168831168798</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3.4087301587301597E-2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>6.0357142857142797E-2</v>
+      </c>
+      <c r="H10" s="15">
+        <v>-4.3690476190475197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.40873440285204898</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>-9.3653846153846101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>8.0636675881712305E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>8.0828237133842407E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>8.0250760939376095E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.41707596870422903</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.41475397323937002</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.41972386924375499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>7.29217279606824E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>7.7360029041356193E-2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>7.5422635503057306E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.472445216920371</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.438249840335731</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.45480507630036698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6.4635447208958099E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6.9056993661165494E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>6.1142665661394299E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.53322736349033095</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.50043583385680102</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.55884458802416703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6.5666666666666595E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.86363636363636298</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.86363636363636298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.26096866096866</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.26467236467236399</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.26096866096866</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.10503267973856199</v>
+      </c>
+      <c r="G16" s="15">
+        <v>8.83660130718954E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.10503267973856199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.21552706552706499</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.19330484330484299</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.21182336182336101</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.26633986928104503</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.35163398692810399</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.27810457516339798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.20071225226765901</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.196581200325424</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.19301993744052701</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.33725489634719003</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.30666665543966698</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.35052289396405101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.26944444444444399</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.26944444444444399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7.3450508788159105E-2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4.7548566142460599E-2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>7.3450508788159105E-2</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.80795330718099501</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.88097962297046895</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.80597962297046899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3.0249768732654898E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3.4597613846110403E-2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>4.3200813164251298E-2</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.92620409719952002</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.91467523542204898</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.89265130519959202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5.5966697502312597E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>7.3080481036077699E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>5.6337090491567002E-2</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.87036885692492005</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.81556200283316904</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.84539366395791804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.28774928774928699</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1.90849673202611E-2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.90849673202611E-2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1.90849673202611E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.211225058685446</v>
+      </c>
+      <c r="D24" s="14">
+        <v>8.2919600938967095E-2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.143274647887324</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.55985604540520495</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.82724030609040899</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.70007306777189304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.29755330594679102</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.14300176056337999</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9.8520148669842295E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.37692434957781401</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.70061278951815398</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.79375184362280504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.36227650625977997</v>
+      </c>
+      <c r="D26" s="14">
+        <v>9.2619327073552402E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.114485524256652</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.23785038304494899</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.80524547936521196</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0.761578611017244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3.0342275670675298E-2</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.92139724310776905</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.92139724310776905</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.92139724310776905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.17733333333333301</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.169333333333333</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.18533333333333299</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.54222222222222205</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.56444444444444397</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0.51999999999999902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15">
+        <v>8.0000000000000192E-3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.1612341546036299E-17</v>
+      </c>
+      <c r="E29" s="15">
+        <v>8.0000000000002292E-3</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.97499999999999898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E30" s="14">
+        <v>8.00000000000008E-3</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.26370129870129799</v>
+      </c>
+      <c r="F31" s="14">
+        <v>9.5674603174603204E-2</v>
+      </c>
+      <c r="G31" s="14">
+        <v>9.5674603174603204E-2</v>
+      </c>
+      <c r="H31" s="14">
+        <v>9.5674603174603204E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.40196078431372501</v>
+      </c>
+      <c r="F32" s="14">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+      <c r="G32" s="14">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+      <c r="H32" s="14">
+        <v>-9.5237262737262698E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.38502673796791398</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.39073084006238701</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.40338680926916198</v>
+      </c>
+      <c r="F33" s="14">
+        <v>-3.9015984015983898E-2</v>
+      </c>
+      <c r="G33" s="15">
+        <v>-7.2917088686311499E-2</v>
+      </c>
+      <c r="H33" s="15">
+        <v>-8.25999000999003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.39625668710635797</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.39679144385026699</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.39180034964349397</v>
+      </c>
+      <c r="F34" s="15">
+        <v>-4.0005003085804902E-2</v>
+      </c>
+      <c r="G34" s="15">
+        <v>-3.3691308691308597E-2</v>
+      </c>
+      <c r="H34" s="14">
+        <v>-1.8601385912005199E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.1784</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.1784</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.1784</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.32227951892088502</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.32227951892088502</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.32227951892088502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.84848484848484795</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.84848484848484795</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0.81212121212121202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.16400002881728001</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.14700000315343401</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0.69545454545454499</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.66363630360036296</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0.69242423617070703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="15">
+        <v>9.9000002097901996E-2</v>
+      </c>
+      <c r="D38" s="14">
+        <v>9.7999998326666504E-2</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.156</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.79999999580419501</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.79696970031636305</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0.67878787878787805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="D39" s="14">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="E39" s="14">
+        <v>8.6616961268883796E-2</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.372173387259709</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.372173387259709</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0.372173387259709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.2982207901283401E-15</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1.4816050024250901E-2</v>
+      </c>
+      <c r="E40" s="14">
+        <v>5.9211894646675002E-17</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.95555148660595202</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15">
+        <v>2.8888888888888801E-2</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2.8149475496687101E-2</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1.4814814814814999E-2</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.89642857142857102</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.90555113052384795</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0.95555555555555405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="15">
+        <v>6.5925925925925902E-2</v>
+      </c>
+      <c r="D42" s="15">
+        <v>6.2963013169153703E-2</v>
+      </c>
+      <c r="E42" s="14">
+        <v>2.8888888888888999E-2</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.786110926424478</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0.89642857142857102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.13078491784037499</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.13078491784037499</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.135518241392801</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.72633810091972595</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.69713175171337705</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0.72633810091972595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.26308355148342</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.26729384816753898</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.26101112565445</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.23943971612392601</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.22810953667001799</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0.24677643108787201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.212925392670157</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.19414267015706799</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.19731130017452</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.38333058388137797</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.43928155636216099</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0.43006344589955903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.21302901396160501</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.17957569808027901</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.17541993891798199</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0.383250634538774</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.48285497647728898</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0.49016827892499398</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H46">
+    <sortCondition ref="A3:A46"/>
+    <sortCondition ref="B3:B46"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03268F5-001F-DD4A-A62E-C2A97D2BA9E9}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.16709685865474899</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.16709685865474899</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.16709685865474899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.1484</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.44936708737826597</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.44780360158138299</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.49489465899612101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.12680000000399999</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.125800000000024</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.52945614877640701</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.51334892894336204</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.52581353557814903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.106200000000005</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.116000000075759</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.110200000000012</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.60595826788212503</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.56965727068164795</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.591305714498913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.220231543760955</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.185928009457421</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.18411805470629</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.17773388773388701</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.36415511519989102</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.37011804116281699</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.36804066580185901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.14260323672088299</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.146211003886239</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.15613713260772</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.51226620808710299</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.49956888015356599</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.465902290081394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.107394725041783</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.103803350862174</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.13085076026252501</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.63248519308220796</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.64540669943655005</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.55176200250826901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8.6612923310029899E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.135903111768816</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.135903111768816</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.135903111768816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>7.65338116101415E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>7.6485502583051299E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>7.6330255263503899E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.44666520496729301</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.44696249830403201</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.44595851075182702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6.7852836402613206E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6.9444313643829705E-2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>7.0120744663596496E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.50929150259851397</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.49793839618034602</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.49314611823857801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6.7273093197356401E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6.7853743286876295E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>5.5652627051874397E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.51333339354444096</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.50919083066775905</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.59715599834112099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.18843665768194001</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.86604609929078002</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.86604609929078002</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.86604609929078002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.11930817610062799</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.61075758925678703</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.61075758925678703</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.61075758925678703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>6.5354896675651905E-2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5.9667565139263197E-2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.80566015194712604</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.78713660122248597</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.80566015194712604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4.6415099206195298E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>4.7358505898080001E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.6406123571474001E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.84888582698511705</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.84568803124519598</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.84875404307507796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3.0183086312118499E-2</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.64466873706004102</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.64466873706004102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1.8326068003487302E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.96068197335003602</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.96068197335003602</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.96068197335003602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3.2374309793664702E-3</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3.2374445255828701E-3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3.2374825433733301E-3</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.99303549602135199</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.99303546616009197</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.99303538161398597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1.08108108108108E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2.62104265121909E-17</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2.1570561331444699E-3</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.99782608695652097</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.99541502825611705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.13078826235997601</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.38503463897708301</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.38503463897708301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.21041193495654301</v>
+      </c>
+      <c r="D24" s="14">
+        <v>8.1506411256833999E-2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>9.1537893156532005E-2</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.55905768905277198</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.82924130745184499</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.800017266352964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.29388432013013999</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.13868511551645901</v>
+      </c>
+      <c r="E25" s="14">
+        <v>9.5987540416575007E-2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.38489680510815499</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.70980040981558601</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.79913070048466395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.35561369783031299</v>
+      </c>
+      <c r="D26" s="14">
+        <v>8.9094345327166494E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.112491959535426</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.25661471174655598</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.81380311074452505</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0.76429489437100395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.167313131313131</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.93508591531989405</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.93508591531989405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7.0585858585858599E-2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>7.0585858585858696E-2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>7.0585858585859002E-2</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.84966430050280894</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.84966430050280894</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.84966430050280795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1.2560098864446201E-17</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1.4318512705468601E-17</v>
+      </c>
+      <c r="E29" s="15">
+        <v>4.1852043716172502E-16</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2.1965660293504699E-17</v>
+      </c>
+      <c r="D30" s="15">
+        <v>3.0014150536432002E-17</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1.9109293272336E-16</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.32692810457516303</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.246868753137409</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.246868753137409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.22633986928104499</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.40231625354544298</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0.40231625354544298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0.173071895424836</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.17014161661219801</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.173093681917211</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.54314370863649397</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.55280323154520095</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0.54332611912689599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.121328977187122</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.10058824502354</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.118322445272331</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.67943102020799795</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.73218117316607201</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0.68727513276580399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="D35" s="14">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="E35" s="14">
+        <v>6.5579633915421806E-2</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.37520002794653601</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.37520002794653601</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.37520002794653601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="E36" s="14">
+        <v>4.3046496949295097E-2</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.91214539007092199</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.91214539007092199</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0.91214539007092199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1.6410687986534798E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.0267242308383001E-2</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1.43488388583605E-2</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.96648936170212696</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0.97907792671511995</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0.97065601497031395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2.0408199229341702E-3</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2.04081673632657E-3</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2.0408163265306098E-3</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.99583332599067598</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0.99583333249666595</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0.99583333333333302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.37369126317794699</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.37369126317794699</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0.37369126317794699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.33320729199634E-15</v>
+      </c>
+      <c r="D40" s="15">
+        <v>9.6890235479452603E-7</v>
+      </c>
+      <c r="E40" s="14">
+        <v>6.4907775692879001E-17</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.99999704895972097</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1.17655213847189E-17</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1.23382548703325E-6</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2.2289740781734598E-16</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.99999598137482104</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14">
+        <v>2.9374321846412299E-18</v>
+      </c>
+      <c r="D42" s="15">
+        <v>5.9487688449748498E-8</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1.29878721970373E-16</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.99999982736025494</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="D43" s="14">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.28862238350223401</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.72626560862035805</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.72626560862035805</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0.72626560862035805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.22938749527677199</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.223383634995795</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.217819894403954</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.33833680663145899</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0.35535391495431801</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0.34266405284879897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.184501686745347</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.15736023502098601</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.17066833241989299</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.46774305901928998</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.54599848231617798</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0.50761414286584206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.152140685795595</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.13909776995584799</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.124993447053902</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0.56168697171202497</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.59784472663724697</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0.63951858675509599</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H46">
+    <sortCondition ref="A3:A46"/>
+    <sortCondition ref="B3:B46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3CEDE5-AEA5-104F-B81F-C1AE80974DC9}">
+  <dimension ref="C2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>169</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>232</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>277</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>625</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>958</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1728</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>3196</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FB4723-6C74-8949-8A80-6895C5BFDB0F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10967,995 +18775,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B6E21F-9EEA-544E-8BF7-797940F01785}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>625</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.60595826788212503</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.56965727068164795</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.591305714498913</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.396844796920716</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0.40623139144562198</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.44295647953139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>277</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.63248519308220796</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.64540669943655005</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.55176200250826901</v>
-      </c>
-      <c r="G4" s="12">
-        <v>3.4087301587301597E-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>6.0357142857142797E-2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>-4.3690476190475197E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>1728</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.51333339354444096</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.50919083066775905</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.59715599834112099</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.53322736349033095</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.50043583385680102</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.55884458802416703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>132</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.84888582698511705</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.84568803124519598</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.84875404307507796</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.33725489634719003</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.30666665543966698</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.35052289396405101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>232</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.99782608695652097</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.99541502825611705</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.87036885692492005</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.81556200283316904</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.84539366395791804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>3196</v>
-      </c>
-      <c r="C8">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.25661471174655598</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.81380311074452505</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.76429489437100395</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.23785038304494899</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.80524547936521196</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.761578611017244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>124</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.95555555555555505</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.98333333333333295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>169</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.67943102020799795</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.73218117316607201</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.68727513276580399</v>
-      </c>
-      <c r="G10" s="12">
-        <v>-4.0005003085804902E-2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>-3.3691308691308597E-2</v>
-      </c>
-      <c r="I10" s="10">
-        <v>-1.8601385912005199E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>122</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.99583332599067598</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.99583333249666595</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.99583333333333302</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.79999999580419501</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.79696970031636305</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.67878787878787805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.99999982736025494</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.79365079365079305</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.786110926424478</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.89642857142857102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
-        <v>958</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.56168697171202497</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.59784472663724697</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.63951858675509599</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.383250634538774</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.48285497647728898</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.49016827892499398</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1036EA42-7C27-EC47-805A-39DC91679ADD}">
-  <dimension ref="A3:Q30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="G3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="K3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="O3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.15209961152099719</v>
-      </c>
-      <c r="C5">
-        <v>0.15209961152099719</v>
-      </c>
-      <c r="D5">
-        <v>0.15209961152099719</v>
-      </c>
-      <c r="G5">
-        <v>0.53235100126851032</v>
-      </c>
-      <c r="H5">
-        <v>0.53235100126851032</v>
-      </c>
-      <c r="I5">
-        <v>0.52917068323670702</v>
-      </c>
-      <c r="K5">
-        <v>0.18844664835146932</v>
-      </c>
-      <c r="L5">
-        <v>0.1885139884188094</v>
-      </c>
-      <c r="M5">
-        <v>0.18811540836980034</v>
-      </c>
-      <c r="O5">
-        <v>0.4122378402912158</v>
-      </c>
-      <c r="P5">
-        <v>0.40958271763609311</v>
-      </c>
-      <c r="Q5">
-        <v>0.41240327616253403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.12075161092919937</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.10835464012405813</v>
-      </c>
-      <c r="D6">
-        <v>0.11020258177074466</v>
-      </c>
-      <c r="G6">
-        <v>0.62664976454142485</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.65318562901273758</v>
-      </c>
-      <c r="I6">
-        <v>0.64155824195250599</v>
-      </c>
-      <c r="K6">
-        <v>0.17999044882643805</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.16969056012271436</v>
-      </c>
-      <c r="M6">
-        <v>0.17928127070265293</v>
-      </c>
-      <c r="O6">
-        <v>0.44177688906092688</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.45974295741365945</v>
-      </c>
-      <c r="Q6">
-        <v>0.43727515604401312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>9.7093605412089432E-2</v>
-      </c>
-      <c r="C7">
-        <v>8.108210018316514E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>7.9005574415092469E-2</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="G7">
-        <v>0.70108931289968812</v>
-      </c>
-      <c r="H7">
-        <v>0.73442766403879611</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.73675313226426797</v>
-      </c>
-      <c r="K7">
-        <v>0.16575059309761719</v>
-      </c>
-      <c r="L7">
-        <v>0.15073072565044654</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.14922426359631571</v>
-      </c>
-      <c r="O7">
-        <v>0.49342212148003189</v>
-      </c>
-      <c r="P7">
-        <v>0.52709384118338698</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0.52822756432044848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8.7226198114762274E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.0530621513950812E-2</v>
-      </c>
-      <c r="D8">
-        <v>6.3919566837019992E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.73564134528251512</v>
-      </c>
-      <c r="H8">
-        <v>0.79178227294871983</v>
-      </c>
-      <c r="I8">
-        <v>0.78830133944588487</v>
-      </c>
-      <c r="K8">
-        <v>0.17403265838974588</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.14762579456297414</v>
-      </c>
-      <c r="M8">
-        <v>0.14869146214656404</v>
-      </c>
-      <c r="O8">
-        <v>0.48200777952535634</v>
-      </c>
-      <c r="P8">
-        <v>0.53424934548403968</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.54052022153336965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.15209961152099719</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.15209961152099719</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.53235100126851032</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.53235100126851032</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0.10835464012405813</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.10774803631619921</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0.65318562901273758</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0.65337642377068772</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="22">
-        <v>8.108210018316514E-2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>7.9005574415092469E-2</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2E-3</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.73442766403879611</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0.73675313226426797</v>
-      </c>
-      <c r="G15" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="20">
-        <v>6.0530621513950812E-2</v>
-      </c>
-      <c r="C16" s="22">
-        <v>6.3919566837019992E-2</v>
-      </c>
-      <c r="D16" s="19">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0.79178227294871983</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.78830133944588487</v>
-      </c>
-      <c r="G16" s="24">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="22">
-        <v>0.1885139884188094</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0.18811540836980034</v>
-      </c>
-      <c r="D20" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.40958271763609311</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.41240327616253403</v>
-      </c>
-      <c r="G20" s="22">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20">
-        <v>0.16969056012271436</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.17928127070265293</v>
-      </c>
-      <c r="D21" s="22">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.45974295741365945</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.43727515604401312</v>
-      </c>
-      <c r="G21" s="22">
-        <v>-2.3E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" s="22">
-        <v>0.15073072565044654</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0.14922426359631571</v>
-      </c>
-      <c r="D22" s="21">
-        <v>2E-3</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.52709384118338698</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.52822756432044848</v>
-      </c>
-      <c r="G22" s="22">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20">
-        <v>0.14762579456297414</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0.14869146214656404</v>
-      </c>
-      <c r="D23" s="22">
-        <v>-1E-3</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.53424934548403968</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.54052022153336965</v>
-      </c>
-      <c r="G23" s="22">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>395.57367369911776</v>
-      </c>
-      <c r="C27">
-        <v>432.35530249422141</v>
-      </c>
-      <c r="D27" s="21">
-        <f>SUM(C27,-B27)</f>
-        <v>36.781628795103643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" s="19">
-        <v>2303.1104902961033</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2021.6323267763312</v>
-      </c>
-      <c r="D28" s="21">
-        <f t="shared" ref="D28:D30" si="0">SUM(C28,-B28)</f>
-        <v>-281.47816351977212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="19">
-        <v>3098.2401379455218</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2747.5691506862631</v>
-      </c>
-      <c r="D29" s="21">
-        <f t="shared" si="0"/>
-        <v>-350.67098725925871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19">
-        <v>2729.3862626205791</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2621.2699505242426</v>
-      </c>
-      <c r="D30" s="21">
-        <f t="shared" si="0"/>
-        <v>-108.11631209633651</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCC0C50-171D-044A-93A6-C192F6F6E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFD03A-AACC-B64D-984D-9ADDB9BC32BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="-2140" windowWidth="32780" windowHeight="16140" activeTab="10" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
@@ -26,9 +26,6 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$20:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$20:$B$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$C$20:$C$23</definedName>
     <definedName name="res_2023_03_13" localSheetId="2">Sheet3!$A$65:$J$71</definedName>
     <definedName name="res_2023_03_14" localSheetId="1">Sheet1!$A$2:$I$19</definedName>
     <definedName name="res_2023_03_14" localSheetId="0">Sheet2!$A$2:$G$19</definedName>
@@ -4939,27 +4936,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-21" connectionId="6" xr16:uid="{A14C6B64-023A-6F49-89F7-1EC54A224D03}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-22" connectionId="7" xr16:uid="{E277F844-ACDE-8B4B-AF6D-0D3116968B61}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="8" xr16:uid="{541BDBAF-4F85-0F49-B317-6EC450FAE77C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-15" connectionId="5" xr16:uid="{9212B96C-6B9E-814B-B486-182E4577D3DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-13" connectionId="1" xr16:uid="{D7597A5E-828A-BE4B-B3E5-0C3B1BF48EEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-14" connectionId="4" xr16:uid="{AC318CF6-641D-074A-90DA-D8E0FA941C11}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6632,12 +6629,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:D26"/>
@@ -6649,6 +6640,12 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results/results_depth_2_14_03.xlsx
+++ b/Results/results_depth_2_14_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CFD03A-AACC-B64D-984D-9ADDB9BC32BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455A10BC-1741-5049-807C-4EF56130D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="-2140" windowWidth="32780" windowHeight="16140" activeTab="10" xr2:uid="{CC26E306-C384-F440-AF5E-BA2E69A20A66}"/>
   </bookViews>
@@ -26,6 +26,18 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$20:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$B$20:$B$23</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet6!$B$20:$B$23</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet6!$C$20:$C$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$C$20:$C$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet6!$A$20:$A$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet6!$B$20:$B$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet6!$C$20:$C$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet6!$A$20:$A$23</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet6!$E$20:$E$23</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet6!$F$20:$F$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet6!$A$20:$A$23</definedName>
     <definedName name="res_2023_03_13" localSheetId="2">Sheet3!$A$65:$J$71</definedName>
     <definedName name="res_2023_03_14" localSheetId="1">Sheet1!$A$2:$I$19</definedName>
     <definedName name="res_2023_03_14" localSheetId="0">Sheet2!$A$2:$G$19</definedName>
@@ -1142,7 +1154,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1204,7 +1216,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E1B1-0A48-A555-9BA4347C09B6}"/>
@@ -1271,7 +1283,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E1B1-0A48-A555-9BA4347C09B6}"/>
@@ -1617,7 +1629,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1679,7 +1691,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DA85-E443-97A4-217A8B9FBFCD}"/>
@@ -1746,7 +1758,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DA85-E443-97A4-217A8B9FBFCD}"/>
@@ -2081,7 +2093,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2143,7 +2155,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E127-AD4C-B374-21B57DD6445B}"/>
@@ -2210,7 +2222,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E127-AD4C-B374-21B57DD6445B}"/>
@@ -4916,19 +4928,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-27" connectionId="13" xr16:uid="{A1142A11-A80A-0F45-9AA7-6A103816768C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-25" connectionId="11" xr16:uid="{C3864F85-9D63-7F4C-A96A-97AF73C15F02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-26" connectionId="12" xr16:uid="{F4331ABC-09B7-DF4A-A9B1-E388929B73E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="9" xr16:uid="{4A37E13E-E5C2-114F-92D7-DCB59EA533AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-25" connectionId="11" xr16:uid="{C3864F85-9D63-7F4C-A96A-97AF73C15F02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-24" connectionId="10" xr16:uid="{7B42227C-9B99-F248-8BE7-07DEBCE0BCBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-23" connectionId="9" xr16:uid="{4A37E13E-E5C2-114F-92D7-DCB59EA533AA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-27" connectionId="13" xr16:uid="{A1142A11-A80A-0F45-9AA7-6A103816768C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4960,7 +4972,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-24" connectionId="10" xr16:uid="{7B42227C-9B99-F248-8BE7-07DEBCE0BCBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="res_2023-03-26" connectionId="12" xr16:uid="{F4331ABC-09B7-DF4A-A9B1-E388929B73E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6629,6 +6641,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:D26"/>
@@ -6640,12 +6658,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
